--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Excel Annual budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E432D5FF-1DFB-41DE-9914-9FFD94588A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775A7EC-A68D-4A7B-9BBE-62DE25813F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="837" activeTab="6" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Data" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="53">
   <si>
     <t>Month</t>
   </si>
@@ -215,6 +215,9 @@
   <si>
     <t>Sum of Amount</t>
   </si>
+  <si>
+    <t>Full time jobs</t>
+  </si>
 </sst>
 </file>
 
@@ -222,10 +225,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +296,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,36 +482,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,13 +542,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -583,6 +587,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -598,79 +632,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;\ #,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -707,6 +683,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -753,8 +744,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style " pivot="0" table="0" count="4" xr9:uid="{4F2702B4-8E1A-45A9-BE93-824F78568E6A}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -862,7 +853,7 @@
         <s v="Expense"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Amount" numFmtId="165">
+    <cacheField name="Amount" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7500"/>
     </cacheField>
   </cacheFields>
@@ -2392,7 +2383,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D6:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2436,7 +2427,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -2506,10 +2497,10 @@
     <pageField fld="3" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="172"/>
+    <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2543,18 +2534,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}" name="Full_Data" displayName="Full_Data" ref="A1:E217" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E217" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="3" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:D49" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DA7B8EA1-6FBD-4518-9E93-954FA0CF90DF}" name="Month"/>
@@ -2567,7 +2558,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="H1:K85" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6C1BB9FE-D288-4963-95A0-3938455504ED}" name="Month"/>
@@ -2909,3674 +2900,3674 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="38" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="38" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="10">
         <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="38" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="38" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="10">
         <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="38" t="s">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="10">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="38" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="38" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="10">
         <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="38" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="38" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="10">
         <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="38" t="s">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="38" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="10">
         <v>7500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="38" t="s">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="10">
         <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="38" t="s">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="38" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="10">
         <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="38" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="38" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="10">
         <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="38" t="s">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="38" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="10">
         <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="38" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="38" t="s">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="38" t="s">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="38" t="s">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="10">
         <v>2200</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="38" t="s">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="38" t="s">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="38" t="s">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="38" t="s">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="38" t="s">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="38" t="s">
+      <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="38" t="s">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="38" t="s">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="10">
         <v>1900</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="38" t="s">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="38" t="s">
+      <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="10">
         <v>1500</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="38" t="s">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="10">
         <v>850</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="38" t="s">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="10">
         <v>1700</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="38" t="s">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="38" t="s">
+      <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="10">
         <v>1600</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="38" t="s">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="10">
         <v>950</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="38" t="s">
+      <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="10">
         <v>1700</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="38" t="s">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="10">
         <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="38" t="s">
+      <c r="A43" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="10">
         <v>1500</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="38" t="s">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="38" t="s">
+      <c r="A45" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="10">
         <v>1600</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="38" t="s">
+      <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="10">
         <v>6000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="38" t="s">
+      <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="10">
         <v>700</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="38" t="s">
+      <c r="A48" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="10">
         <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="38" t="s">
+      <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="10">
         <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="38" t="s">
+      <c r="A50" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="39">
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="38" t="s">
+      <c r="A51" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="39">
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="10">
         <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="38" t="s">
+      <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="39">
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="38" t="s">
+      <c r="A53" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="39">
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="38" t="s">
+      <c r="A54" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="39">
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="38" t="s">
+      <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="38" t="s">
+      <c r="C55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="39">
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="38" t="s">
+      <c r="A56" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="39">
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="10">
         <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="38" t="s">
+      <c r="A57" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="39">
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="38" t="s">
+      <c r="A58" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="39">
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="10">
         <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="38" t="s">
+      <c r="A59" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="39">
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="10">
         <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="38" t="s">
+      <c r="A60" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="39">
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="38" t="s">
+      <c r="A61" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="39">
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="38" t="s">
+      <c r="A62" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="39">
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" s="38" t="s">
+      <c r="A63" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="39">
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" s="38" t="s">
+      <c r="A64" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="39">
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="38" t="s">
+      <c r="A65" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="39">
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="10">
         <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="38" t="s">
+      <c r="A66" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="39">
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="10">
         <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="38" t="s">
+      <c r="A67" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="39">
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="38" t="s">
+      <c r="A68" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="39">
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="38" t="s">
+      <c r="A69" t="s">
         <v>18</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="39">
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="38" t="s">
+      <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="39">
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="10">
         <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="38" t="s">
+      <c r="A71" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="39">
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="38" t="s">
+      <c r="A72" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="39">
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="10">
         <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="38" t="s">
+      <c r="A73" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="39">
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="10">
         <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="38" t="s">
+      <c r="A74" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="39">
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="38" t="s">
+      <c r="A75" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="39">
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="38" t="s">
+      <c r="A76" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="39">
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="38" t="s">
+      <c r="A77" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="39">
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="10">
         <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="38" t="s">
+      <c r="A78" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="38" t="s">
+      <c r="C78" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="39">
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="38" t="s">
+      <c r="A79" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="38" t="s">
+      <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="39">
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="10">
         <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="38" t="s">
+      <c r="A80" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="38" t="s">
+      <c r="C80" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E80" s="39">
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="38" t="s">
+      <c r="A81" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" s="39">
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="38" t="s">
+      <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="39">
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="38" t="s">
+      <c r="A83" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="39">
+      <c r="D83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="38" t="s">
+      <c r="A84" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="39">
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="10">
         <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="38" t="s">
+      <c r="A85" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="38" t="s">
+      <c r="B85" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="39">
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86" s="38" t="s">
+      <c r="A86" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="38" t="s">
+      <c r="B86" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="39">
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="10">
         <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87" s="38" t="s">
+      <c r="A87" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="39">
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="38" t="s">
+      <c r="A88" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="39">
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="38" t="s">
+      <c r="A89" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="38" t="s">
+      <c r="C89" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="39">
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A90" s="38" t="s">
+      <c r="A90" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="38" t="s">
+      <c r="C90" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="39">
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A91" s="38" t="s">
+      <c r="A91" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="39">
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A92" s="38" t="s">
+      <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" t="s">
         <v>36</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="39">
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A93" s="38" t="s">
+      <c r="A93" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="39">
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="10">
         <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A94" s="38" t="s">
+      <c r="A94" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="38" t="s">
+      <c r="C94" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E94" s="39">
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A95" s="38" t="s">
+      <c r="A95" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="38" t="s">
+      <c r="C95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="39">
+      <c r="D95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="38" t="s">
+      <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="38" t="s">
+      <c r="C96" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="39">
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="38" t="s">
+      <c r="A97" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="38" t="s">
+      <c r="C97" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="39">
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A98" s="38" t="s">
+      <c r="A98" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="C98" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="39">
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="10">
         <v>775</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A99" s="38" t="s">
+      <c r="A99" t="s">
         <v>23</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E99" s="39">
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A100" s="38" t="s">
+      <c r="A100" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="38" t="s">
+      <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E100" s="39">
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="10">
         <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A101" s="38" t="s">
+      <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="38" t="s">
+      <c r="B101" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="C101" t="s">
         <v>11</v>
       </c>
-      <c r="D101" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="39">
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" s="38" t="s">
+      <c r="A102" t="s">
         <v>23</v>
       </c>
-      <c r="B102" s="38" t="s">
+      <c r="B102" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="38" t="s">
+      <c r="C102" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102" s="39">
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A103" s="38" t="s">
+      <c r="A103" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="38" t="s">
+      <c r="C103" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" s="39">
+      <c r="D103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" s="38" t="s">
+      <c r="A104" t="s">
         <v>23</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="B104" t="s">
         <v>37</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E104" s="39">
+      <c r="D104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="38" t="s">
+      <c r="A105" t="s">
         <v>23</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E105" s="39">
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="10">
         <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="38" t="s">
+      <c r="A106" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="38" t="s">
+      <c r="B106" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E106" s="39">
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="38" t="s">
+      <c r="A107" t="s">
         <v>24</v>
       </c>
-      <c r="B107" s="38" t="s">
+      <c r="B107" t="s">
         <v>38</v>
       </c>
-      <c r="C107" s="38" t="s">
+      <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" s="39">
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="10">
         <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A108" s="38" t="s">
+      <c r="A108" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" t="s">
         <v>38</v>
       </c>
-      <c r="C108" s="38" t="s">
+      <c r="C108" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E108" s="39">
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A109" s="38" t="s">
+      <c r="A109" t="s">
         <v>24</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" t="s">
         <v>38</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E109" s="39">
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" s="38" t="s">
+      <c r="A110" t="s">
         <v>24</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" t="s">
         <v>38</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" t="s">
         <v>15</v>
       </c>
-      <c r="D110" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="39">
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="38" t="s">
+      <c r="A111" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="38" t="s">
+      <c r="B111" t="s">
         <v>38</v>
       </c>
-      <c r="C111" s="38" t="s">
+      <c r="C111" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E111" s="39">
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="38" t="s">
+      <c r="A112" t="s">
         <v>24</v>
       </c>
-      <c r="B112" s="38" t="s">
+      <c r="B112" t="s">
         <v>38</v>
       </c>
-      <c r="C112" s="38" t="s">
+      <c r="C112" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E112" s="39">
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="10">
         <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="38" t="s">
+      <c r="A113" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="38" t="s">
+      <c r="B113" t="s">
         <v>39</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" s="39">
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="38" t="s">
+      <c r="A114" t="s">
         <v>25</v>
       </c>
-      <c r="B114" s="38" t="s">
+      <c r="B114" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E114" s="39">
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="10">
         <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A115" s="38" t="s">
+      <c r="A115" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="38" t="s">
+      <c r="B115" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="38" t="s">
+      <c r="C115" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E115" s="39">
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="10">
         <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A116" s="38" t="s">
+      <c r="A116" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="38" t="s">
+      <c r="C116" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E116" s="39">
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A117" s="38" t="s">
+      <c r="A117" t="s">
         <v>25</v>
       </c>
-      <c r="B117" s="38" t="s">
+      <c r="B117" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="38" t="s">
+      <c r="C117" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E117" s="39">
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="38" t="s">
+      <c r="A118" t="s">
         <v>25</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="B118" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="38" t="s">
+      <c r="C118" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E118" s="39">
+      <c r="D118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="38" t="s">
+      <c r="A119" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="38" t="s">
+      <c r="B119" t="s">
         <v>39</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E119" s="39">
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="38" t="s">
+      <c r="A120" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="38" t="s">
+      <c r="C120" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="39">
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="38" t="s">
+      <c r="A121" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" t="s">
         <v>40</v>
       </c>
-      <c r="C121" s="38" t="s">
+      <c r="C121" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" s="39">
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="10">
         <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="38" t="s">
+      <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="38" t="s">
+      <c r="C122" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122" s="39">
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A123" s="38" t="s">
+      <c r="A123" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" s="39">
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" s="38" t="s">
+      <c r="A124" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="38" t="s">
+      <c r="C124" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E124" s="39">
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A125" s="38" t="s">
+      <c r="A125" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="38" t="s">
+      <c r="C125" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" s="39">
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="38" t="s">
+      <c r="A126" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="38" t="s">
+      <c r="C126" t="s">
         <v>17</v>
       </c>
-      <c r="D126" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E126" s="39">
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="38" t="s">
+      <c r="A127" t="s">
         <v>27</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C127" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" s="39">
+      <c r="D127" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A128" s="38" t="s">
+      <c r="A128" t="s">
         <v>27</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" t="s">
         <v>41</v>
       </c>
-      <c r="C128" s="38" t="s">
+      <c r="C128" t="s">
         <v>9</v>
       </c>
-      <c r="D128" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E128" s="39">
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="10">
         <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A129" s="38" t="s">
+      <c r="A129" t="s">
         <v>27</v>
       </c>
-      <c r="B129" s="38" t="s">
+      <c r="B129" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="38" t="s">
+      <c r="C129" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E129" s="39">
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A130" s="38" t="s">
+      <c r="A130" t="s">
         <v>27</v>
       </c>
-      <c r="B130" s="38" t="s">
+      <c r="B130" t="s">
         <v>41</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" t="s">
         <v>13</v>
       </c>
-      <c r="D130" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E130" s="39">
+      <c r="D130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A131" s="38" t="s">
+      <c r="A131" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" t="s">
         <v>41</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C131" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="39">
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A132" s="38" t="s">
+      <c r="A132" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" t="s">
         <v>41</v>
       </c>
-      <c r="C132" s="38" t="s">
+      <c r="C132" t="s">
         <v>16</v>
       </c>
-      <c r="D132" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" s="39">
+      <c r="D132" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A133" s="38" t="s">
+      <c r="A133" t="s">
         <v>27</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" t="s">
         <v>41</v>
       </c>
-      <c r="C133" s="38" t="s">
+      <c r="C133" t="s">
         <v>17</v>
       </c>
-      <c r="D133" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E133" s="39">
+      <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="10">
         <v>1400</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="38" t="s">
+      <c r="A134" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="38" t="s">
+      <c r="C134" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E134" s="39">
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="38" t="s">
+      <c r="A135" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" t="s">
         <v>31</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" t="s">
         <v>9</v>
       </c>
-      <c r="D135" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="39">
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="10">
         <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" s="38" t="s">
+      <c r="A136" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" t="s">
         <v>31</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C136" t="s">
         <v>11</v>
       </c>
-      <c r="D136" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E136" s="39">
+      <c r="D136" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" s="38" t="s">
+      <c r="A137" t="s">
         <v>3</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="C137" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" s="39">
+      <c r="D137" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" s="38" t="s">
+      <c r="A138" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="38" t="s">
+      <c r="C138" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="39">
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A139" s="38" t="s">
+      <c r="A139" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" t="s">
         <v>31</v>
       </c>
-      <c r="C139" s="38" t="s">
+      <c r="C139" t="s">
         <v>16</v>
       </c>
-      <c r="D139" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="39">
+      <c r="D139" t="s">
+        <v>29</v>
+      </c>
+      <c r="E139" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A140" s="38" t="s">
+      <c r="A140" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="B140" t="s">
         <v>31</v>
       </c>
-      <c r="C140" s="38" t="s">
+      <c r="C140" t="s">
         <v>17</v>
       </c>
-      <c r="D140" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" s="39">
+      <c r="D140" t="s">
+        <v>29</v>
+      </c>
+      <c r="E140" s="10">
         <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A141" s="38" t="s">
+      <c r="A141" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="38" t="s">
+      <c r="B141" t="s">
         <v>32</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" s="39">
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A142" s="38" t="s">
+      <c r="A142" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="38" t="s">
+      <c r="B142" t="s">
         <v>32</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="39">
+      <c r="D142" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="10">
         <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A143" s="38" t="s">
+      <c r="A143" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="38" t="s">
+      <c r="B143" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="38" t="s">
+      <c r="C143" t="s">
         <v>11</v>
       </c>
-      <c r="D143" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="39">
+      <c r="D143" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="10">
         <v>560</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A144" s="38" t="s">
+      <c r="A144" t="s">
         <v>14</v>
       </c>
-      <c r="B144" s="38" t="s">
+      <c r="B144" t="s">
         <v>32</v>
       </c>
-      <c r="C144" s="38" t="s">
+      <c r="C144" t="s">
         <v>13</v>
       </c>
-      <c r="D144" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144" s="39">
+      <c r="D144" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A145" s="38" t="s">
+      <c r="A145" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="38" t="s">
+      <c r="B145" t="s">
         <v>32</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="C145" t="s">
         <v>15</v>
       </c>
-      <c r="D145" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E145" s="39">
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A146" s="38" t="s">
+      <c r="A146" t="s">
         <v>14</v>
       </c>
-      <c r="B146" s="38" t="s">
+      <c r="B146" t="s">
         <v>32</v>
       </c>
-      <c r="C146" s="38" t="s">
+      <c r="C146" t="s">
         <v>16</v>
       </c>
-      <c r="D146" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="39">
+      <c r="D146" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A147" s="38" t="s">
+      <c r="A147" t="s">
         <v>14</v>
       </c>
-      <c r="B147" s="38" t="s">
+      <c r="B147" t="s">
         <v>32</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="C147" t="s">
         <v>17</v>
       </c>
-      <c r="D147" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147" s="39">
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A148" s="38" t="s">
+      <c r="A148" t="s">
         <v>18</v>
       </c>
-      <c r="B148" s="38" t="s">
+      <c r="B148" t="s">
         <v>33</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C148" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="39">
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A149" s="38" t="s">
+      <c r="A149" t="s">
         <v>18</v>
       </c>
-      <c r="B149" s="38" t="s">
+      <c r="B149" t="s">
         <v>33</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="C149" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E149" s="39">
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="10">
         <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A150" s="38" t="s">
+      <c r="A150" t="s">
         <v>18</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" t="s">
         <v>33</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" s="39">
+      <c r="D150" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="10">
         <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A151" s="38" t="s">
+      <c r="A151" t="s">
         <v>18</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="B151" t="s">
         <v>33</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="C151" t="s">
         <v>13</v>
       </c>
-      <c r="D151" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="39">
+      <c r="D151" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A152" s="38" t="s">
+      <c r="A152" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" t="s">
         <v>33</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" t="s">
         <v>15</v>
       </c>
-      <c r="D152" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E152" s="39">
+      <c r="D152" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A153" s="38" t="s">
+      <c r="A153" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="38" t="s">
+      <c r="B153" t="s">
         <v>33</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C153" t="s">
         <v>16</v>
       </c>
-      <c r="D153" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E153" s="39">
+      <c r="D153" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A154" s="38" t="s">
+      <c r="A154" t="s">
         <v>18</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" t="s">
         <v>33</v>
       </c>
-      <c r="C154" s="38" t="s">
+      <c r="C154" t="s">
         <v>17</v>
       </c>
-      <c r="D154" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="39">
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="10">
         <v>375</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A155" s="38" t="s">
+      <c r="A155" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" t="s">
         <v>34</v>
       </c>
-      <c r="C155" s="38" t="s">
+      <c r="C155" t="s">
         <v>6</v>
       </c>
-      <c r="D155" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="39">
+      <c r="D155" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A156" s="38" t="s">
+      <c r="A156" t="s">
         <v>19</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" t="s">
         <v>34</v>
       </c>
-      <c r="C156" s="38" t="s">
+      <c r="C156" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="39">
+      <c r="D156" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="10">
         <v>350</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A157" s="38" t="s">
+      <c r="A157" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" t="s">
         <v>34</v>
       </c>
-      <c r="C157" s="38" t="s">
+      <c r="C157" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="39">
+      <c r="D157" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="10">
         <v>620</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A158" s="38" t="s">
+      <c r="A158" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" t="s">
         <v>34</v>
       </c>
-      <c r="C158" s="38" t="s">
+      <c r="C158" t="s">
         <v>13</v>
       </c>
-      <c r="D158" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E158" s="39">
+      <c r="D158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A159" s="38" t="s">
+      <c r="A159" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" t="s">
         <v>34</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C159" t="s">
         <v>15</v>
       </c>
-      <c r="D159" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="39">
+      <c r="D159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A160" s="38" t="s">
+      <c r="A160" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" t="s">
         <v>34</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" t="s">
         <v>16</v>
       </c>
-      <c r="D160" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="39">
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A161" s="38" t="s">
+      <c r="A161" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" t="s">
         <v>17</v>
       </c>
-      <c r="D161" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E161" s="39">
+      <c r="D161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="10">
         <v>425</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A162" s="38" t="s">
+      <c r="A162" t="s">
         <v>20</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" t="s">
         <v>20</v>
       </c>
-      <c r="C162" s="38" t="s">
+      <c r="C162" t="s">
         <v>6</v>
       </c>
-      <c r="D162" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="39">
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A163" s="38" t="s">
+      <c r="A163" t="s">
         <v>20</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" t="s">
         <v>20</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" t="s">
         <v>9</v>
       </c>
-      <c r="D163" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" s="39">
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" s="10">
         <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A164" s="38" t="s">
+      <c r="A164" t="s">
         <v>20</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" t="s">
         <v>20</v>
       </c>
-      <c r="C164" s="38" t="s">
+      <c r="C164" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164" s="39">
+      <c r="D164" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A165" s="38" t="s">
+      <c r="A165" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" t="s">
         <v>20</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="C165" t="s">
         <v>13</v>
       </c>
-      <c r="D165" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165" s="39">
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A166" s="38" t="s">
+      <c r="A166" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" t="s">
         <v>20</v>
       </c>
-      <c r="C166" s="38" t="s">
+      <c r="C166" t="s">
         <v>15</v>
       </c>
-      <c r="D166" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="39">
+      <c r="D166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A167" s="38" t="s">
+      <c r="A167" t="s">
         <v>20</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" t="s">
         <v>20</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C167" t="s">
         <v>16</v>
       </c>
-      <c r="D167" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="39">
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A168" s="38" t="s">
+      <c r="A168" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" t="s">
         <v>20</v>
       </c>
-      <c r="C168" s="38" t="s">
+      <c r="C168" t="s">
         <v>17</v>
       </c>
-      <c r="D168" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E168" s="39">
+      <c r="D168" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="10">
         <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A169" s="38" t="s">
+      <c r="A169" t="s">
         <v>21</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="B169" t="s">
         <v>35</v>
       </c>
-      <c r="C169" s="38" t="s">
+      <c r="C169" t="s">
         <v>6</v>
       </c>
-      <c r="D169" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="39">
+      <c r="D169" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="10">
         <v>2100</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A170" s="38" t="s">
+      <c r="A170" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="B170" t="s">
         <v>35</v>
       </c>
-      <c r="C170" s="38" t="s">
+      <c r="C170" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="39">
+      <c r="D170" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="10">
         <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A171" s="38" t="s">
+      <c r="A171" t="s">
         <v>21</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="B171" t="s">
         <v>35</v>
       </c>
-      <c r="C171" s="38" t="s">
+      <c r="C171" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="39">
+      <c r="D171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A172" s="38" t="s">
+      <c r="A172" t="s">
         <v>21</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" t="s">
         <v>35</v>
       </c>
-      <c r="C172" s="38" t="s">
+      <c r="C172" t="s">
         <v>13</v>
       </c>
-      <c r="D172" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E172" s="39">
+      <c r="D172" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A173" s="38" t="s">
+      <c r="A173" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="B173" t="s">
         <v>35</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" t="s">
         <v>15</v>
       </c>
-      <c r="D173" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173" s="39">
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A174" s="38" t="s">
+      <c r="A174" t="s">
         <v>21</v>
       </c>
-      <c r="B174" s="38" t="s">
+      <c r="B174" t="s">
         <v>35</v>
       </c>
-      <c r="C174" s="38" t="s">
+      <c r="C174" t="s">
         <v>16</v>
       </c>
-      <c r="D174" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E174" s="39">
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A175" s="38" t="s">
+      <c r="A175" t="s">
         <v>21</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B175" t="s">
         <v>35</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C175" t="s">
         <v>17</v>
       </c>
-      <c r="D175" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175" s="39">
+      <c r="D175" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A176" s="38" t="s">
+      <c r="A176" t="s">
         <v>22</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B176" t="s">
         <v>36</v>
       </c>
-      <c r="C176" s="38" t="s">
+      <c r="C176" t="s">
         <v>6</v>
       </c>
-      <c r="D176" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176" s="39">
+      <c r="D176" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A177" s="38" t="s">
+      <c r="A177" t="s">
         <v>22</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B177" t="s">
         <v>36</v>
       </c>
-      <c r="C177" s="38" t="s">
+      <c r="C177" t="s">
         <v>9</v>
       </c>
-      <c r="D177" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="39">
+      <c r="D177" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" s="10">
         <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A178" s="38" t="s">
+      <c r="A178" t="s">
         <v>22</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B178" t="s">
         <v>36</v>
       </c>
-      <c r="C178" s="38" t="s">
+      <c r="C178" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="39">
+      <c r="D178" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A179" s="38" t="s">
+      <c r="A179" t="s">
         <v>22</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B179" t="s">
         <v>36</v>
       </c>
-      <c r="C179" s="38" t="s">
+      <c r="C179" t="s">
         <v>13</v>
       </c>
-      <c r="D179" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E179" s="39">
+      <c r="D179" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A180" s="38" t="s">
+      <c r="A180" t="s">
         <v>22</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" t="s">
         <v>36</v>
       </c>
-      <c r="C180" s="38" t="s">
+      <c r="C180" t="s">
         <v>15</v>
       </c>
-      <c r="D180" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E180" s="39">
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A181" s="38" t="s">
+      <c r="A181" t="s">
         <v>22</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B181" t="s">
         <v>36</v>
       </c>
-      <c r="C181" s="38" t="s">
+      <c r="C181" t="s">
         <v>16</v>
       </c>
-      <c r="D181" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E181" s="39">
+      <c r="D181" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A182" s="38" t="s">
+      <c r="A182" t="s">
         <v>22</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B182" t="s">
         <v>36</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" t="s">
         <v>17</v>
       </c>
-      <c r="D182" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E182" s="39">
+      <c r="D182" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" s="10">
         <v>775</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A183" s="38" t="s">
+      <c r="A183" t="s">
         <v>23</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B183" t="s">
         <v>37</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" t="s">
         <v>6</v>
       </c>
-      <c r="D183" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E183" s="39">
+      <c r="D183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A184" s="38" t="s">
+      <c r="A184" t="s">
         <v>23</v>
       </c>
-      <c r="B184" s="38" t="s">
+      <c r="B184" t="s">
         <v>37</v>
       </c>
-      <c r="C184" s="38" t="s">
+      <c r="C184" t="s">
         <v>9</v>
       </c>
-      <c r="D184" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E184" s="39">
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" s="10">
         <v>340</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A185" s="38" t="s">
+      <c r="A185" t="s">
         <v>23</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="B185" t="s">
         <v>37</v>
       </c>
-      <c r="C185" s="38" t="s">
+      <c r="C185" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E185" s="39">
+      <c r="D185" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" s="10">
         <v>650</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A186" s="38" t="s">
+      <c r="A186" t="s">
         <v>23</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="B186" t="s">
         <v>37</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C186" t="s">
         <v>13</v>
       </c>
-      <c r="D186" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E186" s="39">
+      <c r="D186" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A187" s="38" t="s">
+      <c r="A187" t="s">
         <v>23</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" t="s">
         <v>37</v>
       </c>
-      <c r="C187" s="38" t="s">
+      <c r="C187" t="s">
         <v>15</v>
       </c>
-      <c r="D187" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E187" s="39">
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A188" s="38" t="s">
+      <c r="A188" t="s">
         <v>23</v>
       </c>
-      <c r="B188" s="38" t="s">
+      <c r="B188" t="s">
         <v>37</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" t="s">
         <v>16</v>
       </c>
-      <c r="D188" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E188" s="39">
+      <c r="D188" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A189" s="38" t="s">
+      <c r="A189" t="s">
         <v>23</v>
       </c>
-      <c r="B189" s="38" t="s">
+      <c r="B189" t="s">
         <v>37</v>
       </c>
-      <c r="C189" s="38" t="s">
+      <c r="C189" t="s">
         <v>17</v>
       </c>
-      <c r="D189" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E189" s="39">
+      <c r="D189" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="10">
         <v>900</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A190" s="38" t="s">
+      <c r="A190" t="s">
         <v>24</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" t="s">
         <v>38</v>
       </c>
-      <c r="C190" s="38" t="s">
+      <c r="C190" t="s">
         <v>6</v>
       </c>
-      <c r="D190" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E190" s="39">
+      <c r="D190" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A191" s="38" t="s">
+      <c r="A191" t="s">
         <v>24</v>
       </c>
-      <c r="B191" s="38" t="s">
+      <c r="B191" t="s">
         <v>38</v>
       </c>
-      <c r="C191" s="38" t="s">
+      <c r="C191" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E191" s="39">
+      <c r="D191" t="s">
+        <v>29</v>
+      </c>
+      <c r="E191" s="10">
         <v>320</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A192" s="38" t="s">
+      <c r="A192" t="s">
         <v>24</v>
       </c>
-      <c r="B192" s="38" t="s">
+      <c r="B192" t="s">
         <v>38</v>
       </c>
-      <c r="C192" s="38" t="s">
+      <c r="C192" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E192" s="39">
+      <c r="D192" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A193" s="38" t="s">
+      <c r="A193" t="s">
         <v>24</v>
       </c>
-      <c r="B193" s="38" t="s">
+      <c r="B193" t="s">
         <v>38</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C193" t="s">
         <v>13</v>
       </c>
-      <c r="D193" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E193" s="39">
+      <c r="D193" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A194" s="38" t="s">
+      <c r="A194" t="s">
         <v>24</v>
       </c>
-      <c r="B194" s="38" t="s">
+      <c r="B194" t="s">
         <v>38</v>
       </c>
-      <c r="C194" s="38" t="s">
+      <c r="C194" t="s">
         <v>15</v>
       </c>
-      <c r="D194" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E194" s="39">
+      <c r="D194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A195" s="38" t="s">
+      <c r="A195" t="s">
         <v>24</v>
       </c>
-      <c r="B195" s="38" t="s">
+      <c r="B195" t="s">
         <v>38</v>
       </c>
-      <c r="C195" s="38" t="s">
+      <c r="C195" t="s">
         <v>16</v>
       </c>
-      <c r="D195" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E195" s="39">
+      <c r="D195" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A196" s="38" t="s">
+      <c r="A196" t="s">
         <v>24</v>
       </c>
-      <c r="B196" s="38" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
-      <c r="C196" s="38" t="s">
+      <c r="C196" t="s">
         <v>17</v>
       </c>
-      <c r="D196" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E196" s="39">
+      <c r="D196" t="s">
+        <v>29</v>
+      </c>
+      <c r="E196" s="10">
         <v>450</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A197" s="38" t="s">
+      <c r="A197" t="s">
         <v>25</v>
       </c>
-      <c r="B197" s="38" t="s">
+      <c r="B197" t="s">
         <v>39</v>
       </c>
-      <c r="C197" s="38" t="s">
+      <c r="C197" t="s">
         <v>6</v>
       </c>
-      <c r="D197" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E197" s="39">
+      <c r="D197" t="s">
+        <v>29</v>
+      </c>
+      <c r="E197" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A198" s="38" t="s">
+      <c r="A198" t="s">
         <v>25</v>
       </c>
-      <c r="B198" s="38" t="s">
+      <c r="B198" t="s">
         <v>39</v>
       </c>
-      <c r="C198" s="38" t="s">
+      <c r="C198" t="s">
         <v>9</v>
       </c>
-      <c r="D198" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E198" s="39">
+      <c r="D198" t="s">
+        <v>29</v>
+      </c>
+      <c r="E198" s="10">
         <v>310</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A199" s="38" t="s">
+      <c r="A199" t="s">
         <v>25</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B199" t="s">
         <v>39</v>
       </c>
-      <c r="C199" s="38" t="s">
+      <c r="C199" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199" s="39">
+      <c r="D199" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" s="10">
         <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A200" s="38" t="s">
+      <c r="A200" t="s">
         <v>25</v>
       </c>
-      <c r="B200" s="38" t="s">
+      <c r="B200" t="s">
         <v>39</v>
       </c>
-      <c r="C200" s="38" t="s">
+      <c r="C200" t="s">
         <v>13</v>
       </c>
-      <c r="D200" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="39">
+      <c r="D200" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A201" s="38" t="s">
+      <c r="A201" t="s">
         <v>25</v>
       </c>
-      <c r="B201" s="38" t="s">
+      <c r="B201" t="s">
         <v>39</v>
       </c>
-      <c r="C201" s="38" t="s">
+      <c r="C201" t="s">
         <v>15</v>
       </c>
-      <c r="D201" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E201" s="39">
+      <c r="D201" t="s">
+        <v>29</v>
+      </c>
+      <c r="E201" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A202" s="38" t="s">
+      <c r="A202" t="s">
         <v>25</v>
       </c>
-      <c r="B202" s="38" t="s">
+      <c r="B202" t="s">
         <v>39</v>
       </c>
-      <c r="C202" s="38" t="s">
+      <c r="C202" t="s">
         <v>16</v>
       </c>
-      <c r="D202" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E202" s="39">
+      <c r="D202" t="s">
+        <v>29</v>
+      </c>
+      <c r="E202" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A203" s="38" t="s">
+      <c r="A203" t="s">
         <v>25</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" t="s">
         <v>39</v>
       </c>
-      <c r="C203" s="38" t="s">
+      <c r="C203" t="s">
         <v>17</v>
       </c>
-      <c r="D203" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E203" s="39">
+      <c r="D203" t="s">
+        <v>29</v>
+      </c>
+      <c r="E203" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A204" s="38" t="s">
+      <c r="A204" t="s">
         <v>26</v>
       </c>
-      <c r="B204" s="38" t="s">
+      <c r="B204" t="s">
         <v>40</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="C204" t="s">
         <v>6</v>
       </c>
-      <c r="D204" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E204" s="39">
+      <c r="D204" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A205" s="38" t="s">
+      <c r="A205" t="s">
         <v>26</v>
       </c>
-      <c r="B205" s="38" t="s">
+      <c r="B205" t="s">
         <v>40</v>
       </c>
-      <c r="C205" s="38" t="s">
+      <c r="C205" t="s">
         <v>9</v>
       </c>
-      <c r="D205" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E205" s="39">
+      <c r="D205" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" s="10">
         <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A206" s="38" t="s">
+      <c r="A206" t="s">
         <v>26</v>
       </c>
-      <c r="B206" s="38" t="s">
+      <c r="B206" t="s">
         <v>40</v>
       </c>
-      <c r="C206" s="38" t="s">
+      <c r="C206" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="39">
+      <c r="D206" t="s">
+        <v>29</v>
+      </c>
+      <c r="E206" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A207" s="38" t="s">
+      <c r="A207" t="s">
         <v>26</v>
       </c>
-      <c r="B207" s="38" t="s">
+      <c r="B207" t="s">
         <v>40</v>
       </c>
-      <c r="C207" s="38" t="s">
+      <c r="C207" t="s">
         <v>13</v>
       </c>
-      <c r="D207" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E207" s="39">
+      <c r="D207" t="s">
+        <v>29</v>
+      </c>
+      <c r="E207" s="10">
         <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A208" s="38" t="s">
+      <c r="A208" t="s">
         <v>26</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" t="s">
         <v>40</v>
       </c>
-      <c r="C208" s="38" t="s">
+      <c r="C208" t="s">
         <v>15</v>
       </c>
-      <c r="D208" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E208" s="39">
+      <c r="D208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208" s="10">
         <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A209" s="38" t="s">
+      <c r="A209" t="s">
         <v>26</v>
       </c>
-      <c r="B209" s="38" t="s">
+      <c r="B209" t="s">
         <v>40</v>
       </c>
-      <c r="C209" s="38" t="s">
+      <c r="C209" t="s">
         <v>16</v>
       </c>
-      <c r="D209" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E209" s="39">
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209" s="10">
         <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A210" s="38" t="s">
+      <c r="A210" t="s">
         <v>26</v>
       </c>
-      <c r="B210" s="38" t="s">
+      <c r="B210" t="s">
         <v>40</v>
       </c>
-      <c r="C210" s="38" t="s">
+      <c r="C210" t="s">
         <v>17</v>
       </c>
-      <c r="D210" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E210" s="39">
+      <c r="D210" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A211" s="38" t="s">
+      <c r="A211" t="s">
         <v>27</v>
       </c>
-      <c r="B211" s="38" t="s">
+      <c r="B211" t="s">
         <v>41</v>
       </c>
-      <c r="C211" s="38" t="s">
+      <c r="C211" t="s">
         <v>6</v>
       </c>
-      <c r="D211" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E211" s="39">
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="10">
         <v>2350</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A212" s="38" t="s">
+      <c r="A212" t="s">
         <v>27</v>
       </c>
-      <c r="B212" s="38" t="s">
+      <c r="B212" t="s">
         <v>41</v>
       </c>
-      <c r="C212" s="38" t="s">
+      <c r="C212" t="s">
         <v>9</v>
       </c>
-      <c r="D212" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E212" s="39">
+      <c r="D212" t="s">
+        <v>29</v>
+      </c>
+      <c r="E212" s="10">
         <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A213" s="38" t="s">
+      <c r="A213" t="s">
         <v>27</v>
       </c>
-      <c r="B213" s="38" t="s">
+      <c r="B213" t="s">
         <v>41</v>
       </c>
-      <c r="C213" s="38" t="s">
+      <c r="C213" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E213" s="39">
+      <c r="D213" t="s">
+        <v>29</v>
+      </c>
+      <c r="E213" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A214" s="38" t="s">
+      <c r="A214" t="s">
         <v>27</v>
       </c>
-      <c r="B214" s="38" t="s">
+      <c r="B214" t="s">
         <v>41</v>
       </c>
-      <c r="C214" s="38" t="s">
+      <c r="C214" t="s">
         <v>13</v>
       </c>
-      <c r="D214" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E214" s="39">
+      <c r="D214" t="s">
+        <v>29</v>
+      </c>
+      <c r="E214" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A215" s="38" t="s">
+      <c r="A215" t="s">
         <v>27</v>
       </c>
-      <c r="B215" s="38" t="s">
+      <c r="B215" t="s">
         <v>41</v>
       </c>
-      <c r="C215" s="38" t="s">
+      <c r="C215" t="s">
         <v>15</v>
       </c>
-      <c r="D215" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E215" s="39">
+      <c r="D215" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" s="10">
         <v>300</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A216" s="38" t="s">
+      <c r="A216" t="s">
         <v>27</v>
       </c>
-      <c r="B216" s="38" t="s">
+      <c r="B216" t="s">
         <v>41</v>
       </c>
-      <c r="C216" s="38" t="s">
+      <c r="C216" t="s">
         <v>16</v>
       </c>
-      <c r="D216" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E216" s="39">
+      <c r="D216" t="s">
+        <v>29</v>
+      </c>
+      <c r="E216" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A217" s="38" t="s">
+      <c r="A217" t="s">
         <v>27</v>
       </c>
-      <c r="B217" s="38" t="s">
+      <c r="B217" t="s">
         <v>41</v>
       </c>
-      <c r="C217" s="38" t="s">
+      <c r="C217" t="s">
         <v>17</v>
       </c>
-      <c r="D217" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E217" s="39">
+      <c r="D217" t="s">
+        <v>29</v>
+      </c>
+      <c r="E217" s="10">
         <v>1400</v>
       </c>
     </row>
@@ -8398,8 +8389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401540A-95C7-413B-AEFF-BA9648FCAAC4}">
   <dimension ref="C1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="94" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8423,53 +8414,53 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="3:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8477,53 +8468,53 @@
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8636,823 +8627,1127 @@
     </row>
     <row r="35" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="36" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
     </row>
     <row r="37" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="38" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="40" t="s">
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="40" t="s">
+      <c r="J38" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="40" t="s">
+      <c r="M38" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="40" t="s">
+      <c r="N38" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="40" t="s">
+      <c r="O38" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="40" t="s">
+      <c r="P38" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="40" t="s">
+      <c r="Q38" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
     </row>
     <row r="41" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
     </row>
     <row r="43" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
     </row>
     <row r="45" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
     </row>
     <row r="47" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
     </row>
     <row r="49" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="50" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="40" t="s">
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="40" t="s">
+      <c r="G50" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="40" t="s">
+      <c r="J50" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="40" t="s">
+      <c r="L50" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="N50" s="40" t="s">
+      <c r="N50" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="40" t="s">
+      <c r="O50" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="40" t="s">
+      <c r="P50" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="40" t="s">
+      <c r="Q50" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C51" s="50"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="C52" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="49">
+        <f>VLOOKUP(F50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="G52" s="49">
+        <f>VLOOKUP(G50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="H52" s="49">
+        <f>VLOOKUP(H50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="I52" s="49">
+        <f>VLOOKUP(I50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>7500</v>
+      </c>
+      <c r="J52" s="49">
+        <f>VLOOKUP(J50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="K52" s="49">
+        <f>VLOOKUP(K50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="L52" s="49">
+        <f>VLOOKUP(L50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="M52" s="49">
+        <f>VLOOKUP(M50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="N52" s="49">
+        <f>VLOOKUP(N50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="O52" s="49">
+        <f>VLOOKUP(O50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="P52" s="49">
+        <f>VLOOKUP(P50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="Q52" s="49">
+        <f>VLOOKUP(Q50,Income!$D$7:$H$19,2,FALSE)</f>
+        <v>6000</v>
+      </c>
     </row>
     <row r="53" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
+      <c r="C54" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="49">
+        <f>VLOOKUP(F50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="G54" s="49">
+        <f>VLOOKUP(G50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="H54" s="49">
+        <f>VLOOKUP(H50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>500</v>
+      </c>
+      <c r="I54" s="49">
+        <f>VLOOKUP(I50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="49">
+        <f>VLOOKUP(J50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="K54" s="49">
+        <f>VLOOKUP(K50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>300</v>
+      </c>
+      <c r="L54" s="49">
+        <f>VLOOKUP(L50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>400</v>
+      </c>
+      <c r="M54" s="49">
+        <f>VLOOKUP(M50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="N54" s="49">
+        <f>VLOOKUP(N50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>850</v>
+      </c>
+      <c r="O54" s="49">
+        <f>VLOOKUP(O50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>950</v>
+      </c>
+      <c r="P54" s="49">
+        <f>VLOOKUP(P50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>600</v>
+      </c>
+      <c r="Q54" s="49">
+        <f>VLOOKUP(Q50,Income!$D$7:$H$19,3,FALSE)</f>
+        <v>700</v>
+      </c>
     </row>
     <row r="55" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C55" s="15"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
+      <c r="C56" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="49">
+        <f>VLOOKUP(F50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="G56" s="49">
+        <f>VLOOKUP(G50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="H56" s="49">
+        <f>VLOOKUP(H50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>900</v>
+      </c>
+      <c r="I56" s="49">
+        <f>VLOOKUP(I50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>900</v>
+      </c>
+      <c r="J56" s="49">
+        <f>VLOOKUP(J50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>900</v>
+      </c>
+      <c r="K56" s="49">
+        <f>VLOOKUP(K50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="49">
+        <f>VLOOKUP(L50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="49">
+        <f>VLOOKUP(M50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="49">
+        <f>VLOOKUP(N50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="O56" s="49">
+        <f>VLOOKUP(O50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>1600</v>
+      </c>
+      <c r="P56" s="49">
+        <f>VLOOKUP(P50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>1500</v>
+      </c>
+      <c r="Q56" s="49">
+        <f>VLOOKUP(Q50,Income!$D$7:$H$19,4,FALSE)</f>
+        <v>700</v>
+      </c>
     </row>
     <row r="57" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
+      <c r="C58" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="49">
+        <f>VLOOKUP(F50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>1200</v>
+      </c>
+      <c r="G58" s="49">
+        <f>VLOOKUP(G50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>1100</v>
+      </c>
+      <c r="H58" s="49">
+        <f>VLOOKUP(H50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>1000</v>
+      </c>
+      <c r="I58" s="49">
+        <f>VLOOKUP(I50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="J58" s="49">
+        <f>VLOOKUP(J50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>800</v>
+      </c>
+      <c r="K58" s="49">
+        <f>VLOOKUP(K50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>2200</v>
+      </c>
+      <c r="L58" s="49">
+        <f>VLOOKUP(L50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>2100</v>
+      </c>
+      <c r="M58" s="49">
+        <f>VLOOKUP(M50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>1900</v>
+      </c>
+      <c r="N58" s="49">
+        <f>VLOOKUP(N50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>1700</v>
+      </c>
+      <c r="O58" s="49">
+        <f>VLOOKUP(O50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>1700</v>
+      </c>
+      <c r="P58" s="49">
+        <f>VLOOKUP(P50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>1600</v>
+      </c>
+      <c r="Q58" s="49">
+        <f>VLOOKUP(Q50,Income!$D$7:$H$19,5,FALSE)</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="59" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="49">
+        <f>SUM(F52:F58)</f>
+        <v>7600</v>
+      </c>
+      <c r="G60" s="49">
+        <f t="shared" ref="G60:Q60" si="0">SUM(G52:G58)</f>
+        <v>7000</v>
+      </c>
+      <c r="H60" s="49">
+        <f t="shared" si="0"/>
+        <v>7400</v>
+      </c>
+      <c r="I60" s="49">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+      <c r="J60" s="49">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="K60" s="49">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="L60" s="49">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="M60" s="49">
+        <f t="shared" si="0"/>
+        <v>7100</v>
+      </c>
+      <c r="N60" s="49">
+        <f t="shared" si="0"/>
+        <v>9050</v>
+      </c>
+      <c r="O60" s="49">
+        <f t="shared" si="0"/>
+        <v>9250</v>
+      </c>
+      <c r="P60" s="49">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+      <c r="Q60" s="49">
+        <f t="shared" si="0"/>
+        <v>9400</v>
+      </c>
     </row>
     <row r="61" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
     </row>
     <row r="63" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="64" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C64" s="59" t="s">
+      <c r="C64" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="63"/>
     </row>
     <row r="65" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="66" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="40" t="s">
+      <c r="D66" s="57"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="G66" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H66" s="40" t="s">
+      <c r="H66" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="40" t="s">
+      <c r="I66" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="40" t="s">
+      <c r="J66" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="40" t="s">
+      <c r="K66" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L66" s="40" t="s">
+      <c r="L66" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="40" t="s">
+      <c r="M66" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="40" t="s">
+      <c r="N66" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="40" t="s">
+      <c r="O66" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="P66" s="40" t="s">
+      <c r="P66" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="40" t="s">
+      <c r="Q66" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="50"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
     </row>
     <row r="69" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C69" s="15"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
     </row>
     <row r="71" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="50"/>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
     </row>
     <row r="73" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C73" s="15"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
     </row>
     <row r="75" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C75" s="15"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
     </row>
     <row r="77" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C77" s="15"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="11"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="50"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="49"/>
     </row>
     <row r="79" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
     </row>
     <row r="81" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="50"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="50"/>
+      <c r="Q81" s="50"/>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="48"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="49"/>
     </row>
     <row r="83" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C83" s="50"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="11"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="50"/>
+      <c r="Q83" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="C3:I7"/>
-    <mergeCell ref="C9:I13"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="C68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="C52:E53"/>
     <mergeCell ref="F52:F53"/>
@@ -9477,178 +9772,62 @@
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="N52:N53"/>
     <mergeCell ref="O52:O53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="C68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="C80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="C3:I7"/>
+    <mergeCell ref="C9:I13"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9692,10 +9871,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F157E5-5E73-44CA-A159-B486F3F88BD1}">
-  <dimension ref="D4:I35"/>
+  <dimension ref="C4:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="84" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="C1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9716,7 +9895,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
@@ -9724,15 +9903,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
@@ -9752,341 +9931,268 @@
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="13">
         <v>5000</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="13">
         <v>200</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="13">
         <v>1200</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="13">
         <v>1200</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="13">
         <v>7600</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="13">
         <v>5000</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="13">
         <v>100</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="13">
         <v>800</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="13">
         <v>1100</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="13">
         <v>7000</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="13">
         <v>5000</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="13">
         <v>500</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="13">
         <v>900</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="13">
         <v>1000</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="13">
         <v>7400</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="13">
         <v>7500</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="13">
         <v>0</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="13">
         <v>900</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="13">
         <v>800</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="13">
         <v>9200</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="13">
         <v>5000</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="13">
         <v>300</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="13">
         <v>900</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="13">
         <v>800</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="13">
         <v>7000</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="13">
         <v>5000</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="13">
         <v>300</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="13">
         <v>0</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="13">
         <v>2200</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="13">
         <v>7500</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="13">
         <v>5000</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="13">
         <v>400</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="13">
         <v>2100</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="13">
         <v>7500</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="13">
         <v>5000</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="13">
         <v>200</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="13">
         <v>1900</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="13">
         <v>7100</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="13">
         <v>5000</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="13">
         <v>850</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="13">
         <v>1500</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="13">
         <v>1700</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="13">
         <v>9050</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D17" s="63" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="13">
         <v>5000</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="13">
         <v>950</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="13">
         <v>1600</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="13">
         <v>1700</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="13">
         <v>9250</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D18" s="63" t="s">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="D18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="13">
         <v>5000</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="13">
         <v>600</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="13">
         <v>1500</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="13">
         <v>1600</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="13">
         <v>8700</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D19" s="63" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="D19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="13">
         <v>6000</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="13">
         <v>700</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="13">
         <v>700</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="13">
         <v>2000</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="13">
         <v>9400</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D20" s="63" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="D20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="13">
         <v>63500</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="13">
         <v>5100</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="13">
         <v>10000</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="13">
         <v>18100</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="13">
         <v>96700</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Excel Annual budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775A7EC-A68D-4A7B-9BBE-62DE25813F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F6E420-1714-489B-B70F-DB3DDF91CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
   </bookViews>
@@ -23,11 +23,11 @@
     <sheet name="Expenses" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Full Data'!$A$1:$E$217</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Full Data'!$A$1:$E$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="54">
   <si>
     <t>Month</t>
   </si>
@@ -218,6 +218,9 @@
   <si>
     <t>Full time jobs</t>
   </si>
+  <si>
+    <t>(All)</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +305,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -599,24 +616,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -639,12 +638,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
     </dxf>
@@ -744,8 +809,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style " pivot="0" table="0" count="4" xr9:uid="{4F2702B4-8E1A-45A9-BE93-824F78568E6A}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -808,13 +873,26 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shivalika Rastogi" refreshedDate="45399.693232060185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="216" xr:uid="{D4C8B947-825D-4830-92D9-0EDD246459C8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shivalika Rastogi" refreshedDate="45445.150338425927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="132" xr:uid="{D4C8B947-825D-4830-92D9-0EDD246459C8}">
   <cacheSource type="worksheet">
     <worksheetSource name="Full_Data"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Month" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="12">
+        <s v="January"/>
+        <s v="February"/>
+        <s v="March"/>
+        <s v="April"/>
+        <s v="May"/>
+        <s v="June"/>
+        <s v="July"/>
+        <s v="August"/>
+        <s v="September"/>
+        <s v="October"/>
+        <s v="November"/>
+        <s v="December"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="First Characters" numFmtId="0">
       <sharedItems count="12">
@@ -866,1514 +944,926 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="216">
-  <r>
-    <s v="January"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="132">
+  <r>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1200"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="200"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1200"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <n v="800"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
     <n v="100"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1100"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <n v="900"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
     <n v="500"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1000"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <n v="7500"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <n v="900"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <x v="0"/>
     <n v="800"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="1"/>
     <x v="0"/>
     <n v="900"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="2"/>
     <x v="0"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="3"/>
     <x v="0"/>
     <n v="800"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="2"/>
     <x v="0"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="3"/>
     <x v="0"/>
     <n v="2200"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="2"/>
     <x v="0"/>
     <n v="400"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="3"/>
     <x v="0"/>
     <n v="2100"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="2"/>
     <x v="0"/>
     <n v="200"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1900"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1500"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="2"/>
     <x v="0"/>
     <n v="850"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1700"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1600"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="2"/>
     <x v="0"/>
     <n v="950"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1700"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="0"/>
     <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1500"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="2"/>
     <x v="0"/>
     <n v="600"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1600"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <n v="6000"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="1"/>
     <x v="0"/>
     <n v="700"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="2"/>
     <x v="0"/>
     <n v="700"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="3"/>
     <x v="0"/>
     <n v="2000"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2100"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <x v="1"/>
     <n v="410"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="1"/>
     <n v="650"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="7"/>
     <x v="1"/>
     <n v="225"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="9"/>
     <x v="1"/>
     <n v="400"/>
   </r>
   <r>
-    <s v="January"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="10"/>
     <x v="1"/>
     <n v="475"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2100"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="5"/>
     <x v="1"/>
     <n v="430"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="6"/>
     <x v="1"/>
     <n v="560"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="7"/>
     <x v="1"/>
     <n v="225"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="9"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="February"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="10"/>
     <x v="1"/>
     <n v="550"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2100"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="5"/>
     <x v="1"/>
     <n v="380"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="6"/>
     <x v="1"/>
     <n v="575"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="7"/>
     <x v="1"/>
     <n v="150"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="9"/>
     <x v="1"/>
     <n v="100"/>
   </r>
   <r>
-    <s v="March"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="10"/>
     <x v="1"/>
     <n v="375"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2100"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="5"/>
     <x v="1"/>
     <n v="350"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="6"/>
     <x v="1"/>
     <n v="620"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="7"/>
     <x v="1"/>
     <n v="150"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="9"/>
     <x v="1"/>
     <n v="500"/>
   </r>
   <r>
-    <s v="April"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="10"/>
     <x v="1"/>
     <n v="425"/>
   </r>
   <r>
-    <s v="May"/>
     <x v="4"/>
     <x v="4"/>
+    <x v="4"/>
     <x v="1"/>
     <n v="2100"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="5"/>
     <x v="1"/>
     <n v="330"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="6"/>
     <x v="1"/>
     <n v="650"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="7"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="9"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="May"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="10"/>
     <x v="1"/>
     <n v="430"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2100"/>
   </r>
   <r>
-    <s v="June"/>
     <x v="5"/>
     <x v="5"/>
+    <x v="5"/>
     <x v="1"/>
     <n v="290"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="6"/>
     <x v="1"/>
     <n v="500"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="7"/>
     <x v="1"/>
     <n v="225"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="9"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="June"/>
+    <x v="5"/>
     <x v="5"/>
     <x v="10"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2350"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="5"/>
     <x v="1"/>
     <n v="340"/>
   </r>
   <r>
-    <s v="July"/>
     <x v="6"/>
     <x v="6"/>
+    <x v="6"/>
     <x v="1"/>
     <n v="650"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="7"/>
     <x v="1"/>
     <n v="225"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="9"/>
     <x v="1"/>
     <n v="150"/>
   </r>
   <r>
-    <s v="July"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="10"/>
     <x v="1"/>
     <n v="775"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2350"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="5"/>
     <x v="1"/>
     <n v="340"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="6"/>
     <x v="1"/>
     <n v="650"/>
   </r>
   <r>
-    <s v="August"/>
     <x v="7"/>
     <x v="7"/>
+    <x v="7"/>
     <x v="1"/>
     <n v="150"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="9"/>
     <x v="1"/>
     <n v="200"/>
   </r>
   <r>
-    <s v="August"/>
+    <x v="7"/>
     <x v="7"/>
     <x v="10"/>
     <x v="1"/>
     <n v="900"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2350"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="5"/>
     <x v="1"/>
     <n v="320"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="6"/>
     <x v="1"/>
     <n v="600"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="7"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="September"/>
     <x v="8"/>
     <x v="8"/>
+    <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="9"/>
     <x v="1"/>
     <n v="200"/>
   </r>
   <r>
-    <s v="September"/>
+    <x v="8"/>
     <x v="8"/>
     <x v="10"/>
     <x v="1"/>
     <n v="450"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2350"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="5"/>
     <x v="1"/>
     <n v="310"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="6"/>
     <x v="1"/>
     <n v="475"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="7"/>
     <x v="1"/>
     <n v="225"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="October"/>
     <x v="9"/>
     <x v="9"/>
+    <x v="9"/>
     <x v="1"/>
     <n v="500"/>
   </r>
   <r>
-    <s v="October"/>
+    <x v="9"/>
     <x v="9"/>
     <x v="10"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2350"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="5"/>
     <x v="1"/>
     <n v="290"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="6"/>
     <x v="1"/>
     <n v="600"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="7"/>
     <x v="1"/>
     <n v="225"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="8"/>
     <x v="1"/>
     <n v="400"/>
   </r>
   <r>
-    <s v="November"/>
+    <x v="10"/>
     <x v="10"/>
     <x v="9"/>
     <x v="1"/>
     <n v="200"/>
   </r>
   <r>
-    <s v="November"/>
     <x v="10"/>
     <x v="10"/>
+    <x v="10"/>
     <x v="1"/>
     <n v="550"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="4"/>
     <x v="1"/>
     <n v="2350"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="5"/>
     <x v="1"/>
     <n v="425"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="6"/>
     <x v="1"/>
     <n v="550"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="7"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="8"/>
     <x v="1"/>
     <n v="300"/>
   </r>
   <r>
-    <s v="December"/>
+    <x v="11"/>
     <x v="11"/>
     <x v="9"/>
     <x v="1"/>
     <n v="100"/>
   </r>
   <r>
-    <s v="December"/>
     <x v="11"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="1400"/>
-  </r>
-  <r>
-    <s v="January"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2100"/>
-  </r>
-  <r>
-    <s v="January"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="410"/>
-  </r>
-  <r>
-    <s v="January"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="650"/>
-  </r>
-  <r>
-    <s v="January"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <s v="January"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="January"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <s v="January"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="475"/>
-  </r>
-  <r>
-    <s v="February"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2100"/>
-  </r>
-  <r>
-    <s v="February"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="430"/>
-  </r>
-  <r>
-    <s v="February"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="560"/>
-  </r>
-  <r>
-    <s v="February"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <s v="February"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="February"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="February"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="550"/>
-  </r>
-  <r>
-    <s v="March"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2100"/>
-  </r>
-  <r>
-    <s v="March"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="380"/>
-  </r>
-  <r>
-    <s v="March"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="575"/>
-  </r>
-  <r>
-    <s v="March"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <s v="March"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="March"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="100"/>
-  </r>
-  <r>
-    <s v="March"/>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="375"/>
-  </r>
-  <r>
-    <s v="April"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2100"/>
-  </r>
-  <r>
-    <s v="April"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="350"/>
-  </r>
-  <r>
-    <s v="April"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="620"/>
-  </r>
-  <r>
-    <s v="April"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <s v="April"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="April"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <s v="April"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="425"/>
-  </r>
-  <r>
-    <s v="May"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2100"/>
-  </r>
-  <r>
-    <s v="May"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="330"/>
-  </r>
-  <r>
-    <s v="May"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="650"/>
-  </r>
-  <r>
-    <s v="May"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="May"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="May"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="May"/>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="430"/>
-  </r>
-  <r>
-    <s v="June"/>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2100"/>
-  </r>
-  <r>
-    <s v="June"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="290"/>
-  </r>
-  <r>
-    <s v="June"/>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <s v="June"/>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <s v="June"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="June"/>
-    <x v="5"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="June"/>
-    <x v="5"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="July"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2350"/>
-  </r>
-  <r>
-    <s v="July"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="340"/>
-  </r>
-  <r>
-    <s v="July"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="650"/>
-  </r>
-  <r>
-    <s v="July"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <s v="July"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="July"/>
-    <x v="6"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <s v="July"/>
-    <x v="6"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="775"/>
-  </r>
-  <r>
-    <s v="August"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2350"/>
-  </r>
-  <r>
-    <s v="August"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="340"/>
-  </r>
-  <r>
-    <s v="August"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="650"/>
-  </r>
-  <r>
-    <s v="August"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <s v="August"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="August"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <s v="August"/>
-    <x v="7"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <s v="September"/>
-    <x v="8"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2350"/>
-  </r>
-  <r>
-    <s v="September"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="320"/>
-  </r>
-  <r>
-    <s v="September"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <s v="September"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="September"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="September"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <s v="September"/>
-    <x v="8"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="450"/>
-  </r>
-  <r>
-    <s v="October"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2350"/>
-  </r>
-  <r>
-    <s v="October"/>
-    <x v="9"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="310"/>
-  </r>
-  <r>
-    <s v="October"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="475"/>
-  </r>
-  <r>
-    <s v="October"/>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <s v="October"/>
-    <x v="9"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="October"/>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <s v="October"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="November"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2350"/>
-  </r>
-  <r>
-    <s v="November"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="290"/>
-  </r>
-  <r>
-    <s v="November"/>
-    <x v="10"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <s v="November"/>
-    <x v="10"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <s v="November"/>
-    <x v="10"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <s v="November"/>
-    <x v="10"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <s v="November"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="1"/>
-    <n v="550"/>
-  </r>
-  <r>
-    <s v="December"/>
-    <x v="11"/>
-    <x v="4"/>
-    <x v="1"/>
-    <n v="2350"/>
-  </r>
-  <r>
-    <s v="December"/>
-    <x v="11"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="425"/>
-  </r>
-  <r>
-    <s v="December"/>
-    <x v="11"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="550"/>
-  </r>
-  <r>
-    <s v="December"/>
-    <x v="11"/>
-    <x v="7"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="December"/>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="1"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="December"/>
-    <x v="11"/>
-    <x v="9"/>
-    <x v="1"/>
-    <n v="100"/>
-  </r>
-  <r>
-    <s v="December"/>
     <x v="11"/>
     <x v="10"/>
     <x v="1"/>
@@ -2383,10 +1873,26 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D6:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D6:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
@@ -2493,14 +1999,175 @@
       <x/>
     </i>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="3" item="1" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D7:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" item="0" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2531,21 +2198,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}" name="Full_Data" displayName="Full_Data" ref="A1:E217" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E217" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}" name="Full_Data" displayName="Full_Data" ref="A1:E133" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E133" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="19" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:D49" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DA7B8EA1-6FBD-4518-9E93-954FA0CF90DF}" name="Month"/>
@@ -2558,7 +2225,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="H1:K85" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6C1BB9FE-D288-4963-95A0-3938455504ED}" name="Month"/>
@@ -2867,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B1FDC1-1897-4043-847A-002EC357DC27}">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="B136" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5143,1435 +4810,8 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" t="s">
-        <v>29</v>
-      </c>
-      <c r="E134" s="10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135" t="s">
-        <v>31</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="10">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136" t="s">
-        <v>31</v>
-      </c>
-      <c r="C136" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s">
-        <v>29</v>
-      </c>
-      <c r="E136" s="10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" t="s">
-        <v>31</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" s="10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138" t="s">
-        <v>31</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" t="s">
-        <v>31</v>
-      </c>
-      <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" t="s">
-        <v>31</v>
-      </c>
-      <c r="C140" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" s="10">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" t="s">
-        <v>32</v>
-      </c>
-      <c r="C141" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" s="10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" t="s">
-        <v>32</v>
-      </c>
-      <c r="C142" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="10">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>14</v>
-      </c>
-      <c r="B143" t="s">
-        <v>32</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="10">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
-        <v>14</v>
-      </c>
-      <c r="B144" t="s">
-        <v>32</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144" s="10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>14</v>
-      </c>
-      <c r="B145" t="s">
-        <v>32</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>29</v>
-      </c>
-      <c r="E145" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" t="s">
-        <v>32</v>
-      </c>
-      <c r="C146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>14</v>
-      </c>
-      <c r="B147" t="s">
-        <v>32</v>
-      </c>
-      <c r="C147" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147" s="10">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
-        <v>18</v>
-      </c>
-      <c r="B148" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
-        <v>18</v>
-      </c>
-      <c r="B149" t="s">
-        <v>33</v>
-      </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>29</v>
-      </c>
-      <c r="E149" s="10">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" s="10">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" t="s">
-        <v>13</v>
-      </c>
-      <c r="D151" t="s">
-        <v>29</v>
-      </c>
-      <c r="E151" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" t="s">
-        <v>33</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>29</v>
-      </c>
-      <c r="E152" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" t="s">
-        <v>29</v>
-      </c>
-      <c r="E153" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="10">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>19</v>
-      </c>
-      <c r="B156" t="s">
-        <v>34</v>
-      </c>
-      <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>19</v>
-      </c>
-      <c r="B157" t="s">
-        <v>34</v>
-      </c>
-      <c r="C157" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="10">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" t="s">
-        <v>34</v>
-      </c>
-      <c r="C158" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" t="s">
-        <v>29</v>
-      </c>
-      <c r="E158" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>29</v>
-      </c>
-      <c r="E161" s="10">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" t="s">
-        <v>20</v>
-      </c>
-      <c r="C162" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" t="s">
-        <v>20</v>
-      </c>
-      <c r="C163" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" s="10">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" t="s">
-        <v>20</v>
-      </c>
-      <c r="C164" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s">
-        <v>29</v>
-      </c>
-      <c r="E164" s="10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
-        <v>20</v>
-      </c>
-      <c r="B165" t="s">
-        <v>20</v>
-      </c>
-      <c r="C165" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
-        <v>20</v>
-      </c>
-      <c r="B166" t="s">
-        <v>20</v>
-      </c>
-      <c r="C166" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" t="s">
-        <v>20</v>
-      </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" t="s">
-        <v>20</v>
-      </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="s">
-        <v>29</v>
-      </c>
-      <c r="E168" s="10">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" t="s">
-        <v>35</v>
-      </c>
-      <c r="C169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" t="s">
-        <v>29</v>
-      </c>
-      <c r="E169" s="10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>21</v>
-      </c>
-      <c r="B170" t="s">
-        <v>35</v>
-      </c>
-      <c r="C170" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="10">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>21</v>
-      </c>
-      <c r="B171" t="s">
-        <v>35</v>
-      </c>
-      <c r="C171" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>21</v>
-      </c>
-      <c r="B172" t="s">
-        <v>35</v>
-      </c>
-      <c r="C172" t="s">
-        <v>13</v>
-      </c>
-      <c r="D172" t="s">
-        <v>29</v>
-      </c>
-      <c r="E172" s="10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>21</v>
-      </c>
-      <c r="B173" t="s">
-        <v>35</v>
-      </c>
-      <c r="C173" t="s">
-        <v>15</v>
-      </c>
-      <c r="D173" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>21</v>
-      </c>
-      <c r="B174" t="s">
-        <v>35</v>
-      </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" t="s">
-        <v>29</v>
-      </c>
-      <c r="E174" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>21</v>
-      </c>
-      <c r="B175" t="s">
-        <v>35</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>22</v>
-      </c>
-      <c r="B176" t="s">
-        <v>36</v>
-      </c>
-      <c r="C176" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176" s="10">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
-        <v>22</v>
-      </c>
-      <c r="B177" t="s">
-        <v>36</v>
-      </c>
-      <c r="C177" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="10">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>22</v>
-      </c>
-      <c r="B178" t="s">
-        <v>36</v>
-      </c>
-      <c r="C178" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>22</v>
-      </c>
-      <c r="B179" t="s">
-        <v>36</v>
-      </c>
-      <c r="C179" t="s">
-        <v>13</v>
-      </c>
-      <c r="D179" t="s">
-        <v>29</v>
-      </c>
-      <c r="E179" s="10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
-        <v>22</v>
-      </c>
-      <c r="B180" t="s">
-        <v>36</v>
-      </c>
-      <c r="C180" t="s">
-        <v>15</v>
-      </c>
-      <c r="D180" t="s">
-        <v>29</v>
-      </c>
-      <c r="E180" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
-        <v>22</v>
-      </c>
-      <c r="B181" t="s">
-        <v>36</v>
-      </c>
-      <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" t="s">
-        <v>29</v>
-      </c>
-      <c r="E181" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
-        <v>22</v>
-      </c>
-      <c r="B182" t="s">
-        <v>36</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>29</v>
-      </c>
-      <c r="E182" s="10">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>23</v>
-      </c>
-      <c r="B183" t="s">
-        <v>37</v>
-      </c>
-      <c r="C183" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" t="s">
-        <v>29</v>
-      </c>
-      <c r="E183" s="10">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" t="s">
-        <v>37</v>
-      </c>
-      <c r="C184" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" t="s">
-        <v>29</v>
-      </c>
-      <c r="E184" s="10">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" t="s">
-        <v>37</v>
-      </c>
-      <c r="C185" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s">
-        <v>29</v>
-      </c>
-      <c r="E185" s="10">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>23</v>
-      </c>
-      <c r="B186" t="s">
-        <v>37</v>
-      </c>
-      <c r="C186" t="s">
-        <v>13</v>
-      </c>
-      <c r="D186" t="s">
-        <v>29</v>
-      </c>
-      <c r="E186" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187" t="s">
-        <v>37</v>
-      </c>
-      <c r="C187" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" t="s">
-        <v>29</v>
-      </c>
-      <c r="E187" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" t="s">
-        <v>37</v>
-      </c>
-      <c r="C188" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" t="s">
-        <v>29</v>
-      </c>
-      <c r="E188" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" t="s">
-        <v>37</v>
-      </c>
-      <c r="C189" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" t="s">
-        <v>29</v>
-      </c>
-      <c r="E189" s="10">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
-        <v>24</v>
-      </c>
-      <c r="B190" t="s">
-        <v>38</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190" t="s">
-        <v>29</v>
-      </c>
-      <c r="E190" s="10">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
-        <v>24</v>
-      </c>
-      <c r="B191" t="s">
-        <v>38</v>
-      </c>
-      <c r="C191" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" t="s">
-        <v>29</v>
-      </c>
-      <c r="E191" s="10">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
-        <v>24</v>
-      </c>
-      <c r="B192" t="s">
-        <v>38</v>
-      </c>
-      <c r="C192" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s">
-        <v>29</v>
-      </c>
-      <c r="E192" s="10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
-        <v>24</v>
-      </c>
-      <c r="B193" t="s">
-        <v>38</v>
-      </c>
-      <c r="C193" t="s">
-        <v>13</v>
-      </c>
-      <c r="D193" t="s">
-        <v>29</v>
-      </c>
-      <c r="E193" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
-        <v>24</v>
-      </c>
-      <c r="B194" t="s">
-        <v>38</v>
-      </c>
-      <c r="C194" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" t="s">
-        <v>29</v>
-      </c>
-      <c r="E194" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
-        <v>24</v>
-      </c>
-      <c r="B195" t="s">
-        <v>38</v>
-      </c>
-      <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>29</v>
-      </c>
-      <c r="E195" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
-        <v>24</v>
-      </c>
-      <c r="B196" t="s">
-        <v>38</v>
-      </c>
-      <c r="C196" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" t="s">
-        <v>29</v>
-      </c>
-      <c r="E196" s="10">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
-        <v>25</v>
-      </c>
-      <c r="B197" t="s">
-        <v>39</v>
-      </c>
-      <c r="C197" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" t="s">
-        <v>29</v>
-      </c>
-      <c r="E197" s="10">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
-        <v>25</v>
-      </c>
-      <c r="B198" t="s">
-        <v>39</v>
-      </c>
-      <c r="C198" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" t="s">
-        <v>29</v>
-      </c>
-      <c r="E198" s="10">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
-        <v>25</v>
-      </c>
-      <c r="B199" t="s">
-        <v>39</v>
-      </c>
-      <c r="C199" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199" s="10">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
-        <v>25</v>
-      </c>
-      <c r="B200" t="s">
-        <v>39</v>
-      </c>
-      <c r="C200" t="s">
-        <v>13</v>
-      </c>
-      <c r="D200" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
-        <v>25</v>
-      </c>
-      <c r="B201" t="s">
-        <v>39</v>
-      </c>
-      <c r="C201" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" t="s">
-        <v>29</v>
-      </c>
-      <c r="E201" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
-        <v>25</v>
-      </c>
-      <c r="B202" t="s">
-        <v>39</v>
-      </c>
-      <c r="C202" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" t="s">
-        <v>29</v>
-      </c>
-      <c r="E202" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
-        <v>25</v>
-      </c>
-      <c r="B203" t="s">
-        <v>39</v>
-      </c>
-      <c r="C203" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" t="s">
-        <v>29</v>
-      </c>
-      <c r="E203" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
-        <v>26</v>
-      </c>
-      <c r="B204" t="s">
-        <v>40</v>
-      </c>
-      <c r="C204" t="s">
-        <v>6</v>
-      </c>
-      <c r="D204" t="s">
-        <v>29</v>
-      </c>
-      <c r="E204" s="10">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
-        <v>26</v>
-      </c>
-      <c r="B205" t="s">
-        <v>40</v>
-      </c>
-      <c r="C205" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" t="s">
-        <v>29</v>
-      </c>
-      <c r="E205" s="10">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
-        <v>26</v>
-      </c>
-      <c r="B206" t="s">
-        <v>40</v>
-      </c>
-      <c r="C206" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
-        <v>26</v>
-      </c>
-      <c r="B207" t="s">
-        <v>40</v>
-      </c>
-      <c r="C207" t="s">
-        <v>13</v>
-      </c>
-      <c r="D207" t="s">
-        <v>29</v>
-      </c>
-      <c r="E207" s="10">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
-        <v>26</v>
-      </c>
-      <c r="B208" t="s">
-        <v>40</v>
-      </c>
-      <c r="C208" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" t="s">
-        <v>29</v>
-      </c>
-      <c r="E208" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A209" t="s">
-        <v>26</v>
-      </c>
-      <c r="B209" t="s">
-        <v>40</v>
-      </c>
-      <c r="C209" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" t="s">
-        <v>29</v>
-      </c>
-      <c r="E209" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
-        <v>26</v>
-      </c>
-      <c r="B210" t="s">
-        <v>40</v>
-      </c>
-      <c r="C210" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" t="s">
-        <v>29</v>
-      </c>
-      <c r="E210" s="10">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A211" t="s">
-        <v>27</v>
-      </c>
-      <c r="B211" t="s">
-        <v>41</v>
-      </c>
-      <c r="C211" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" t="s">
-        <v>29</v>
-      </c>
-      <c r="E211" s="10">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
-        <v>27</v>
-      </c>
-      <c r="B212" t="s">
-        <v>41</v>
-      </c>
-      <c r="C212" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" t="s">
-        <v>29</v>
-      </c>
-      <c r="E212" s="10">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A213" t="s">
-        <v>27</v>
-      </c>
-      <c r="B213" t="s">
-        <v>41</v>
-      </c>
-      <c r="C213" t="s">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s">
-        <v>29</v>
-      </c>
-      <c r="E213" s="10">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A214" t="s">
-        <v>27</v>
-      </c>
-      <c r="B214" t="s">
-        <v>41</v>
-      </c>
-      <c r="C214" t="s">
-        <v>13</v>
-      </c>
-      <c r="D214" t="s">
-        <v>29</v>
-      </c>
-      <c r="E214" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
-        <v>27</v>
-      </c>
-      <c r="B215" t="s">
-        <v>41</v>
-      </c>
-      <c r="C215" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" t="s">
-        <v>29</v>
-      </c>
-      <c r="E215" s="10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
-        <v>27</v>
-      </c>
-      <c r="B216" t="s">
-        <v>41</v>
-      </c>
-      <c r="C216" t="s">
-        <v>16</v>
-      </c>
-      <c r="D216" t="s">
-        <v>29</v>
-      </c>
-      <c r="E216" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
-        <v>27</v>
-      </c>
-      <c r="B217" t="s">
-        <v>41</v>
-      </c>
-      <c r="C217" t="s">
-        <v>17</v>
-      </c>
-      <c r="D217" t="s">
-        <v>29</v>
-      </c>
-      <c r="E217" s="10">
-        <v>1400</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8389,11 +6629,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401540A-95C7-413B-AEFF-BA9648FCAAC4}">
   <dimension ref="C1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="94" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8700,35 +6943,71 @@
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
+      <c r="F40" s="63">
+        <f>F60</f>
+        <v>7600</v>
+      </c>
+      <c r="G40" s="63">
+        <f>G60</f>
+        <v>7000</v>
+      </c>
+      <c r="H40" s="63">
+        <f t="shared" ref="H40:Q40" si="0">H60</f>
+        <v>7400</v>
+      </c>
+      <c r="I40" s="63">
+        <f t="shared" si="0"/>
+        <v>9200</v>
+      </c>
+      <c r="J40" s="63">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="K40" s="63">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="L40" s="63">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="M40" s="63">
+        <f t="shared" si="0"/>
+        <v>7100</v>
+      </c>
+      <c r="N40" s="63">
+        <f t="shared" si="0"/>
+        <v>9050</v>
+      </c>
+      <c r="O40" s="63">
+        <f t="shared" si="0"/>
+        <v>9250</v>
+      </c>
+      <c r="P40" s="63">
+        <f t="shared" si="0"/>
+        <v>8700</v>
+      </c>
+      <c r="Q40" s="63">
+        <f t="shared" si="0"/>
+        <v>9400</v>
+      </c>
     </row>
     <row r="41" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C41" s="44"/>
       <c r="D41" s="45"/>
       <c r="E41" s="46"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C42" s="41" t="s">
@@ -8815,8 +7094,8 @@
       <c r="C50" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="47" t="s">
         <v>31</v>
       </c>
@@ -8855,9 +7134,9 @@
       </c>
     </row>
     <row r="51" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
@@ -8877,51 +7156,51 @@
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="43"/>
-      <c r="F52" s="49">
+      <c r="F52" s="59">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="G52" s="49">
+      <c r="G52" s="59">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="59">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="I52" s="49">
+      <c r="I52" s="59">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>7500</v>
       </c>
-      <c r="J52" s="49">
+      <c r="J52" s="59">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="K52" s="49">
+      <c r="K52" s="59">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="L52" s="49">
+      <c r="L52" s="59">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="M52" s="49">
+      <c r="M52" s="59">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N52" s="49">
+      <c r="N52" s="59">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="O52" s="49">
+      <c r="O52" s="59">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="P52" s="49">
+      <c r="P52" s="59">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="Q52" s="49">
+      <c r="Q52" s="59">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>6000</v>
       </c>
@@ -8930,18 +7209,18 @@
       <c r="C53" s="44"/>
       <c r="D53" s="45"/>
       <c r="E53" s="46"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C54" s="41" t="s">
@@ -8949,51 +7228,51 @@
       </c>
       <c r="D54" s="42"/>
       <c r="E54" s="43"/>
-      <c r="F54" s="49">
+      <c r="F54" s="59">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="59">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="59">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="I54" s="49">
+      <c r="I54" s="59">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="49">
+      <c r="J54" s="59">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="K54" s="49">
+      <c r="K54" s="59">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="L54" s="49">
+      <c r="L54" s="59">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="M54" s="49">
+      <c r="M54" s="59">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="N54" s="49">
+      <c r="N54" s="59">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>850</v>
       </c>
-      <c r="O54" s="49">
+      <c r="O54" s="59">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>950</v>
       </c>
-      <c r="P54" s="49">
+      <c r="P54" s="59">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="Q54" s="49">
+      <c r="Q54" s="59">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>700</v>
       </c>
@@ -9002,18 +7281,18 @@
       <c r="C55" s="44"/>
       <c r="D55" s="45"/>
       <c r="E55" s="46"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C56" s="41" t="s">
@@ -9021,51 +7300,51 @@
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="43"/>
-      <c r="F56" s="49">
+      <c r="F56" s="59">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G56" s="49">
+      <c r="G56" s="59">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="59">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="I56" s="49">
+      <c r="I56" s="59">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="J56" s="49">
+      <c r="J56" s="59">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="K56" s="49">
+      <c r="K56" s="59">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="49">
+      <c r="L56" s="59">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="49">
+      <c r="M56" s="59">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="49">
+      <c r="N56" s="59">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="O56" s="49">
+      <c r="O56" s="59">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="P56" s="49">
+      <c r="P56" s="59">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="Q56" s="49">
+      <c r="Q56" s="59">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>700</v>
       </c>
@@ -9074,18 +7353,18 @@
       <c r="C57" s="44"/>
       <c r="D57" s="45"/>
       <c r="E57" s="46"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C58" s="41" t="s">
@@ -9093,51 +7372,51 @@
       </c>
       <c r="D58" s="42"/>
       <c r="E58" s="43"/>
-      <c r="F58" s="49">
+      <c r="F58" s="59">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G58" s="49">
+      <c r="G58" s="59">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H58" s="59">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="I58" s="49">
+      <c r="I58" s="59">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="J58" s="49">
+      <c r="J58" s="59">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="K58" s="49">
+      <c r="K58" s="59">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2200</v>
       </c>
-      <c r="L58" s="49">
+      <c r="L58" s="59">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2100</v>
       </c>
-      <c r="M58" s="49">
+      <c r="M58" s="59">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1900</v>
       </c>
-      <c r="N58" s="49">
+      <c r="N58" s="59">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="O58" s="49">
+      <c r="O58" s="59">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="P58" s="49">
+      <c r="P58" s="59">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="Q58" s="49">
+      <c r="Q58" s="59">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2000</v>
       </c>
@@ -9146,111 +7425,111 @@
       <c r="C59" s="44"/>
       <c r="D59" s="45"/>
       <c r="E59" s="46"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="50"/>
-      <c r="O59" s="50"/>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="50"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C60" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="49">
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="61">
         <f>SUM(F52:F58)</f>
         <v>7600</v>
       </c>
-      <c r="G60" s="49">
-        <f t="shared" ref="G60:Q60" si="0">SUM(G52:G58)</f>
+      <c r="G60" s="61">
+        <f t="shared" ref="G60:Q60" si="1">SUM(G52:G58)</f>
         <v>7000</v>
       </c>
-      <c r="H60" s="49">
-        <f t="shared" si="0"/>
+      <c r="H60" s="61">
+        <f t="shared" si="1"/>
         <v>7400</v>
       </c>
-      <c r="I60" s="49">
-        <f t="shared" si="0"/>
+      <c r="I60" s="61">
+        <f t="shared" si="1"/>
         <v>9200</v>
       </c>
-      <c r="J60" s="49">
-        <f t="shared" si="0"/>
+      <c r="J60" s="61">
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="K60" s="49">
-        <f t="shared" si="0"/>
+      <c r="K60" s="61">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="L60" s="49">
-        <f t="shared" si="0"/>
+      <c r="L60" s="61">
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="M60" s="49">
-        <f t="shared" si="0"/>
+      <c r="M60" s="61">
+        <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="N60" s="49">
-        <f t="shared" si="0"/>
+      <c r="N60" s="61">
+        <f t="shared" si="1"/>
         <v>9050</v>
       </c>
-      <c r="O60" s="49">
-        <f t="shared" si="0"/>
+      <c r="O60" s="61">
+        <f t="shared" si="1"/>
         <v>9250</v>
       </c>
-      <c r="P60" s="49">
-        <f t="shared" si="0"/>
+      <c r="P60" s="61">
+        <f t="shared" si="1"/>
         <v>8700</v>
       </c>
-      <c r="Q60" s="49">
-        <f t="shared" si="0"/>
+      <c r="Q60" s="61">
+        <f t="shared" si="1"/>
         <v>9400</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="50"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
     </row>
     <row r="63" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="64" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C64" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="63"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="57"/>
     </row>
     <row r="65" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="66" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C66" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="58"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="52"/>
       <c r="F66" s="47" t="s">
         <v>31</v>
       </c>
       <c r="G66" s="47" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H66" s="47" t="s">
         <v>33</v>
@@ -9284,9 +7563,9 @@
       </c>
     </row>
     <row r="67" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
       <c r="H67" s="48"/>
@@ -9301,278 +7580,580 @@
       <c r="Q67" s="48"/>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C68" s="51"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
+      <c r="C68" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="42"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="59">
+        <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2100</v>
+      </c>
+      <c r="G68" s="59">
+        <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2100</v>
+      </c>
+      <c r="H68" s="59">
+        <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2100</v>
+      </c>
+      <c r="I68" s="59">
+        <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2100</v>
+      </c>
+      <c r="J68" s="59">
+        <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2100</v>
+      </c>
+      <c r="K68" s="59">
+        <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2100</v>
+      </c>
+      <c r="L68" s="59">
+        <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2350</v>
+      </c>
+      <c r="M68" s="59">
+        <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2350</v>
+      </c>
+      <c r="N68" s="59">
+        <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2350</v>
+      </c>
+      <c r="O68" s="59">
+        <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2350</v>
+      </c>
+      <c r="P68" s="59">
+        <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2350</v>
+      </c>
+      <c r="Q68" s="59">
+        <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
+        <v>2350</v>
+      </c>
     </row>
     <row r="69" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="60"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C70" s="51"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="49"/>
+      <c r="C70" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="59">
+        <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="G70" s="59">
+        <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="H70" s="59">
+        <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="I70" s="59">
+        <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="J70" s="59">
+        <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="K70" s="59">
+        <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="L70" s="59">
+        <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="M70" s="59">
+        <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="N70" s="59">
+        <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="O70" s="59">
+        <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
+      <c r="P70" s="59">
+        <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>400</v>
+      </c>
+      <c r="Q70" s="59">
+        <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
+        <v>300</v>
+      </c>
     </row>
     <row r="71" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C71" s="54"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="50"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C72" s="51"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
+      <c r="C72" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="42"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="59">
+        <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>225</v>
+      </c>
+      <c r="G72" s="59">
+        <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>225</v>
+      </c>
+      <c r="H72" s="59">
+        <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>150</v>
+      </c>
+      <c r="I72" s="59">
+        <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>150</v>
+      </c>
+      <c r="J72" s="59">
+        <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>300</v>
+      </c>
+      <c r="K72" s="59">
+        <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>225</v>
+      </c>
+      <c r="L72" s="59">
+        <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>225</v>
+      </c>
+      <c r="M72" s="59">
+        <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>150</v>
+      </c>
+      <c r="N72" s="59">
+        <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>300</v>
+      </c>
+      <c r="O72" s="59">
+        <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>225</v>
+      </c>
+      <c r="P72" s="59">
+        <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>225</v>
+      </c>
+      <c r="Q72" s="59">
+        <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
+        <v>300</v>
+      </c>
     </row>
     <row r="73" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="60"/>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C74" s="51"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
+      <c r="C74" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="59">
+        <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>400</v>
+      </c>
+      <c r="G74" s="59">
+        <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>300</v>
+      </c>
+      <c r="H74" s="59">
+        <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>100</v>
+      </c>
+      <c r="I74" s="59">
+        <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>500</v>
+      </c>
+      <c r="J74" s="59">
+        <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>300</v>
+      </c>
+      <c r="K74" s="59">
+        <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>300</v>
+      </c>
+      <c r="L74" s="59">
+        <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>150</v>
+      </c>
+      <c r="M74" s="59">
+        <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>200</v>
+      </c>
+      <c r="N74" s="59">
+        <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>200</v>
+      </c>
+      <c r="O74" s="59">
+        <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>500</v>
+      </c>
+      <c r="P74" s="59">
+        <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>200</v>
+      </c>
+      <c r="Q74" s="59">
+        <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="75" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="50"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="60"/>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C76" s="51"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
+      <c r="C76" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="42"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="59">
+        <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>650</v>
+      </c>
+      <c r="G76" s="59">
+        <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>560</v>
+      </c>
+      <c r="H76" s="59">
+        <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>575</v>
+      </c>
+      <c r="I76" s="59">
+        <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>620</v>
+      </c>
+      <c r="J76" s="59">
+        <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>650</v>
+      </c>
+      <c r="K76" s="59">
+        <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>500</v>
+      </c>
+      <c r="L76" s="59">
+        <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>650</v>
+      </c>
+      <c r="M76" s="59">
+        <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>650</v>
+      </c>
+      <c r="N76" s="59">
+        <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>600</v>
+      </c>
+      <c r="O76" s="59">
+        <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>475</v>
+      </c>
+      <c r="P76" s="59">
+        <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>600</v>
+      </c>
+      <c r="Q76" s="59">
+        <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
+        <v>550</v>
+      </c>
     </row>
     <row r="77" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C77" s="54"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="50"/>
-      <c r="Q77" s="50"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="60"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C78" s="51"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
-      <c r="Q78" s="49"/>
+      <c r="C78" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="42"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="59">
+        <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>410</v>
+      </c>
+      <c r="G78" s="59">
+        <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>430</v>
+      </c>
+      <c r="H78" s="59">
+        <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>380</v>
+      </c>
+      <c r="I78" s="59">
+        <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>350</v>
+      </c>
+      <c r="J78" s="59">
+        <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>330</v>
+      </c>
+      <c r="K78" s="59">
+        <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>290</v>
+      </c>
+      <c r="L78" s="59">
+        <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>340</v>
+      </c>
+      <c r="M78" s="59">
+        <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>340</v>
+      </c>
+      <c r="N78" s="59">
+        <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>320</v>
+      </c>
+      <c r="O78" s="59">
+        <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>310</v>
+      </c>
+      <c r="P78" s="59">
+        <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>290</v>
+      </c>
+      <c r="Q78" s="59">
+        <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
+        <v>425</v>
+      </c>
     </row>
     <row r="79" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="50"/>
-      <c r="Q79" s="50"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="60"/>
+      <c r="O79" s="60"/>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="60"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C80" s="51"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
+      <c r="C80" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="42"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="59">
+        <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>475</v>
+      </c>
+      <c r="G80" s="59">
+        <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>550</v>
+      </c>
+      <c r="H80" s="59">
+        <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>375</v>
+      </c>
+      <c r="I80" s="59">
+        <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>425</v>
+      </c>
+      <c r="J80" s="59">
+        <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>430</v>
+      </c>
+      <c r="K80" s="59">
+        <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>300</v>
+      </c>
+      <c r="L80" s="59">
+        <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>775</v>
+      </c>
+      <c r="M80" s="59">
+        <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>900</v>
+      </c>
+      <c r="N80" s="59">
+        <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>450</v>
+      </c>
+      <c r="O80" s="59">
+        <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>300</v>
+      </c>
+      <c r="P80" s="59">
+        <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>550</v>
+      </c>
+      <c r="Q80" s="59">
+        <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
+        <v>1400</v>
+      </c>
     </row>
     <row r="81" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C81" s="54"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="50"/>
-      <c r="O81" s="50"/>
-      <c r="P81" s="50"/>
-      <c r="Q81" s="50"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="60"/>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C82" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
-      <c r="Q82" s="49"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="61">
+        <f>SUM(F68:F81)</f>
+        <v>4560</v>
+      </c>
+      <c r="G82" s="61">
+        <f t="shared" ref="G82:Q82" si="2">SUM(G68:G81)</f>
+        <v>4465</v>
+      </c>
+      <c r="H82" s="61">
+        <f t="shared" si="2"/>
+        <v>3980</v>
+      </c>
+      <c r="I82" s="61">
+        <f t="shared" si="2"/>
+        <v>4445</v>
+      </c>
+      <c r="J82" s="61">
+        <f t="shared" si="2"/>
+        <v>4410</v>
+      </c>
+      <c r="K82" s="61">
+        <f t="shared" si="2"/>
+        <v>4015</v>
+      </c>
+      <c r="L82" s="61">
+        <f t="shared" si="2"/>
+        <v>4790</v>
+      </c>
+      <c r="M82" s="61">
+        <f t="shared" si="2"/>
+        <v>4890</v>
+      </c>
+      <c r="N82" s="61">
+        <f t="shared" si="2"/>
+        <v>4520</v>
+      </c>
+      <c r="O82" s="61">
+        <f t="shared" si="2"/>
+        <v>4460</v>
+      </c>
+      <c r="P82" s="61">
+        <f t="shared" si="2"/>
+        <v>4615</v>
+      </c>
+      <c r="Q82" s="61">
+        <f t="shared" si="2"/>
+        <v>5425</v>
+      </c>
     </row>
     <row r="83" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C83" s="59"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="50"/>
-      <c r="Q83" s="50"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="252">
@@ -9871,20 +8452,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F157E5-5E73-44CA-A159-B486F3F88BD1}">
-  <dimension ref="C4:I25"/>
+  <dimension ref="C3:I25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.9296875" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -9894,12 +8475,20 @@
     <col min="16" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D4" s="11" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.45">
@@ -10191,8 +8780,7 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="C25" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10201,12 +8789,456 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B38A04E-28DB-4780-9338-526F187CA0FB}">
-  <dimension ref="A1"/>
+  <dimension ref="D4:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2100</v>
+      </c>
+      <c r="F9" s="13">
+        <v>300</v>
+      </c>
+      <c r="G9" s="13">
+        <v>225</v>
+      </c>
+      <c r="H9" s="13">
+        <v>400</v>
+      </c>
+      <c r="I9" s="13">
+        <v>650</v>
+      </c>
+      <c r="J9" s="13">
+        <v>410</v>
+      </c>
+      <c r="K9" s="13">
+        <v>475</v>
+      </c>
+      <c r="L9" s="13">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2100</v>
+      </c>
+      <c r="F10" s="13">
+        <v>300</v>
+      </c>
+      <c r="G10" s="13">
+        <v>225</v>
+      </c>
+      <c r="H10" s="13">
+        <v>300</v>
+      </c>
+      <c r="I10" s="13">
+        <v>560</v>
+      </c>
+      <c r="J10" s="13">
+        <v>430</v>
+      </c>
+      <c r="K10" s="13">
+        <v>550</v>
+      </c>
+      <c r="L10" s="13">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2100</v>
+      </c>
+      <c r="F11" s="13">
+        <v>300</v>
+      </c>
+      <c r="G11" s="13">
+        <v>150</v>
+      </c>
+      <c r="H11" s="13">
+        <v>100</v>
+      </c>
+      <c r="I11" s="13">
+        <v>575</v>
+      </c>
+      <c r="J11" s="13">
+        <v>380</v>
+      </c>
+      <c r="K11" s="13">
+        <v>375</v>
+      </c>
+      <c r="L11" s="13">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="13">
+        <v>300</v>
+      </c>
+      <c r="G12" s="13">
+        <v>150</v>
+      </c>
+      <c r="H12" s="13">
+        <v>500</v>
+      </c>
+      <c r="I12" s="13">
+        <v>620</v>
+      </c>
+      <c r="J12" s="13">
+        <v>350</v>
+      </c>
+      <c r="K12" s="13">
+        <v>425</v>
+      </c>
+      <c r="L12" s="13">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2100</v>
+      </c>
+      <c r="F13" s="13">
+        <v>300</v>
+      </c>
+      <c r="G13" s="13">
+        <v>300</v>
+      </c>
+      <c r="H13" s="13">
+        <v>300</v>
+      </c>
+      <c r="I13" s="13">
+        <v>650</v>
+      </c>
+      <c r="J13" s="13">
+        <v>330</v>
+      </c>
+      <c r="K13" s="13">
+        <v>430</v>
+      </c>
+      <c r="L13" s="13">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2100</v>
+      </c>
+      <c r="F14" s="13">
+        <v>300</v>
+      </c>
+      <c r="G14" s="13">
+        <v>225</v>
+      </c>
+      <c r="H14" s="13">
+        <v>300</v>
+      </c>
+      <c r="I14" s="13">
+        <v>500</v>
+      </c>
+      <c r="J14" s="13">
+        <v>290</v>
+      </c>
+      <c r="K14" s="13">
+        <v>300</v>
+      </c>
+      <c r="L14" s="13">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2350</v>
+      </c>
+      <c r="F15" s="13">
+        <v>300</v>
+      </c>
+      <c r="G15" s="13">
+        <v>225</v>
+      </c>
+      <c r="H15" s="13">
+        <v>150</v>
+      </c>
+      <c r="I15" s="13">
+        <v>650</v>
+      </c>
+      <c r="J15" s="13">
+        <v>340</v>
+      </c>
+      <c r="K15" s="13">
+        <v>775</v>
+      </c>
+      <c r="L15" s="13">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2350</v>
+      </c>
+      <c r="F16" s="13">
+        <v>300</v>
+      </c>
+      <c r="G16" s="13">
+        <v>150</v>
+      </c>
+      <c r="H16" s="13">
+        <v>200</v>
+      </c>
+      <c r="I16" s="13">
+        <v>650</v>
+      </c>
+      <c r="J16" s="13">
+        <v>340</v>
+      </c>
+      <c r="K16" s="13">
+        <v>900</v>
+      </c>
+      <c r="L16" s="13">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2350</v>
+      </c>
+      <c r="F17" s="13">
+        <v>300</v>
+      </c>
+      <c r="G17" s="13">
+        <v>300</v>
+      </c>
+      <c r="H17" s="13">
+        <v>200</v>
+      </c>
+      <c r="I17" s="13">
+        <v>600</v>
+      </c>
+      <c r="J17" s="13">
+        <v>320</v>
+      </c>
+      <c r="K17" s="13">
+        <v>450</v>
+      </c>
+      <c r="L17" s="13">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2350</v>
+      </c>
+      <c r="F18" s="13">
+        <v>300</v>
+      </c>
+      <c r="G18" s="13">
+        <v>225</v>
+      </c>
+      <c r="H18" s="13">
+        <v>500</v>
+      </c>
+      <c r="I18" s="13">
+        <v>475</v>
+      </c>
+      <c r="J18" s="13">
+        <v>310</v>
+      </c>
+      <c r="K18" s="13">
+        <v>300</v>
+      </c>
+      <c r="L18" s="13">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2350</v>
+      </c>
+      <c r="F19" s="13">
+        <v>400</v>
+      </c>
+      <c r="G19" s="13">
+        <v>225</v>
+      </c>
+      <c r="H19" s="13">
+        <v>200</v>
+      </c>
+      <c r="I19" s="13">
+        <v>600</v>
+      </c>
+      <c r="J19" s="13">
+        <v>290</v>
+      </c>
+      <c r="K19" s="13">
+        <v>550</v>
+      </c>
+      <c r="L19" s="13">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2350</v>
+      </c>
+      <c r="F20" s="13">
+        <v>300</v>
+      </c>
+      <c r="G20" s="13">
+        <v>300</v>
+      </c>
+      <c r="H20" s="13">
+        <v>100</v>
+      </c>
+      <c r="I20" s="13">
+        <v>550</v>
+      </c>
+      <c r="J20" s="13">
+        <v>425</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="13">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+      <c r="D21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="13">
+        <v>26700</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3700</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2700</v>
+      </c>
+      <c r="H21" s="13">
+        <v>3250</v>
+      </c>
+      <c r="I21" s="13">
+        <v>7080</v>
+      </c>
+      <c r="J21" s="13">
+        <v>4215</v>
+      </c>
+      <c r="K21" s="13">
+        <v>6930</v>
+      </c>
+      <c r="L21" s="13">
+        <v>54575</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Excel Annual budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F6E420-1714-489B-B70F-DB3DDF91CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ABDAA8-C3DE-44E0-AAF0-83108F28D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
   </bookViews>
@@ -610,12 +610,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -638,6 +632,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6630,7 +6630,7 @@
   <dimension ref="C1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="S76" sqref="S76"/>
+      <selection activeCell="N68" sqref="N68:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6943,51 +6943,51 @@
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="63">
+      <c r="F40" s="62">
         <f>F60</f>
         <v>7600</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="62">
         <f>G60</f>
         <v>7000</v>
       </c>
-      <c r="H40" s="63">
+      <c r="H40" s="62">
         <f t="shared" ref="H40:Q40" si="0">H60</f>
         <v>7400</v>
       </c>
-      <c r="I40" s="63">
+      <c r="I40" s="62">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="J40" s="63">
+      <c r="J40" s="62">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="K40" s="63">
+      <c r="K40" s="62">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="L40" s="63">
+      <c r="L40" s="62">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="M40" s="63">
+      <c r="M40" s="62">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="N40" s="63">
+      <c r="N40" s="62">
         <f t="shared" si="0"/>
         <v>9050</v>
       </c>
-      <c r="O40" s="63">
+      <c r="O40" s="62">
         <f t="shared" si="0"/>
         <v>9250</v>
       </c>
-      <c r="P40" s="63">
+      <c r="P40" s="62">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="Q40" s="63">
+      <c r="Q40" s="62">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
@@ -6996,18 +6996,18 @@
       <c r="C41" s="44"/>
       <c r="D41" s="45"/>
       <c r="E41" s="46"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="64"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C42" s="41" t="s">
@@ -7015,35 +7015,71 @@
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="43"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
+      <c r="F42" s="58">
+        <f>F82</f>
+        <v>4560</v>
+      </c>
+      <c r="G42" s="58">
+        <f t="shared" ref="G42:Q42" si="1">G82</f>
+        <v>4465</v>
+      </c>
+      <c r="H42" s="58">
+        <f t="shared" si="1"/>
+        <v>3980</v>
+      </c>
+      <c r="I42" s="58">
+        <f t="shared" si="1"/>
+        <v>4445</v>
+      </c>
+      <c r="J42" s="58">
+        <f t="shared" si="1"/>
+        <v>4410</v>
+      </c>
+      <c r="K42" s="58">
+        <f t="shared" si="1"/>
+        <v>4015</v>
+      </c>
+      <c r="L42" s="58">
+        <f t="shared" si="1"/>
+        <v>4790</v>
+      </c>
+      <c r="M42" s="58">
+        <f t="shared" si="1"/>
+        <v>4890</v>
+      </c>
+      <c r="N42" s="58">
+        <f t="shared" si="1"/>
+        <v>4520</v>
+      </c>
+      <c r="O42" s="58">
+        <f t="shared" si="1"/>
+        <v>4460</v>
+      </c>
+      <c r="P42" s="58">
+        <f t="shared" si="1"/>
+        <v>4615</v>
+      </c>
+      <c r="Q42" s="58">
+        <f t="shared" si="1"/>
+        <v>5425</v>
+      </c>
     </row>
     <row r="43" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C43" s="44"/>
       <c r="D43" s="45"/>
       <c r="E43" s="46"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C44" s="41" t="s">
@@ -7051,35 +7087,71 @@
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
+      <c r="F44" s="60">
+        <f>F40-F42</f>
+        <v>3040</v>
+      </c>
+      <c r="G44" s="60">
+        <f t="shared" ref="G44:Q44" si="2">G40-G42</f>
+        <v>2535</v>
+      </c>
+      <c r="H44" s="60">
+        <f t="shared" si="2"/>
+        <v>3420</v>
+      </c>
+      <c r="I44" s="60">
+        <f t="shared" si="2"/>
+        <v>4755</v>
+      </c>
+      <c r="J44" s="60">
+        <f t="shared" si="2"/>
+        <v>2590</v>
+      </c>
+      <c r="K44" s="60">
+        <f t="shared" si="2"/>
+        <v>3485</v>
+      </c>
+      <c r="L44" s="60">
+        <f t="shared" si="2"/>
+        <v>2710</v>
+      </c>
+      <c r="M44" s="60">
+        <f t="shared" si="2"/>
+        <v>2210</v>
+      </c>
+      <c r="N44" s="60">
+        <f t="shared" si="2"/>
+        <v>4530</v>
+      </c>
+      <c r="O44" s="60">
+        <f t="shared" si="2"/>
+        <v>4790</v>
+      </c>
+      <c r="P44" s="60">
+        <f t="shared" si="2"/>
+        <v>4085</v>
+      </c>
+      <c r="Q44" s="60">
+        <f t="shared" si="2"/>
+        <v>3975</v>
+      </c>
     </row>
     <row r="45" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C45" s="44"/>
       <c r="D45" s="45"/>
       <c r="E45" s="46"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
     </row>
     <row r="47" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -7094,8 +7166,8 @@
       <c r="C50" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
       <c r="F50" s="47" t="s">
         <v>31</v>
       </c>
@@ -7134,9 +7206,9 @@
       </c>
     </row>
     <row r="51" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
       <c r="H51" s="48"/>
@@ -7156,51 +7228,51 @@
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="43"/>
-      <c r="F52" s="59">
+      <c r="F52" s="58">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="G52" s="59">
+      <c r="G52" s="58">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="H52" s="59">
+      <c r="H52" s="58">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="I52" s="59">
+      <c r="I52" s="58">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>7500</v>
       </c>
-      <c r="J52" s="59">
+      <c r="J52" s="58">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="K52" s="59">
+      <c r="K52" s="58">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="L52" s="59">
+      <c r="L52" s="58">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="M52" s="59">
+      <c r="M52" s="58">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N52" s="59">
+      <c r="N52" s="58">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="O52" s="59">
+      <c r="O52" s="58">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="P52" s="59">
+      <c r="P52" s="58">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="Q52" s="59">
+      <c r="Q52" s="58">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>6000</v>
       </c>
@@ -7209,18 +7281,18 @@
       <c r="C53" s="44"/>
       <c r="D53" s="45"/>
       <c r="E53" s="46"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C54" s="41" t="s">
@@ -7228,51 +7300,51 @@
       </c>
       <c r="D54" s="42"/>
       <c r="E54" s="43"/>
-      <c r="F54" s="59">
+      <c r="F54" s="58">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="G54" s="59">
+      <c r="G54" s="58">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="59">
+      <c r="H54" s="58">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="I54" s="59">
+      <c r="I54" s="58">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="59">
+      <c r="J54" s="58">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="K54" s="59">
+      <c r="K54" s="58">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="L54" s="59">
+      <c r="L54" s="58">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="M54" s="59">
+      <c r="M54" s="58">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="N54" s="59">
+      <c r="N54" s="58">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>850</v>
       </c>
-      <c r="O54" s="59">
+      <c r="O54" s="58">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>950</v>
       </c>
-      <c r="P54" s="59">
+      <c r="P54" s="58">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="Q54" s="59">
+      <c r="Q54" s="58">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>700</v>
       </c>
@@ -7281,18 +7353,18 @@
       <c r="C55" s="44"/>
       <c r="D55" s="45"/>
       <c r="E55" s="46"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C56" s="41" t="s">
@@ -7300,51 +7372,51 @@
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="43"/>
-      <c r="F56" s="59">
+      <c r="F56" s="58">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G56" s="59">
+      <c r="G56" s="58">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="58">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="I56" s="59">
+      <c r="I56" s="58">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="J56" s="59">
+      <c r="J56" s="58">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="K56" s="59">
+      <c r="K56" s="58">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="59">
+      <c r="L56" s="58">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="59">
+      <c r="M56" s="58">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="59">
+      <c r="N56" s="58">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="O56" s="59">
+      <c r="O56" s="58">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="P56" s="59">
+      <c r="P56" s="58">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="Q56" s="59">
+      <c r="Q56" s="58">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>700</v>
       </c>
@@ -7353,18 +7425,18 @@
       <c r="C57" s="44"/>
       <c r="D57" s="45"/>
       <c r="E57" s="46"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C58" s="41" t="s">
@@ -7372,51 +7444,51 @@
       </c>
       <c r="D58" s="42"/>
       <c r="E58" s="43"/>
-      <c r="F58" s="59">
+      <c r="F58" s="58">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G58" s="59">
+      <c r="G58" s="58">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H58" s="58">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="I58" s="59">
+      <c r="I58" s="58">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="J58" s="59">
+      <c r="J58" s="58">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="K58" s="59">
+      <c r="K58" s="58">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2200</v>
       </c>
-      <c r="L58" s="59">
+      <c r="L58" s="58">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2100</v>
       </c>
-      <c r="M58" s="59">
+      <c r="M58" s="58">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1900</v>
       </c>
-      <c r="N58" s="59">
+      <c r="N58" s="58">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="O58" s="59">
+      <c r="O58" s="58">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="P58" s="59">
+      <c r="P58" s="58">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="Q58" s="59">
+      <c r="Q58" s="58">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2000</v>
       </c>
@@ -7425,106 +7497,106 @@
       <c r="C59" s="44"/>
       <c r="D59" s="45"/>
       <c r="E59" s="46"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C60" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="61">
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="60">
         <f>SUM(F52:F58)</f>
         <v>7600</v>
       </c>
-      <c r="G60" s="61">
-        <f t="shared" ref="G60:Q60" si="1">SUM(G52:G58)</f>
+      <c r="G60" s="60">
+        <f t="shared" ref="G60:Q60" si="3">SUM(G52:G58)</f>
         <v>7000</v>
       </c>
-      <c r="H60" s="61">
-        <f t="shared" si="1"/>
+      <c r="H60" s="60">
+        <f t="shared" si="3"/>
         <v>7400</v>
       </c>
-      <c r="I60" s="61">
-        <f t="shared" si="1"/>
+      <c r="I60" s="60">
+        <f t="shared" si="3"/>
         <v>9200</v>
       </c>
-      <c r="J60" s="61">
-        <f t="shared" si="1"/>
+      <c r="J60" s="60">
+        <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="K60" s="61">
-        <f t="shared" si="1"/>
+      <c r="K60" s="60">
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="L60" s="61">
-        <f t="shared" si="1"/>
+      <c r="L60" s="60">
+        <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M60" s="61">
-        <f t="shared" si="1"/>
+      <c r="M60" s="60">
+        <f t="shared" si="3"/>
         <v>7100</v>
       </c>
-      <c r="N60" s="61">
-        <f t="shared" si="1"/>
+      <c r="N60" s="60">
+        <f t="shared" si="3"/>
         <v>9050</v>
       </c>
-      <c r="O60" s="61">
-        <f t="shared" si="1"/>
+      <c r="O60" s="60">
+        <f t="shared" si="3"/>
         <v>9250</v>
       </c>
-      <c r="P60" s="61">
-        <f t="shared" si="1"/>
+      <c r="P60" s="60">
+        <f t="shared" si="3"/>
         <v>8700</v>
       </c>
-      <c r="Q60" s="61">
-        <f t="shared" si="1"/>
+      <c r="Q60" s="60">
+        <f t="shared" si="3"/>
         <v>9400</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C61" s="53"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
     </row>
     <row r="63" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="64" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C64" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="55"/>
     </row>
     <row r="65" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="66" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C66" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="52"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
       <c r="F66" s="47" t="s">
         <v>31</v>
       </c>
@@ -7563,9 +7635,9 @@
       </c>
     </row>
     <row r="67" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="53"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="55"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="53"/>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
       <c r="H67" s="48"/>
@@ -7585,51 +7657,51 @@
       </c>
       <c r="D68" s="42"/>
       <c r="E68" s="43"/>
-      <c r="F68" s="59">
+      <c r="F68" s="58">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="G68" s="59">
+      <c r="G68" s="58">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="H68" s="59">
+      <c r="H68" s="58">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="I68" s="59">
+      <c r="I68" s="58">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="J68" s="59">
+      <c r="J68" s="58">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="K68" s="59">
+      <c r="K68" s="58">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="L68" s="59">
+      <c r="L68" s="58">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="M68" s="59">
+      <c r="M68" s="58">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="N68" s="59">
+      <c r="N68" s="58">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="O68" s="59">
+      <c r="O68" s="58">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="P68" s="59">
+      <c r="P68" s="58">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="Q68" s="59">
+      <c r="Q68" s="58">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
@@ -7638,18 +7710,18 @@
       <c r="C69" s="44"/>
       <c r="D69" s="45"/>
       <c r="E69" s="46"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="60"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C70" s="41" t="s">
@@ -7657,51 +7729,51 @@
       </c>
       <c r="D70" s="42"/>
       <c r="E70" s="43"/>
-      <c r="F70" s="59">
+      <c r="F70" s="58">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="G70" s="59">
+      <c r="G70" s="58">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="H70" s="59">
+      <c r="H70" s="58">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="I70" s="59">
+      <c r="I70" s="58">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="J70" s="59">
+      <c r="J70" s="58">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="K70" s="59">
+      <c r="K70" s="58">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="L70" s="59">
+      <c r="L70" s="58">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="M70" s="59">
+      <c r="M70" s="58">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="N70" s="59">
+      <c r="N70" s="58">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="O70" s="59">
+      <c r="O70" s="58">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="P70" s="59">
+      <c r="P70" s="58">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>400</v>
       </c>
-      <c r="Q70" s="59">
+      <c r="Q70" s="58">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
@@ -7710,18 +7782,18 @@
       <c r="C71" s="44"/>
       <c r="D71" s="45"/>
       <c r="E71" s="46"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C72" s="41" t="s">
@@ -7729,51 +7801,51 @@
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="43"/>
-      <c r="F72" s="59">
+      <c r="F72" s="58">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="G72" s="59">
+      <c r="G72" s="58">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="H72" s="59">
+      <c r="H72" s="58">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="I72" s="59">
+      <c r="I72" s="58">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="J72" s="59">
+      <c r="J72" s="58">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="K72" s="59">
+      <c r="K72" s="58">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="L72" s="59">
+      <c r="L72" s="58">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="M72" s="59">
+      <c r="M72" s="58">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="N72" s="59">
+      <c r="N72" s="58">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="O72" s="59">
+      <c r="O72" s="58">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="P72" s="59">
+      <c r="P72" s="58">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="Q72" s="59">
+      <c r="Q72" s="58">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
@@ -7782,18 +7854,18 @@
       <c r="C73" s="44"/>
       <c r="D73" s="45"/>
       <c r="E73" s="46"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="60"/>
-      <c r="O73" s="60"/>
-      <c r="P73" s="60"/>
-      <c r="Q73" s="60"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="59"/>
+      <c r="O73" s="59"/>
+      <c r="P73" s="59"/>
+      <c r="Q73" s="59"/>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C74" s="41" t="s">
@@ -7801,51 +7873,51 @@
       </c>
       <c r="D74" s="42"/>
       <c r="E74" s="43"/>
-      <c r="F74" s="59">
+      <c r="F74" s="58">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>400</v>
       </c>
-      <c r="G74" s="59">
+      <c r="G74" s="58">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="H74" s="59">
+      <c r="H74" s="58">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
-      <c r="I74" s="59">
+      <c r="I74" s="58">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="J74" s="59">
+      <c r="J74" s="58">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="K74" s="59">
+      <c r="K74" s="58">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="L74" s="59">
+      <c r="L74" s="58">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>150</v>
       </c>
-      <c r="M74" s="59">
+      <c r="M74" s="58">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="N74" s="59">
+      <c r="N74" s="58">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="O74" s="59">
+      <c r="O74" s="58">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="P74" s="59">
+      <c r="P74" s="58">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="Q74" s="59">
+      <c r="Q74" s="58">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
@@ -7854,18 +7926,18 @@
       <c r="C75" s="44"/>
       <c r="D75" s="45"/>
       <c r="E75" s="46"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="60"/>
-      <c r="O75" s="60"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C76" s="41" t="s">
@@ -7873,51 +7945,51 @@
       </c>
       <c r="D76" s="42"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="59">
+      <c r="F76" s="58">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="G76" s="59">
+      <c r="G76" s="58">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>560</v>
       </c>
-      <c r="H76" s="59">
+      <c r="H76" s="58">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>575</v>
       </c>
-      <c r="I76" s="59">
+      <c r="I76" s="58">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>620</v>
       </c>
-      <c r="J76" s="59">
+      <c r="J76" s="58">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="K76" s="59">
+      <c r="K76" s="58">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>500</v>
       </c>
-      <c r="L76" s="59">
+      <c r="L76" s="58">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="M76" s="59">
+      <c r="M76" s="58">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="N76" s="59">
+      <c r="N76" s="58">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="O76" s="59">
+      <c r="O76" s="58">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>475</v>
       </c>
-      <c r="P76" s="59">
+      <c r="P76" s="58">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="Q76" s="59">
+      <c r="Q76" s="58">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>550</v>
       </c>
@@ -7926,18 +7998,18 @@
       <c r="C77" s="44"/>
       <c r="D77" s="45"/>
       <c r="E77" s="46"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="60"/>
-      <c r="N77" s="60"/>
-      <c r="O77" s="60"/>
-      <c r="P77" s="60"/>
-      <c r="Q77" s="60"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C78" s="41" t="s">
@@ -7945,51 +8017,51 @@
       </c>
       <c r="D78" s="42"/>
       <c r="E78" s="43"/>
-      <c r="F78" s="59">
+      <c r="F78" s="58">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>410</v>
       </c>
-      <c r="G78" s="59">
+      <c r="G78" s="58">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>430</v>
       </c>
-      <c r="H78" s="59">
+      <c r="H78" s="58">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>380</v>
       </c>
-      <c r="I78" s="59">
+      <c r="I78" s="58">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>350</v>
       </c>
-      <c r="J78" s="59">
+      <c r="J78" s="58">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>330</v>
       </c>
-      <c r="K78" s="59">
+      <c r="K78" s="58">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="L78" s="59">
+      <c r="L78" s="58">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="M78" s="59">
+      <c r="M78" s="58">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="N78" s="59">
+      <c r="N78" s="58">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>320</v>
       </c>
-      <c r="O78" s="59">
+      <c r="O78" s="58">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>310</v>
       </c>
-      <c r="P78" s="59">
+      <c r="P78" s="58">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="Q78" s="59">
+      <c r="Q78" s="58">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>425</v>
       </c>
@@ -7998,18 +8070,18 @@
       <c r="C79" s="44"/>
       <c r="D79" s="45"/>
       <c r="E79" s="46"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
-      <c r="O79" s="60"/>
-      <c r="P79" s="60"/>
-      <c r="Q79" s="60"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="59"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C80" s="41" t="s">
@@ -8017,51 +8089,51 @@
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="43"/>
-      <c r="F80" s="59">
+      <c r="F80" s="58">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>475</v>
       </c>
-      <c r="G80" s="59">
+      <c r="G80" s="58">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="H80" s="59">
+      <c r="H80" s="58">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>375</v>
       </c>
-      <c r="I80" s="59">
+      <c r="I80" s="58">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>425</v>
       </c>
-      <c r="J80" s="59">
+      <c r="J80" s="58">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>430</v>
       </c>
-      <c r="K80" s="59">
+      <c r="K80" s="58">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="L80" s="59">
+      <c r="L80" s="58">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>775</v>
       </c>
-      <c r="M80" s="59">
+      <c r="M80" s="58">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>900</v>
       </c>
-      <c r="N80" s="59">
+      <c r="N80" s="58">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>450</v>
       </c>
-      <c r="O80" s="59">
+      <c r="O80" s="58">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="P80" s="59">
+      <c r="P80" s="58">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="Q80" s="59">
+      <c r="Q80" s="58">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>1400</v>
       </c>
@@ -8070,90 +8142,90 @@
       <c r="C81" s="44"/>
       <c r="D81" s="45"/>
       <c r="E81" s="46"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
-      <c r="O81" s="60"/>
-      <c r="P81" s="60"/>
-      <c r="Q81" s="60"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.45">
       <c r="C82" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="51"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="61">
+      <c r="D82" s="49"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="60">
         <f>SUM(F68:F81)</f>
         <v>4560</v>
       </c>
-      <c r="G82" s="61">
-        <f t="shared" ref="G82:Q82" si="2">SUM(G68:G81)</f>
+      <c r="G82" s="60">
+        <f t="shared" ref="G82:Q82" si="4">SUM(G68:G81)</f>
         <v>4465</v>
       </c>
-      <c r="H82" s="61">
-        <f t="shared" si="2"/>
+      <c r="H82" s="60">
+        <f t="shared" si="4"/>
         <v>3980</v>
       </c>
-      <c r="I82" s="61">
-        <f t="shared" si="2"/>
+      <c r="I82" s="60">
+        <f t="shared" si="4"/>
         <v>4445</v>
       </c>
-      <c r="J82" s="61">
-        <f t="shared" si="2"/>
+      <c r="J82" s="60">
+        <f t="shared" si="4"/>
         <v>4410</v>
       </c>
-      <c r="K82" s="61">
-        <f t="shared" si="2"/>
+      <c r="K82" s="60">
+        <f t="shared" si="4"/>
         <v>4015</v>
       </c>
-      <c r="L82" s="61">
-        <f t="shared" si="2"/>
+      <c r="L82" s="60">
+        <f t="shared" si="4"/>
         <v>4790</v>
       </c>
-      <c r="M82" s="61">
-        <f t="shared" si="2"/>
+      <c r="M82" s="60">
+        <f t="shared" si="4"/>
         <v>4890</v>
       </c>
-      <c r="N82" s="61">
-        <f t="shared" si="2"/>
+      <c r="N82" s="60">
+        <f t="shared" si="4"/>
         <v>4520</v>
       </c>
-      <c r="O82" s="61">
-        <f t="shared" si="2"/>
+      <c r="O82" s="60">
+        <f t="shared" si="4"/>
         <v>4460</v>
       </c>
-      <c r="P82" s="61">
-        <f t="shared" si="2"/>
+      <c r="P82" s="60">
+        <f t="shared" si="4"/>
         <v>4615</v>
       </c>
-      <c r="Q82" s="61">
-        <f t="shared" si="2"/>
+      <c r="Q82" s="60">
+        <f t="shared" si="4"/>
         <v>5425</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C83" s="53"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
-      <c r="H83" s="62"/>
-      <c r="I83" s="62"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
-      <c r="O83" s="62"/>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="252">
@@ -8780,7 +8852,7 @@
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="58"/>
+      <c r="C25" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Excel Annual budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ABDAA8-C3DE-44E0-AAF0-83108F28D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF70D3-14DF-4459-A94D-4522251D1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Data" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="54">
   <si>
     <t>Month</t>
   </si>
@@ -505,6 +505,82 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,17 +635,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -586,85 +656,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
     </dxf>
@@ -682,30 +679,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
@@ -809,8 +782,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style " pivot="0" table="0" count="4" xr9:uid="{4F2702B4-8E1A-45A9-BE93-824F78568E6A}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -870,6 +843,2052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Income Streams!Income Chart</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>How did our income streams perform</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Income Streams'!$D$6:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Full-Time Job</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Income Streams'!$C$8:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Income Streams'!$D$8:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81A4-4506-BDA2-5601AE5053B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Income Streams'!$E$6:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Income Streams'!$C$8:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Income Streams'!$E$8:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-81A4-4506-BDA2-5601AE5053B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Income Streams'!$F$6:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consulting</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Income Streams'!$C$8:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Income Streams'!$F$8:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-81A4-4506-BDA2-5601AE5053B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Income Streams'!$G$6:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Online Courses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Income Streams'!$C$8:$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Income Streams'!$G$8:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-81A4-4506-BDA2-5601AE5053B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="637383344"/>
+        <c:axId val="637383824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637383344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637383824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637383824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;₹&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637383344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101330</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138484</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F92BACD-EE00-4CAC-A068-161043262340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1873,7 +3892,298 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAAF7242-7DD7-4EC5-8958-23353EDCA614}" name="Income Chart" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="C6:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" item="1" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D6:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -2007,7 +4317,7 @@
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2023,8 +4333,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="Expense Types" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D7:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -2167,7 +4477,7 @@
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2201,18 +4511,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}" name="Full_Data" displayName="Full_Data" ref="A1:E133" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E133" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="19" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="10" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D49" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DA7B8EA1-6FBD-4518-9E93-954FA0CF90DF}" name="Month"/>
@@ -2225,7 +4535,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="H1:K85" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6C1BB9FE-D288-4963-95A0-3938455504ED}" name="Month"/>
@@ -2536,20 +4846,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B1FDC1-1897-4043-847A-002EC357DC27}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.04296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2583,7 +4893,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2600,7 +4910,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2617,7 +4927,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2634,7 +4944,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2651,7 +4961,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +4978,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2685,7 +4995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2702,7 +5012,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +5029,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2736,7 +5046,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2753,7 +5063,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2770,7 +5080,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2787,7 +5097,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +5114,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2821,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2838,7 +5148,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2855,7 +5165,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +5182,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2889,7 +5199,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2906,7 +5216,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2923,7 +5233,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2940,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2957,7 +5267,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2974,7 +5284,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2991,7 +5301,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3008,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3025,7 +5335,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3042,7 +5352,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3059,7 +5369,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3076,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -3093,7 +5403,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3110,7 +5420,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -3127,7 +5437,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -3144,7 +5454,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -3161,7 +5471,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -3178,7 +5488,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3195,7 +5505,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -3212,7 +5522,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3229,7 +5539,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -3246,7 +5556,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -3263,7 +5573,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -3280,7 +5590,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3297,7 +5607,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -3314,7 +5624,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -3331,7 +5641,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -3348,7 +5658,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -3365,7 +5675,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -3382,7 +5692,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -3399,7 +5709,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3416,7 +5726,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3433,7 +5743,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3450,7 +5760,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3467,7 +5777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3484,7 +5794,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3501,7 +5811,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -3518,7 +5828,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3535,7 +5845,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3552,7 +5862,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -3569,7 +5879,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -3586,7 +5896,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3603,7 +5913,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3620,7 +5930,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -3637,7 +5947,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -3654,7 +5964,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -3671,7 +5981,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -3688,7 +5998,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -3705,7 +6015,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -3722,7 +6032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -3739,7 +6049,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -3756,7 +6066,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -3773,7 +6083,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -3790,7 +6100,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -3807,7 +6117,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -3824,7 +6134,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -3841,7 +6151,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -3858,7 +6168,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -3875,7 +6185,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -3892,7 +6202,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -3909,7 +6219,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -3926,7 +6236,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3943,7 +6253,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3960,7 +6270,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3977,7 +6287,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +6304,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -4011,7 +6321,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -4028,7 +6338,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4045,7 +6355,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -4062,7 +6372,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -4079,7 +6389,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -4096,7 +6406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -4113,7 +6423,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -4130,7 +6440,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -4147,7 +6457,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -4164,7 +6474,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -4181,7 +6491,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -4198,7 +6508,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -4215,7 +6525,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -4232,7 +6542,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -4249,7 +6559,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -4266,7 +6576,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -4283,7 +6593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -4300,7 +6610,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -4317,7 +6627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -4334,7 +6644,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -4351,7 +6661,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -4368,7 +6678,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -4385,7 +6695,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -4402,7 +6712,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -4419,7 +6729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -4436,7 +6746,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>24</v>
       </c>
@@ -4453,7 +6763,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -4470,7 +6780,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -4487,7 +6797,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -4504,7 +6814,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -4521,7 +6831,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -4538,7 +6848,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -4555,7 +6865,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -4572,7 +6882,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -4589,7 +6899,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -4606,7 +6916,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -4623,7 +6933,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -4640,7 +6950,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -4657,7 +6967,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -4674,7 +6984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -4691,7 +7001,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>27</v>
       </c>
@@ -4708,7 +7018,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>27</v>
       </c>
@@ -4725,7 +7035,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -4742,7 +7052,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -4759,7 +7069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>27</v>
       </c>
@@ -4776,7 +7086,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -4793,7 +7103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -4827,15 +7137,15 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4864,7 +7174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4890,7 +7200,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4916,7 +7226,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4942,7 +7252,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +7278,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4994,7 +7304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +7330,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5046,7 +7356,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5072,7 +7382,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5098,7 +7408,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5124,7 +7434,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5150,7 +7460,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -5176,7 +7486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -5202,7 +7512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5228,7 +7538,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -5254,7 +7564,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5280,7 +7590,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -5306,7 +7616,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -5332,7 +7642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5358,7 +7668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5384,7 +7694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5410,7 +7720,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5436,7 +7746,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5462,7 +7772,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5488,7 +7798,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -5514,7 +7824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -5540,7 +7850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5566,7 +7876,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -5592,7 +7902,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -5618,7 +7928,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -5644,7 +7954,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -5670,7 +7980,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5696,7 +8006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -5722,7 +8032,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -5748,7 +8058,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5774,7 +8084,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -5800,7 +8110,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5826,7 +8136,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -5852,7 +8162,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -5878,7 +8188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -5904,7 +8214,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -5930,7 +8240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -5956,7 +8266,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -5982,7 +8292,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -6008,7 +8318,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -6034,7 +8344,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -6060,7 +8370,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -6086,7 +8396,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -6112,7 +8422,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H50" t="s">
         <v>22</v>
       </c>
@@ -6126,7 +8436,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H51" t="s">
         <v>23</v>
       </c>
@@ -6140,7 +8450,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H52" t="s">
         <v>23</v>
       </c>
@@ -6154,7 +8464,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H53" t="s">
         <v>23</v>
       </c>
@@ -6168,7 +8478,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H54" t="s">
         <v>23</v>
       </c>
@@ -6182,7 +8492,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H55" t="s">
         <v>23</v>
       </c>
@@ -6196,7 +8506,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H56" t="s">
         <v>23</v>
       </c>
@@ -6210,7 +8520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H57" t="s">
         <v>23</v>
       </c>
@@ -6224,7 +8534,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H58" t="s">
         <v>24</v>
       </c>
@@ -6238,7 +8548,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H59" t="s">
         <v>24</v>
       </c>
@@ -6252,7 +8562,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H60" t="s">
         <v>24</v>
       </c>
@@ -6266,7 +8576,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H61" t="s">
         <v>24</v>
       </c>
@@ -6280,7 +8590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H62" t="s">
         <v>24</v>
       </c>
@@ -6294,7 +8604,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H63" t="s">
         <v>24</v>
       </c>
@@ -6308,7 +8618,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H64" t="s">
         <v>24</v>
       </c>
@@ -6322,7 +8632,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H65" t="s">
         <v>25</v>
       </c>
@@ -6336,7 +8646,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H66" t="s">
         <v>25</v>
       </c>
@@ -6350,7 +8660,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H67" t="s">
         <v>25</v>
       </c>
@@ -6364,7 +8674,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H68" t="s">
         <v>25</v>
       </c>
@@ -6378,7 +8688,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H69" t="s">
         <v>25</v>
       </c>
@@ -6392,7 +8702,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H70" t="s">
         <v>25</v>
       </c>
@@ -6406,7 +8716,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H71" t="s">
         <v>25</v>
       </c>
@@ -6420,7 +8730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H72" t="s">
         <v>26</v>
       </c>
@@ -6434,7 +8744,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H73" t="s">
         <v>26</v>
       </c>
@@ -6448,7 +8758,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H74" t="s">
         <v>26</v>
       </c>
@@ -6462,7 +8772,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H75" t="s">
         <v>26</v>
       </c>
@@ -6476,7 +8786,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H76" t="s">
         <v>26</v>
       </c>
@@ -6490,7 +8800,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H77" t="s">
         <v>26</v>
       </c>
@@ -6504,7 +8814,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H78" t="s">
         <v>26</v>
       </c>
@@ -6518,7 +8828,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="79" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H79" t="s">
         <v>27</v>
       </c>
@@ -6532,7 +8842,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="80" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H80" t="s">
         <v>27</v>
       </c>
@@ -6546,7 +8856,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="81" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H81" t="s">
         <v>27</v>
       </c>
@@ -6560,7 +8870,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="82" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H82" t="s">
         <v>27</v>
       </c>
@@ -6574,7 +8884,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H83" t="s">
         <v>27</v>
       </c>
@@ -6588,7 +8898,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H84" t="s">
         <v>27</v>
       </c>
@@ -6602,7 +8912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="8:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H85" t="s">
         <v>27</v>
       </c>
@@ -6629,17 +8939,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401540A-95C7-413B-AEFF-BA9648FCAAC4}">
   <dimension ref="C1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68:N69"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="6" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="2" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -6656,111 +8966,111 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+    <row r="3" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+    <row r="4" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+    <row r="5" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+    <row r="6" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="3:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+    <row r="7" spans="3:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="C8" s="5"/>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+    <row r="9" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+    <row r="10" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+    <row r="11" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+    <row r="12" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+    <row r="13" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6777,8 +9087,8 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="16" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6795,63 +9105,63 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C19" s="5"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C20" s="5"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C21" s="5"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C22" s="5"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C23" s="5"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C24" s="5"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C25" s="5"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C26" s="5"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C27" s="5"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C28" s="5"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C29" s="5"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C30" s="5"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.75">
       <c r="C31" s="5"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="C32" s="8"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -6868,1377 +9178,1585 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="35" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="36" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C36" s="32" t="s">
+    <row r="35" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="36" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C36" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-    </row>
-    <row r="37" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C38" s="35" t="s">
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+    </row>
+    <row r="37" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C38" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="47" t="s">
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="47" t="s">
+      <c r="H38" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="47" t="s">
+      <c r="I38" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="47" t="s">
+      <c r="K38" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="47" t="s">
+      <c r="L38" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="47" t="s">
+      <c r="M38" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="47" t="s">
+      <c r="N38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="47" t="s">
+      <c r="O38" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="47" t="s">
+      <c r="P38" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="47" t="s">
+      <c r="Q38" s="31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C39" s="38"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C40" s="41" t="s">
+    <row r="39" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C40" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="62">
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="38">
         <f>F60</f>
         <v>7600</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="38">
         <f>G60</f>
         <v>7000</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="38">
         <f t="shared" ref="H40:Q40" si="0">H60</f>
         <v>7400</v>
       </c>
-      <c r="I40" s="62">
+      <c r="I40" s="38">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="38">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="K40" s="62">
+      <c r="K40" s="38">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="L40" s="62">
+      <c r="L40" s="38">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="M40" s="62">
+      <c r="M40" s="38">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="N40" s="62">
+      <c r="N40" s="38">
         <f t="shared" si="0"/>
         <v>9050</v>
       </c>
-      <c r="O40" s="62">
+      <c r="O40" s="38">
         <f t="shared" si="0"/>
         <v>9250</v>
       </c>
-      <c r="P40" s="62">
+      <c r="P40" s="38">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="Q40" s="62">
+      <c r="Q40" s="38">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
     </row>
-    <row r="41" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C42" s="41" t="s">
+    <row r="41" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C42" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="58">
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="15">
         <f>F82</f>
         <v>4560</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="15">
         <f t="shared" ref="G42:Q42" si="1">G82</f>
         <v>4465</v>
       </c>
-      <c r="H42" s="58">
+      <c r="H42" s="15">
         <f t="shared" si="1"/>
         <v>3980</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="15">
         <f t="shared" si="1"/>
         <v>4445</v>
       </c>
-      <c r="J42" s="58">
+      <c r="J42" s="15">
         <f t="shared" si="1"/>
         <v>4410</v>
       </c>
-      <c r="K42" s="58">
+      <c r="K42" s="15">
         <f t="shared" si="1"/>
         <v>4015</v>
       </c>
-      <c r="L42" s="58">
+      <c r="L42" s="15">
         <f t="shared" si="1"/>
         <v>4790</v>
       </c>
-      <c r="M42" s="58">
+      <c r="M42" s="15">
         <f t="shared" si="1"/>
         <v>4890</v>
       </c>
-      <c r="N42" s="58">
+      <c r="N42" s="15">
         <f t="shared" si="1"/>
         <v>4520</v>
       </c>
-      <c r="O42" s="58">
+      <c r="O42" s="15">
         <f t="shared" si="1"/>
         <v>4460</v>
       </c>
-      <c r="P42" s="58">
+      <c r="P42" s="15">
         <f t="shared" si="1"/>
         <v>4615</v>
       </c>
-      <c r="Q42" s="58">
+      <c r="Q42" s="15">
         <f t="shared" si="1"/>
         <v>5425</v>
       </c>
     </row>
-    <row r="43" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C43" s="44"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-    </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C44" s="41" t="s">
+    <row r="43" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C44" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="60">
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="17">
         <f>F40-F42</f>
         <v>3040</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="17">
         <f t="shared" ref="G44:Q44" si="2">G40-G42</f>
         <v>2535</v>
       </c>
-      <c r="H44" s="60">
+      <c r="H44" s="17">
         <f t="shared" si="2"/>
         <v>3420</v>
       </c>
-      <c r="I44" s="60">
+      <c r="I44" s="17">
         <f t="shared" si="2"/>
         <v>4755</v>
       </c>
-      <c r="J44" s="60">
+      <c r="J44" s="17">
         <f t="shared" si="2"/>
         <v>2590</v>
       </c>
-      <c r="K44" s="60">
+      <c r="K44" s="17">
         <f t="shared" si="2"/>
         <v>3485</v>
       </c>
-      <c r="L44" s="60">
+      <c r="L44" s="17">
         <f t="shared" si="2"/>
         <v>2710</v>
       </c>
-      <c r="M44" s="60">
+      <c r="M44" s="17">
         <f t="shared" si="2"/>
         <v>2210</v>
       </c>
-      <c r="N44" s="60">
+      <c r="N44" s="17">
         <f t="shared" si="2"/>
         <v>4530</v>
       </c>
-      <c r="O44" s="60">
+      <c r="O44" s="17">
         <f t="shared" si="2"/>
         <v>4790</v>
       </c>
-      <c r="P44" s="60">
+      <c r="P44" s="17">
         <f t="shared" si="2"/>
         <v>4085</v>
       </c>
-      <c r="Q44" s="60">
+      <c r="Q44" s="17">
         <f t="shared" si="2"/>
         <v>3975</v>
       </c>
     </row>
-    <row r="45" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-    </row>
-    <row r="47" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="48" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C48" s="32" t="s">
+    <row r="45" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+    </row>
+    <row r="47" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="48" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C48" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-    </row>
-    <row r="49" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C50" s="35" t="s">
+      <c r="D48" s="58"/>
+      <c r="E48" s="59"/>
+    </row>
+    <row r="49" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="47" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="47" t="s">
+      <c r="G50" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H50" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="47" t="s">
+      <c r="I50" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="47" t="s">
+      <c r="J50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="47" t="s">
+      <c r="K50" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="47" t="s">
+      <c r="L50" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="47" t="s">
+      <c r="M50" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N50" s="47" t="s">
+      <c r="N50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="47" t="s">
+      <c r="O50" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="47" t="s">
+      <c r="P50" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="47" t="s">
+      <c r="Q50" s="31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C51" s="51"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C52" s="41" t="s">
+    <row r="51" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C52" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="58">
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="15">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="G52" s="58">
+      <c r="G52" s="15">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="H52" s="58">
+      <c r="H52" s="15">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="I52" s="58">
+      <c r="I52" s="15">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>7500</v>
       </c>
-      <c r="J52" s="58">
+      <c r="J52" s="15">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="K52" s="58">
+      <c r="K52" s="15">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="L52" s="58">
+      <c r="L52" s="15">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="M52" s="58">
+      <c r="M52" s="15">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N52" s="58">
+      <c r="N52" s="15">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="O52" s="58">
+      <c r="O52" s="15">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="P52" s="58">
+      <c r="P52" s="15">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="Q52" s="58">
+      <c r="Q52" s="15">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C53" s="44"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C54" s="41" t="s">
+    <row r="53" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C54" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="58">
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="15">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="G54" s="58">
+      <c r="G54" s="15">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="58">
+      <c r="H54" s="15">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="I54" s="58">
+      <c r="I54" s="15">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="58">
+      <c r="J54" s="15">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="K54" s="58">
+      <c r="K54" s="15">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="L54" s="58">
+      <c r="L54" s="15">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="M54" s="58">
+      <c r="M54" s="15">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="N54" s="58">
+      <c r="N54" s="15">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>850</v>
       </c>
-      <c r="O54" s="58">
+      <c r="O54" s="15">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>950</v>
       </c>
-      <c r="P54" s="58">
+      <c r="P54" s="15">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="Q54" s="58">
+      <c r="Q54" s="15">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C55" s="44"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C56" s="41" t="s">
+    <row r="55" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C56" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="58">
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="15">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G56" s="58">
+      <c r="G56" s="15">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="H56" s="58">
+      <c r="H56" s="15">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="I56" s="58">
+      <c r="I56" s="15">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="J56" s="58">
+      <c r="J56" s="15">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="K56" s="58">
+      <c r="K56" s="15">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="58">
+      <c r="L56" s="15">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="58">
+      <c r="M56" s="15">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="58">
+      <c r="N56" s="15">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="O56" s="58">
+      <c r="O56" s="15">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="P56" s="58">
+      <c r="P56" s="15">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="Q56" s="58">
+      <c r="Q56" s="15">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="59"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C58" s="41" t="s">
+    <row r="57" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C58" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="58">
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="15">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G58" s="58">
+      <c r="G58" s="15">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="H58" s="58">
+      <c r="H58" s="15">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="I58" s="58">
+      <c r="I58" s="15">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="J58" s="58">
+      <c r="J58" s="15">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="K58" s="58">
+      <c r="K58" s="15">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2200</v>
       </c>
-      <c r="L58" s="58">
+      <c r="L58" s="15">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2100</v>
       </c>
-      <c r="M58" s="58">
+      <c r="M58" s="15">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1900</v>
       </c>
-      <c r="N58" s="58">
+      <c r="N58" s="15">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="O58" s="58">
+      <c r="O58" s="15">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="P58" s="58">
+      <c r="P58" s="15">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="Q58" s="58">
+      <c r="Q58" s="15">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C59" s="44"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C60" s="35" t="s">
+    <row r="59" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C60" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="60">
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="17">
         <f>SUM(F52:F58)</f>
         <v>7600</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="17">
         <f t="shared" ref="G60:Q60" si="3">SUM(G52:G58)</f>
         <v>7000</v>
       </c>
-      <c r="H60" s="60">
+      <c r="H60" s="17">
         <f t="shared" si="3"/>
         <v>7400</v>
       </c>
-      <c r="I60" s="60">
+      <c r="I60" s="17">
         <f t="shared" si="3"/>
         <v>9200</v>
       </c>
-      <c r="J60" s="60">
+      <c r="J60" s="17">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="K60" s="60">
+      <c r="K60" s="17">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="L60" s="60">
+      <c r="L60" s="17">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M60" s="60">
+      <c r="M60" s="17">
         <f t="shared" si="3"/>
         <v>7100</v>
       </c>
-      <c r="N60" s="60">
+      <c r="N60" s="17">
         <f t="shared" si="3"/>
         <v>9050</v>
       </c>
-      <c r="O60" s="60">
+      <c r="O60" s="17">
         <f t="shared" si="3"/>
         <v>9250</v>
       </c>
-      <c r="P60" s="60">
+      <c r="P60" s="17">
         <f t="shared" si="3"/>
         <v>8700</v>
       </c>
-      <c r="Q60" s="60">
+      <c r="Q60" s="17">
         <f t="shared" si="3"/>
         <v>9400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-    </row>
-    <row r="63" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="64" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C64" s="32" t="s">
+    <row r="61" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+    </row>
+    <row r="63" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="64" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C64" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="55"/>
-    </row>
-    <row r="65" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C66" s="35" t="s">
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
+    </row>
+    <row r="65" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="47" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="47" t="s">
+      <c r="G66" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="47" t="s">
+      <c r="H66" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="47" t="s">
+      <c r="I66" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="47" t="s">
+      <c r="J66" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="47" t="s">
+      <c r="K66" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L66" s="47" t="s">
+      <c r="L66" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="47" t="s">
+      <c r="M66" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="47" t="s">
+      <c r="N66" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="47" t="s">
+      <c r="O66" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="P66" s="47" t="s">
+      <c r="P66" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="47" t="s">
+      <c r="Q66" s="31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C67" s="51"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-    </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C68" s="41" t="s">
+    <row r="67" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C68" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="58">
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="15">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="G68" s="58">
+      <c r="G68" s="15">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="H68" s="58">
+      <c r="H68" s="15">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="I68" s="58">
+      <c r="I68" s="15">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="J68" s="58">
+      <c r="J68" s="15">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="K68" s="58">
+      <c r="K68" s="15">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="L68" s="58">
+      <c r="L68" s="15">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="M68" s="58">
+      <c r="M68" s="15">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="N68" s="58">
+      <c r="N68" s="15">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="O68" s="58">
+      <c r="O68" s="15">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="P68" s="58">
+      <c r="P68" s="15">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="Q68" s="58">
+      <c r="Q68" s="15">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
     </row>
-    <row r="69" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C69" s="44"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-    </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C70" s="41" t="s">
+    <row r="69" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+    </row>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C70" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="58">
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="15">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="G70" s="58">
+      <c r="G70" s="15">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="H70" s="58">
+      <c r="H70" s="15">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="I70" s="58">
+      <c r="I70" s="15">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="J70" s="58">
+      <c r="J70" s="15">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="K70" s="58">
+      <c r="K70" s="15">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="15">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="15">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="N70" s="58">
+      <c r="N70" s="15">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="O70" s="58">
+      <c r="O70" s="15">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="P70" s="58">
+      <c r="P70" s="15">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>400</v>
       </c>
-      <c r="Q70" s="58">
+      <c r="Q70" s="15">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C71" s="44"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-    </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C72" s="41" t="s">
+    <row r="71" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C71" s="28"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C72" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="58">
+      <c r="D72" s="26"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="15">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="G72" s="58">
+      <c r="G72" s="15">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="H72" s="58">
+      <c r="H72" s="15">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="I72" s="58">
+      <c r="I72" s="15">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="J72" s="58">
+      <c r="J72" s="15">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="K72" s="58">
+      <c r="K72" s="15">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="L72" s="58">
+      <c r="L72" s="15">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="M72" s="58">
+      <c r="M72" s="15">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="N72" s="58">
+      <c r="N72" s="15">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="O72" s="58">
+      <c r="O72" s="15">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="P72" s="58">
+      <c r="P72" s="15">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="Q72" s="58">
+      <c r="Q72" s="15">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C73" s="44"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-    </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C74" s="41" t="s">
+    <row r="73" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C74" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="58">
+      <c r="D74" s="26"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="15">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>400</v>
       </c>
-      <c r="G74" s="58">
+      <c r="G74" s="15">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="H74" s="58">
+      <c r="H74" s="15">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
-      <c r="I74" s="58">
+      <c r="I74" s="15">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="J74" s="58">
+      <c r="J74" s="15">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="K74" s="58">
+      <c r="K74" s="15">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="L74" s="58">
+      <c r="L74" s="15">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>150</v>
       </c>
-      <c r="M74" s="58">
+      <c r="M74" s="15">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="N74" s="58">
+      <c r="N74" s="15">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="O74" s="58">
+      <c r="O74" s="15">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="P74" s="58">
+      <c r="P74" s="15">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="Q74" s="58">
+      <c r="Q74" s="15">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C75" s="44"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-    </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C76" s="41" t="s">
+    <row r="75" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C76" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="58">
+      <c r="D76" s="26"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="15">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="G76" s="58">
+      <c r="G76" s="15">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>560</v>
       </c>
-      <c r="H76" s="58">
+      <c r="H76" s="15">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>575</v>
       </c>
-      <c r="I76" s="58">
+      <c r="I76" s="15">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>620</v>
       </c>
-      <c r="J76" s="58">
+      <c r="J76" s="15">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="K76" s="58">
+      <c r="K76" s="15">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>500</v>
       </c>
-      <c r="L76" s="58">
+      <c r="L76" s="15">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="M76" s="58">
+      <c r="M76" s="15">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="N76" s="58">
+      <c r="N76" s="15">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="O76" s="58">
+      <c r="O76" s="15">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>475</v>
       </c>
-      <c r="P76" s="58">
+      <c r="P76" s="15">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="Q76" s="58">
+      <c r="Q76" s="15">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>550</v>
       </c>
     </row>
-    <row r="77" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C77" s="44"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-    </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C78" s="41" t="s">
+    <row r="77" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C77" s="28"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C78" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="58">
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="15">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>410</v>
       </c>
-      <c r="G78" s="58">
+      <c r="G78" s="15">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>430</v>
       </c>
-      <c r="H78" s="58">
+      <c r="H78" s="15">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>380</v>
       </c>
-      <c r="I78" s="58">
+      <c r="I78" s="15">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>350</v>
       </c>
-      <c r="J78" s="58">
+      <c r="J78" s="15">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>330</v>
       </c>
-      <c r="K78" s="58">
+      <c r="K78" s="15">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="L78" s="58">
+      <c r="L78" s="15">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="M78" s="58">
+      <c r="M78" s="15">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="N78" s="58">
+      <c r="N78" s="15">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>320</v>
       </c>
-      <c r="O78" s="58">
+      <c r="O78" s="15">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>310</v>
       </c>
-      <c r="P78" s="58">
+      <c r="P78" s="15">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="Q78" s="58">
+      <c r="Q78" s="15">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C79" s="44"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-    </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C80" s="41" t="s">
+    <row r="79" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C79" s="28"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+    </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C80" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="58">
+      <c r="D80" s="26"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="15">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>475</v>
       </c>
-      <c r="G80" s="58">
+      <c r="G80" s="15">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="H80" s="58">
+      <c r="H80" s="15">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>375</v>
       </c>
-      <c r="I80" s="58">
+      <c r="I80" s="15">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>425</v>
       </c>
-      <c r="J80" s="58">
+      <c r="J80" s="15">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>430</v>
       </c>
-      <c r="K80" s="58">
+      <c r="K80" s="15">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="L80" s="58">
+      <c r="L80" s="15">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>775</v>
       </c>
-      <c r="M80" s="58">
+      <c r="M80" s="15">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>900</v>
       </c>
-      <c r="N80" s="58">
+      <c r="N80" s="15">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>450</v>
       </c>
-      <c r="O80" s="58">
+      <c r="O80" s="15">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="P80" s="58">
+      <c r="P80" s="15">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="Q80" s="58">
+      <c r="Q80" s="15">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C81" s="44"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.45">
-      <c r="C82" s="35" t="s">
+    <row r="81" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C81" s="28"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C82" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="60">
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="17">
         <f>SUM(F68:F81)</f>
         <v>4560</v>
       </c>
-      <c r="G82" s="60">
+      <c r="G82" s="17">
         <f t="shared" ref="G82:Q82" si="4">SUM(G68:G81)</f>
         <v>4465</v>
       </c>
-      <c r="H82" s="60">
+      <c r="H82" s="17">
         <f t="shared" si="4"/>
         <v>3980</v>
       </c>
-      <c r="I82" s="60">
+      <c r="I82" s="17">
         <f t="shared" si="4"/>
         <v>4445</v>
       </c>
-      <c r="J82" s="60">
+      <c r="J82" s="17">
         <f t="shared" si="4"/>
         <v>4410</v>
       </c>
-      <c r="K82" s="60">
+      <c r="K82" s="17">
         <f t="shared" si="4"/>
         <v>4015</v>
       </c>
-      <c r="L82" s="60">
+      <c r="L82" s="17">
         <f t="shared" si="4"/>
         <v>4790</v>
       </c>
-      <c r="M82" s="60">
+      <c r="M82" s="17">
         <f t="shared" si="4"/>
         <v>4890</v>
       </c>
-      <c r="N82" s="60">
+      <c r="N82" s="17">
         <f t="shared" si="4"/>
         <v>4520</v>
       </c>
-      <c r="O82" s="60">
+      <c r="O82" s="17">
         <f t="shared" si="4"/>
         <v>4460</v>
       </c>
-      <c r="P82" s="60">
+      <c r="P82" s="17">
         <f t="shared" si="4"/>
         <v>4615</v>
       </c>
-      <c r="Q82" s="60">
+      <c r="Q82" s="17">
         <f t="shared" si="4"/>
         <v>5425</v>
       </c>
     </row>
-    <row r="83" spans="3:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C83" s="51"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
-      <c r="Q83" s="61"/>
+    <row r="83" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C3:I7"/>
+    <mergeCell ref="C9:I13"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="C68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
     <mergeCell ref="C82:E83"/>
     <mergeCell ref="F82:F83"/>
     <mergeCell ref="G82:G83"/>
@@ -8263,237 +10781,293 @@
     <mergeCell ref="P82:P83"/>
     <mergeCell ref="Q82:Q83"/>
     <mergeCell ref="J82:J83"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="C68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="C3:I7"/>
-    <mergeCell ref="C9:I13"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B71084-08B9-44F7-B866-F5BB3B18FB34}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="72" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.31640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.31640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.58984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.31640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.2265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.58984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="13">
+        <v>200</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1200</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="13">
+        <v>100</v>
+      </c>
+      <c r="F9" s="13">
+        <v>800</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="13">
+        <v>500</v>
+      </c>
+      <c r="F10" s="13">
+        <v>900</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13">
+        <v>7500</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>900</v>
+      </c>
+      <c r="G11" s="13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="13">
+        <v>300</v>
+      </c>
+      <c r="F12" s="13">
+        <v>900</v>
+      </c>
+      <c r="G12" s="13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="13">
+        <v>300</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="13">
+        <v>400</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="13">
+        <v>200</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="13">
+        <v>850</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="13">
+        <v>950</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="13">
+        <v>600</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1500</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13">
+        <v>6000</v>
+      </c>
+      <c r="E19" s="13">
+        <v>700</v>
+      </c>
+      <c r="F19" s="13">
+        <v>700</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8504,7 +11078,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8516,7 +11090,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8530,24 +11104,24 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.31640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.40625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.40625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.31640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.04296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
@@ -8555,7 +11129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
@@ -8563,7 +11137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D6" s="11" t="s">
         <v>51</v>
       </c>
@@ -8571,7 +11145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D7" s="11" t="s">
         <v>48</v>
       </c>
@@ -8591,7 +11165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D8" s="12" t="s">
         <v>31</v>
       </c>
@@ -8611,7 +11185,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D9" s="12" t="s">
         <v>32</v>
       </c>
@@ -8631,7 +11205,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
@@ -8651,7 +11225,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
@@ -8671,7 +11245,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
@@ -8691,7 +11265,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D13" s="12" t="s">
         <v>35</v>
       </c>
@@ -8711,7 +11285,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
@@ -8731,7 +11305,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D15" s="12" t="s">
         <v>37</v>
       </c>
@@ -8751,7 +11325,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.75">
       <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
@@ -8771,7 +11345,7 @@
         <v>9050</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.75">
       <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
@@ -8791,7 +11365,7 @@
         <v>9250</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.75">
       <c r="D18" s="12" t="s">
         <v>40</v>
       </c>
@@ -8811,7 +11385,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.75">
       <c r="D19" s="12" t="s">
         <v>41</v>
       </c>
@@ -8831,7 +11405,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.75">
       <c r="D20" s="12" t="s">
         <v>49</v>
       </c>
@@ -8851,8 +11425,8 @@
         <v>96700</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C25" s="56"/>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.75">
+      <c r="C25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8863,24 +11437,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B38A04E-28DB-4780-9338-526F187CA0FB}">
   <dimension ref="D4:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B3" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.76953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.31640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.40625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
@@ -8888,7 +11462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
@@ -8896,7 +11470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D7" s="11" t="s">
         <v>51</v>
       </c>
@@ -8904,7 +11478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D8" s="11" t="s">
         <v>48</v>
       </c>
@@ -8933,7 +11507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
@@ -8962,7 +11536,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D10" s="12" t="s">
         <v>32</v>
       </c>
@@ -8991,7 +11565,7 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D11" s="12" t="s">
         <v>33</v>
       </c>
@@ -9020,7 +11594,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
@@ -9049,7 +11623,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D13" s="12" t="s">
         <v>20</v>
       </c>
@@ -9078,7 +11652,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D14" s="12" t="s">
         <v>35</v>
       </c>
@@ -9107,7 +11681,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D15" s="12" t="s">
         <v>36</v>
       </c>
@@ -9136,7 +11710,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D16" s="12" t="s">
         <v>37</v>
       </c>
@@ -9165,7 +11739,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
@@ -9194,7 +11768,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
@@ -9223,7 +11797,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
@@ -9252,7 +11826,7 @@
         <v>4615</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D20" s="12" t="s">
         <v>41</v>
       </c>
@@ -9281,7 +11855,7 @@
         <v>5425</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.75">
       <c r="D21" s="12" t="s">
         <v>49</v>
       </c>
@@ -9312,6 +11886,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Excel Annual budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF70D3-14DF-4459-A94D-4522251D1797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F15518-0E4E-4962-808A-62F452B9E0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="55">
   <si>
     <t>Month</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -484,11 +487,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -506,81 +510,8 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,11 +566,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -656,29 +593,84 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
@@ -782,8 +774,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style " pivot="0" table="0" count="4" xr9:uid="{4F2702B4-8E1A-45A9-BE93-824F78568E6A}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -883,7 +875,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" b="0">
+              <a:rPr lang="en-IN" sz="1400" b="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="85000"/>
@@ -891,7 +883,29 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>How did our income streams perform</a:t>
+              <a:t>How did our </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>income streams </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>perform</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2303,7 +2317,282 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400"/>
+              <a:t>What was our </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1"/>
+              <a:t>savings</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1400" b="1" baseline="0"/>
+              <a:t> percentage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11847360733805359"/>
+          <c:y val="1.1587057348178756E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5B5D-4EA9-A7FC-DF223CC48BBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5B5D-4EA9-A7FC-DF223CC48BBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Savings Percentage'!$F$4:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Expense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Savings Percentage'!$G$4:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>96700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5B5D-4EA9-A7FC-DF223CC48BBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2848,6 +3137,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2886,6 +3694,118 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>637167</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450F88D4-B606-4BCF-9AA9-3E84D0555D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189552</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578134</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'Savings Percentage'!G7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9466BC-6B1F-4017-B75B-004B7E24E9EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6444776" y="4298099"/>
+          <a:ext cx="1028321" cy="990410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{4A3640BA-5938-49D0-85DD-C4D290C9413F}" type="TxLink">
+            <a:rPr lang="en-US" sz="3600" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>44%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-IN" sz="3600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3892,7 +4812,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAAF7242-7DD7-4EC5-8958-23353EDCA614}" name="Income Chart" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAAF7242-7DD7-4EC5-8958-23353EDCA614}" name="Income Chart" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="C6:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -4020,7 +4940,7 @@
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4183,7 +5103,74 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE4A1DFA-15FE-4B03-91D8-843002F40EA4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="C5:D8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D6:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -4317,7 +5304,7 @@
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4333,8 +5320,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="Expense Types" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="Expense Types" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D7:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -4477,7 +5464,7 @@
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4511,18 +5498,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}" name="Full_Data" displayName="Full_Data" ref="A1:E133" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E133" xr:uid="{4D599FF7-6779-4F26-B74D-B9B05635C5FB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DFA12C47-B6A5-4687-90E5-5F766D6A75B6}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1A6A0B87-7BB6-479F-A257-C20F0052317B}" uniqueName="2" name="First Characters" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CD2185C5-B6BB-42A2-83CD-FCF8B89F5349}" uniqueName="3" name="Title" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F9900305-B3A2-477E-8ED2-5A079B9BE981}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{16874FE3-1345-4263-8878-A3D5186B98E6}" uniqueName="5" name="Amount" queryTableFieldId="5" dataDxfId="5" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}" name="Income" displayName="Income" ref="A1:D49" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D49" xr:uid="{168C78E3-4AD5-4B3A-A2A3-171EB7B4BE89}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DA7B8EA1-6FBD-4518-9E93-954FA0CF90DF}" name="Month"/>
@@ -4535,7 +5522,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}" name="Expense" displayName="Expense" ref="H1:K85" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="H1:K85" xr:uid="{943695BB-1889-491B-9B3F-17E26CA74208}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6C1BB9FE-D288-4963-95A0-3938455504ED}" name="Month"/>
@@ -4846,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B1FDC1-1897-4043-847A-002EC357DC27}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="AT37" sqref="AT37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8939,8 +9926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401540A-95C7-413B-AEFF-BA9648FCAAC4}">
   <dimension ref="C1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="94" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="AQ15" sqref="AQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8967,53 +9954,53 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="3:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -9021,53 +10008,53 @@
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -9180,1421 +10167,1537 @@
     </row>
     <row r="35" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="36" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="59"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="38" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="31" t="s">
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="31" t="s">
+      <c r="H38" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="31" t="s">
+      <c r="J38" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="31" t="s">
+      <c r="K38" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="31" t="s">
+      <c r="L38" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M38" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="31" t="s">
+      <c r="N38" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="31" t="s">
+      <c r="O38" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="31" t="s">
+      <c r="P38" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="31" t="s">
+      <c r="Q38" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="38">
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="52">
         <f>F60</f>
         <v>7600</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="52">
         <f>G60</f>
         <v>7000</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="52">
         <f t="shared" ref="H40:Q40" si="0">H60</f>
         <v>7400</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="52">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="J40" s="38">
+      <c r="J40" s="52">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="52">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="52">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="M40" s="38">
+      <c r="M40" s="52">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="52">
         <f t="shared" si="0"/>
         <v>9050</v>
       </c>
-      <c r="O40" s="38">
+      <c r="O40" s="52">
         <f t="shared" si="0"/>
         <v>9250</v>
       </c>
-      <c r="P40" s="38">
+      <c r="P40" s="52">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="Q40" s="52">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
     </row>
     <row r="41" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="15">
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="54">
         <f>F82</f>
         <v>4560</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="54">
         <f t="shared" ref="G42:Q42" si="1">G82</f>
         <v>4465</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="54">
         <f t="shared" si="1"/>
         <v>3980</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="54">
         <f t="shared" si="1"/>
         <v>4445</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="54">
         <f t="shared" si="1"/>
         <v>4410</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="54">
         <f t="shared" si="1"/>
         <v>4015</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="54">
         <f t="shared" si="1"/>
         <v>4790</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="54">
         <f t="shared" si="1"/>
         <v>4890</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N42" s="54">
         <f t="shared" si="1"/>
         <v>4520</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="54">
         <f t="shared" si="1"/>
         <v>4460</v>
       </c>
-      <c r="P42" s="15">
+      <c r="P42" s="54">
         <f t="shared" si="1"/>
         <v>4615</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="54">
         <f t="shared" si="1"/>
         <v>5425</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="17">
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="56">
         <f>F40-F42</f>
         <v>3040</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="56">
         <f t="shared" ref="G44:Q44" si="2">G40-G42</f>
         <v>2535</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="56">
         <f t="shared" si="2"/>
         <v>3420</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="56">
         <f t="shared" si="2"/>
         <v>4755</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="56">
         <f t="shared" si="2"/>
         <v>2590</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="56">
         <f t="shared" si="2"/>
         <v>3485</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="56">
         <f t="shared" si="2"/>
         <v>2710</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="56">
         <f t="shared" si="2"/>
         <v>2210</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="56">
         <f t="shared" si="2"/>
         <v>4530</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="56">
         <f t="shared" si="2"/>
         <v>4790</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="56">
         <f t="shared" si="2"/>
         <v>4085</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="56">
         <f t="shared" si="2"/>
         <v>3975</v>
       </c>
     </row>
     <row r="45" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
     </row>
     <row r="47" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="48" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="58"/>
-      <c r="E48" s="59"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="37"/>
     </row>
     <row r="49" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="50" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="31" t="s">
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="31" t="s">
+      <c r="I50" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="31" t="s">
+      <c r="K50" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="31" t="s">
+      <c r="L50" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="31" t="s">
+      <c r="M50" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="N50" s="31" t="s">
+      <c r="N50" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="31" t="s">
+      <c r="O50" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="31" t="s">
+      <c r="P50" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="31" t="s">
+      <c r="Q50" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="15">
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="54">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="54">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="54">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="54">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>7500</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="54">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="54">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="54">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="54">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N52" s="54">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O52" s="54">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="P52" s="15">
+      <c r="P52" s="54">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="Q52" s="15">
+      <c r="Q52" s="54">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>6000</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="15">
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="54">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="54">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="54">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="54">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="54">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="54">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="54">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M54" s="54">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N54" s="54">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>850</v>
       </c>
-      <c r="O54" s="15">
+      <c r="O54" s="54">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>950</v>
       </c>
-      <c r="P54" s="15">
+      <c r="P54" s="54">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="Q54" s="15">
+      <c r="Q54" s="54">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>700</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
+      <c r="Q55" s="58"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="15">
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="54">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="54">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="54">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="54">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="54">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="54">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="54">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="54">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="54">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O56" s="54">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="P56" s="15">
+      <c r="P56" s="54">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="Q56" s="15">
+      <c r="Q56" s="54">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>700</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="58"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="15">
+      <c r="D58" s="45"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="54">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="54">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="54">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="54">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="54">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="54">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2200</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L58" s="54">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2100</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="54">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1900</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N58" s="54">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O58" s="54">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="P58" s="15">
+      <c r="P58" s="54">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="Q58" s="15">
+      <c r="Q58" s="54">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="17">
+      <c r="D60" s="59"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="56">
         <f>SUM(F52:F58)</f>
         <v>7600</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="56">
         <f t="shared" ref="G60:Q60" si="3">SUM(G52:G58)</f>
         <v>7000</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="56">
         <f t="shared" si="3"/>
         <v>7400</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="56">
         <f t="shared" si="3"/>
         <v>9200</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="56">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="56">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="56">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="56">
         <f t="shared" si="3"/>
         <v>7100</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="56">
         <f t="shared" si="3"/>
         <v>9050</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="56">
         <f t="shared" si="3"/>
         <v>9250</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="56">
         <f t="shared" si="3"/>
         <v>8700</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="56">
         <f t="shared" si="3"/>
         <v>9400</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
     </row>
     <row r="63" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="64" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C64" s="33" t="s">
+      <c r="C64" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="66"/>
     </row>
     <row r="65" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="66" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="31" t="s">
+      <c r="D66" s="59"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="31" t="s">
+      <c r="G66" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="31" t="s">
+      <c r="H66" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="31" t="s">
+      <c r="I66" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="31" t="s">
+      <c r="J66" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="31" t="s">
+      <c r="K66" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="L66" s="31" t="s">
+      <c r="L66" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="31" t="s">
+      <c r="M66" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="31" t="s">
+      <c r="N66" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="31" t="s">
+      <c r="O66" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="P66" s="31" t="s">
+      <c r="P66" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="31" t="s">
+      <c r="Q66" s="50" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C67" s="22"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C68" s="25" t="s">
+      <c r="C68" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="15">
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="54">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="54">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="54">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="54">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="54">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="54">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="54">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="M68" s="15">
+      <c r="M68" s="54">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N68" s="54">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="O68" s="15">
+      <c r="O68" s="54">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="P68" s="15">
+      <c r="P68" s="54">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="Q68" s="15">
+      <c r="Q68" s="54">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
     </row>
     <row r="69" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="58"/>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="15">
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="54">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="54">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="54">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="54">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="54">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K70" s="54">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L70" s="54">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="M70" s="15">
+      <c r="M70" s="54">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N70" s="54">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="O70" s="15">
+      <c r="O70" s="54">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="P70" s="15">
+      <c r="P70" s="54">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>400</v>
       </c>
-      <c r="Q70" s="15">
+      <c r="Q70" s="54">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
     </row>
     <row r="71" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="58"/>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="15">
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="54">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="54">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="54">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="54">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="54">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="54">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L72" s="54">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="M72" s="15">
+      <c r="M72" s="54">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="N72" s="15">
+      <c r="N72" s="54">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="O72" s="15">
+      <c r="O72" s="54">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="P72" s="15">
+      <c r="P72" s="54">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="Q72" s="15">
+      <c r="Q72" s="54">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
     </row>
     <row r="73" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C73" s="28"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
+      <c r="Q73" s="58"/>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="15">
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="54">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>400</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="54">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="54">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="54">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="54">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K74" s="54">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L74" s="54">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>150</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M74" s="54">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N74" s="54">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="O74" s="15">
+      <c r="O74" s="54">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="P74" s="15">
+      <c r="P74" s="54">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="Q74" s="15">
+      <c r="Q74" s="54">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="58"/>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="15">
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="54">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="54">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>560</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="54">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>575</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="54">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>620</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="54">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="54">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>500</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="54">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="54">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N76" s="54">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O76" s="54">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>475</v>
       </c>
-      <c r="P76" s="15">
+      <c r="P76" s="54">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="Q76" s="15">
+      <c r="Q76" s="54">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>550</v>
       </c>
     </row>
     <row r="77" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C77" s="28"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="58"/>
+      <c r="P77" s="58"/>
+      <c r="Q77" s="58"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="15">
+      <c r="D78" s="45"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="54">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>410</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="54">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>430</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="54">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>380</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="54">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>350</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="54">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>330</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K78" s="54">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L78" s="54">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="54">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N78" s="54">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>320</v>
       </c>
-      <c r="O78" s="15">
+      <c r="O78" s="54">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>310</v>
       </c>
-      <c r="P78" s="15">
+      <c r="P78" s="54">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="Q78" s="15">
+      <c r="Q78" s="54">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>425</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="58"/>
+      <c r="P79" s="58"/>
+      <c r="Q79" s="58"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C80" s="25" t="s">
+      <c r="C80" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="15">
+      <c r="D80" s="45"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="54">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>475</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="54">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="54">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>375</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="54">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>425</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="54">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>430</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K80" s="54">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L80" s="54">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>775</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="54">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>900</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N80" s="54">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>450</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O80" s="54">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="P80" s="15">
+      <c r="P80" s="54">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="54">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>1400</v>
       </c>
     </row>
     <row r="81" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="58"/>
+      <c r="Q81" s="58"/>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="17">
+      <c r="D82" s="59"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="56">
         <f>SUM(F68:F81)</f>
         <v>4560</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="56">
         <f t="shared" ref="G82:Q82" si="4">SUM(G68:G81)</f>
         <v>4465</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="56">
         <f t="shared" si="4"/>
         <v>3980</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="56">
         <f t="shared" si="4"/>
         <v>4445</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J82" s="56">
         <f t="shared" si="4"/>
         <v>4410</v>
       </c>
-      <c r="K82" s="17">
+      <c r="K82" s="56">
         <f t="shared" si="4"/>
         <v>4015</v>
       </c>
-      <c r="L82" s="17">
+      <c r="L82" s="56">
         <f t="shared" si="4"/>
         <v>4790</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M82" s="56">
         <f t="shared" si="4"/>
         <v>4890</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N82" s="56">
         <f t="shared" si="4"/>
         <v>4520</v>
       </c>
-      <c r="O82" s="17">
+      <c r="O82" s="56">
         <f t="shared" si="4"/>
         <v>4460</v>
       </c>
-      <c r="P82" s="17">
+      <c r="P82" s="56">
         <f t="shared" si="4"/>
         <v>4615</v>
       </c>
-      <c r="Q82" s="17">
+      <c r="Q82" s="56">
         <f t="shared" si="4"/>
         <v>5425</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C83" s="22"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+      <c r="L83" s="64"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="C3:I7"/>
-    <mergeCell ref="C9:I13"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="C68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="C52:E53"/>
     <mergeCell ref="F52:F53"/>
@@ -10619,178 +11722,62 @@
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="N52:N53"/>
     <mergeCell ref="O52:O53"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="C68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="C80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="C3:I7"/>
+    <mergeCell ref="C9:I13"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10802,7 +11789,7 @@
   <dimension ref="C3:G19"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="CC27" sqref="CC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11074,12 +12061,89 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17591101-7EBE-4C48-A273-8944FAAC865A}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f>GETPIVOTDATA("Amount",$C$5,"Description","Income")</f>
+        <v>96700</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <f>GETPIVOTDATA("Amount",$C$5,"Description","Expense")</f>
+        <v>54575</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="15">
+        <v>54575</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <f>G4-G5</f>
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>96700</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="16">
+        <f>G6/G4</f>
+        <v>0.43562564632885215</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.75">
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15">
+        <v>151275</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11100,8 +12164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F157E5-5E73-44CA-A159-B486F3F88BD1}">
   <dimension ref="C3:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="BE12" sqref="BE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11437,8 +12501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B38A04E-28DB-4780-9338-526F187CA0FB}">
   <dimension ref="D4:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BH16" sqref="BH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Excel Annual budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F15518-0E4E-4962-808A-62F452B9E0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A905C-B357-45CF-911D-D64964338B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="55">
   <si>
     <t>Month</t>
   </si>
@@ -234,7 +234,7 @@
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,26 +313,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -492,7 +538,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -512,6 +558,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,101 +621,158 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -778,6 +890,13 @@
       <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF009A46"/>
+      <color rgb="FF00CC5C"/>
+      <color rgb="FF546DAA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
       <x14:dxfs count="2">
@@ -877,10 +996,7 @@
             <a:r>
               <a:rPr lang="en-IN" sz="1400" b="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>How did our </a:t>
@@ -888,10 +1004,7 @@
             <a:r>
               <a:rPr lang="en-IN" sz="1400" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>income streams </a:t>
@@ -899,10 +1012,7 @@
             <a:r>
               <a:rPr lang="en-IN" sz="1400" b="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>perform</a:t>
@@ -2351,18 +2461,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400"/>
+              <a:rPr lang="en-IN" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>What was our </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1"/>
+              <a:rPr lang="en-IN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>savings</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="1" baseline="0"/>
+              <a:rPr lang="en-IN" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> percentage</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN" sz="1400" b="1"/>
+            <a:endParaRPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2552,6 +2678,853 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard.xlsx]Expenses Pie Chart!PivotTable1</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Where is our </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>expense</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> going?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="546DAA"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="009A46"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Expenses Pie Chart'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-68D4-4839-9119-1B8DE14EE2F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-68D4-4839-9119-1B8DE14EE2F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-68D4-4839-9119-1B8DE14EE2F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-68D4-4839-9119-1B8DE14EE2F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="546DAA"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-68D4-4839-9119-1B8DE14EE2F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="009A46"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-68D4-4839-9119-1B8DE14EE2F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-68D4-4839-9119-1B8DE14EE2F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Expenses Pie Chart'!$C$6:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Cable/Phone/Internet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Car Expenses</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Entertainment</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Groceries</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Housing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Expenses Pie Chart'!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7080</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-68D4-4839-9119-1B8DE14EE2F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3893004492010268E-2"/>
+          <c:y val="0.17048788221702688"/>
+          <c:w val="0.34364787857085971"/>
+          <c:h val="0.78147781590903886"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2593,6 +3566,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3656,6 +4669,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3666,8 +5198,8 @@
       <xdr:rowOff>97952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>138484</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379105</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>101330</xdr:rowOff>
     </xdr:to>
@@ -3699,15 +5231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>637167</xdr:colOff>
+      <xdr:colOff>130115</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>183150</xdr:rowOff>
+      <xdr:rowOff>149979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>119025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251712</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>81821</xdr:rowOff>
+      <xdr:rowOff>48650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3736,16 +5268,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>189552</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312761</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>165860</xdr:rowOff>
+      <xdr:rowOff>118472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>578134</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>18957</xdr:rowOff>
+      <xdr:colOff>61604</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Savings Percentage'!G7">
       <xdr:nvSpPr>
@@ -3760,7 +5292,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6444776" y="4298099"/>
+          <a:off x="5928246" y="4250711"/>
           <a:ext cx="1028321" cy="990410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3806,6 +5338,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563916</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>554440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104254</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A565BCF-0BEF-45D2-B37D-E930E6DD962F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4812,7 +6382,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAAF7242-7DD7-4EC5-8958-23353EDCA614}" name="Income Chart" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAAF7242-7DD7-4EC5-8958-23353EDCA614}" name="Income Chart" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="C6:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -5103,7 +6673,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE4A1DFA-15FE-4B03-91D8-843002F40EA4}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE4A1DFA-15FE-4B03-91D8-843002F40EA4}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="C5:D8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -5170,7 +6740,299 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A500ABB-27F6-43E5-8D52-B2B7B94DD952}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="C5:D12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="3" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="17">
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D6:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -5320,8 +7182,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="Expense Types" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="Expense Types" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D7:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -5833,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B1FDC1-1897-4043-847A-002EC357DC27}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="AT37" sqref="AT37"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8108,7 +9970,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9926,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401540A-95C7-413B-AEFF-BA9648FCAAC4}">
   <dimension ref="C1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="AQ15" sqref="AQ15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="67" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9954,53 +11816,53 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="3:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -10008,53 +11870,53 @@
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -10167,1375 +12029,1583 @@
     </row>
     <row r="35" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="36" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="38" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="50" t="s">
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="50" t="s">
+      <c r="K38" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="50" t="s">
+      <c r="M38" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="50" t="s">
+      <c r="N38" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="50" t="s">
+      <c r="O38" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="50" t="s">
+      <c r="P38" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="50" t="s">
+      <c r="Q38" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="52">
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="67">
         <f>F60</f>
         <v>7600</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G40" s="67">
         <f>G60</f>
         <v>7000</v>
       </c>
-      <c r="H40" s="52">
+      <c r="H40" s="67">
         <f t="shared" ref="H40:Q40" si="0">H60</f>
         <v>7400</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I40" s="67">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J40" s="67">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="67">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="67">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="M40" s="52">
+      <c r="M40" s="67">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="N40" s="52">
+      <c r="N40" s="67">
         <f t="shared" si="0"/>
         <v>9050</v>
       </c>
-      <c r="O40" s="52">
+      <c r="O40" s="67">
         <f t="shared" si="0"/>
         <v>9250</v>
       </c>
-      <c r="P40" s="52">
+      <c r="P40" s="67">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="Q40" s="52">
+      <c r="Q40" s="67">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
     </row>
     <row r="41" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="54">
+      <c r="D42" s="58"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="67">
         <f>F82</f>
         <v>4560</v>
       </c>
-      <c r="G42" s="54">
+      <c r="G42" s="67">
         <f t="shared" ref="G42:Q42" si="1">G82</f>
         <v>4465</v>
       </c>
-      <c r="H42" s="54">
+      <c r="H42" s="67">
         <f t="shared" si="1"/>
         <v>3980</v>
       </c>
-      <c r="I42" s="54">
+      <c r="I42" s="67">
         <f t="shared" si="1"/>
         <v>4445</v>
       </c>
-      <c r="J42" s="54">
+      <c r="J42" s="67">
         <f t="shared" si="1"/>
         <v>4410</v>
       </c>
-      <c r="K42" s="54">
+      <c r="K42" s="67">
         <f t="shared" si="1"/>
         <v>4015</v>
       </c>
-      <c r="L42" s="54">
+      <c r="L42" s="67">
         <f t="shared" si="1"/>
         <v>4790</v>
       </c>
-      <c r="M42" s="54">
+      <c r="M42" s="67">
         <f t="shared" si="1"/>
         <v>4890</v>
       </c>
-      <c r="N42" s="54">
+      <c r="N42" s="67">
         <f t="shared" si="1"/>
         <v>4520</v>
       </c>
-      <c r="O42" s="54">
+      <c r="O42" s="67">
         <f t="shared" si="1"/>
         <v>4460</v>
       </c>
-      <c r="P42" s="54">
+      <c r="P42" s="67">
         <f t="shared" si="1"/>
         <v>4615</v>
       </c>
-      <c r="Q42" s="54">
+      <c r="Q42" s="67">
         <f t="shared" si="1"/>
         <v>5425</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="56">
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="65">
         <f>F40-F42</f>
         <v>3040</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="65">
         <f t="shared" ref="G44:Q44" si="2">G40-G42</f>
         <v>2535</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="65">
         <f t="shared" si="2"/>
         <v>3420</v>
       </c>
-      <c r="I44" s="56">
+      <c r="I44" s="65">
         <f t="shared" si="2"/>
         <v>4755</v>
       </c>
-      <c r="J44" s="56">
+      <c r="J44" s="65">
         <f t="shared" si="2"/>
         <v>2590</v>
       </c>
-      <c r="K44" s="56">
+      <c r="K44" s="65">
         <f t="shared" si="2"/>
         <v>3485</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="65">
         <f t="shared" si="2"/>
         <v>2710</v>
       </c>
-      <c r="M44" s="56">
+      <c r="M44" s="65">
         <f t="shared" si="2"/>
         <v>2210</v>
       </c>
-      <c r="N44" s="56">
+      <c r="N44" s="65">
         <f t="shared" si="2"/>
         <v>4530</v>
       </c>
-      <c r="O44" s="56">
+      <c r="O44" s="65">
         <f t="shared" si="2"/>
         <v>4790</v>
       </c>
-      <c r="P44" s="56">
+      <c r="P44" s="65">
         <f t="shared" si="2"/>
         <v>4085</v>
       </c>
-      <c r="Q44" s="56">
+      <c r="Q44" s="65">
         <f t="shared" si="2"/>
         <v>3975</v>
       </c>
     </row>
     <row r="45" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
     </row>
     <row r="47" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="48" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="50" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="50" t="s">
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="50" t="s">
+      <c r="I50" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="50" t="s">
+      <c r="M50" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="N50" s="50" t="s">
+      <c r="N50" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="50" t="s">
+      <c r="O50" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="50" t="s">
+      <c r="P50" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="50" t="s">
+      <c r="Q50" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="54">
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="67">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="G52" s="54">
+      <c r="G52" s="67">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="H52" s="54">
+      <c r="H52" s="67">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="I52" s="54">
+      <c r="I52" s="67">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>7500</v>
       </c>
-      <c r="J52" s="54">
+      <c r="J52" s="67">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="K52" s="54">
+      <c r="K52" s="67">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="L52" s="54">
+      <c r="L52" s="67">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="M52" s="54">
+      <c r="M52" s="67">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N52" s="54">
+      <c r="N52" s="67">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="O52" s="54">
+      <c r="O52" s="67">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="P52" s="54">
+      <c r="P52" s="67">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="Q52" s="54">
+      <c r="Q52" s="67">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>6000</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="54">
+      <c r="D54" s="72"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="67">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="G54" s="54">
+      <c r="G54" s="67">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="54">
+      <c r="H54" s="67">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="I54" s="54">
+      <c r="I54" s="67">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="54">
+      <c r="J54" s="67">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="K54" s="54">
+      <c r="K54" s="67">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="L54" s="54">
+      <c r="L54" s="67">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="M54" s="54">
+      <c r="M54" s="67">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="N54" s="54">
+      <c r="N54" s="67">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>850</v>
       </c>
-      <c r="O54" s="54">
+      <c r="O54" s="67">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>950</v>
       </c>
-      <c r="P54" s="54">
+      <c r="P54" s="67">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="Q54" s="54">
+      <c r="Q54" s="67">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>700</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="70"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="70"/>
+      <c r="P55" s="70"/>
+      <c r="Q55" s="70"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="54">
+      <c r="D56" s="72"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="67">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G56" s="54">
+      <c r="G56" s="67">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="H56" s="54">
+      <c r="H56" s="67">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="I56" s="54">
+      <c r="I56" s="67">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="J56" s="54">
+      <c r="J56" s="67">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="K56" s="54">
+      <c r="K56" s="67">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="54">
+      <c r="L56" s="67">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="54">
+      <c r="M56" s="67">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="54">
+      <c r="N56" s="67">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="O56" s="54">
+      <c r="O56" s="67">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="P56" s="54">
+      <c r="P56" s="67">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="Q56" s="54">
+      <c r="Q56" s="67">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>700</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C57" s="47"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="54">
+      <c r="D58" s="72"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="67">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G58" s="54">
+      <c r="G58" s="67">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="H58" s="54">
+      <c r="H58" s="67">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="I58" s="54">
+      <c r="I58" s="67">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="J58" s="54">
+      <c r="J58" s="67">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="K58" s="54">
+      <c r="K58" s="67">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2200</v>
       </c>
-      <c r="L58" s="54">
+      <c r="L58" s="67">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2100</v>
       </c>
-      <c r="M58" s="54">
+      <c r="M58" s="67">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1900</v>
       </c>
-      <c r="N58" s="54">
+      <c r="N58" s="67">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="O58" s="54">
+      <c r="O58" s="67">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="P58" s="54">
+      <c r="P58" s="67">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="Q58" s="54">
+      <c r="Q58" s="67">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2000</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C59" s="47"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="70"/>
+      <c r="N59" s="70"/>
+      <c r="O59" s="70"/>
+      <c r="P59" s="70"/>
+      <c r="Q59" s="70"/>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="56">
+      <c r="D60" s="78"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="65">
         <f>SUM(F52:F58)</f>
         <v>7600</v>
       </c>
-      <c r="G60" s="56">
+      <c r="G60" s="65">
         <f t="shared" ref="G60:Q60" si="3">SUM(G52:G58)</f>
         <v>7000</v>
       </c>
-      <c r="H60" s="56">
+      <c r="H60" s="65">
         <f t="shared" si="3"/>
         <v>7400</v>
       </c>
-      <c r="I60" s="56">
+      <c r="I60" s="65">
         <f t="shared" si="3"/>
         <v>9200</v>
       </c>
-      <c r="J60" s="56">
+      <c r="J60" s="65">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="K60" s="56">
+      <c r="K60" s="65">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="L60" s="56">
+      <c r="L60" s="65">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M60" s="56">
+      <c r="M60" s="65">
         <f t="shared" si="3"/>
         <v>7100</v>
       </c>
-      <c r="N60" s="56">
+      <c r="N60" s="65">
         <f t="shared" si="3"/>
         <v>9050</v>
       </c>
-      <c r="O60" s="56">
+      <c r="O60" s="65">
         <f t="shared" si="3"/>
         <v>9250</v>
       </c>
-      <c r="P60" s="56">
+      <c r="P60" s="65">
         <f t="shared" si="3"/>
         <v>8700</v>
       </c>
-      <c r="Q60" s="56">
+      <c r="Q60" s="65">
         <f t="shared" si="3"/>
         <v>9400</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="64"/>
-      <c r="P61" s="64"/>
-      <c r="Q61" s="64"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
     </row>
     <row r="63" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="64" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="66" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="50" t="s">
+      <c r="D66" s="52"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="50" t="s">
+      <c r="H66" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="50" t="s">
+      <c r="J66" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="50" t="s">
+      <c r="K66" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="L66" s="50" t="s">
+      <c r="L66" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="50" t="s">
+      <c r="M66" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="50" t="s">
+      <c r="N66" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="50" t="s">
+      <c r="O66" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="P66" s="50" t="s">
+      <c r="P66" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="50" t="s">
+      <c r="Q66" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C67" s="61"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="54">
+      <c r="D68" s="72"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="67">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="G68" s="54">
+      <c r="G68" s="67">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="H68" s="54">
+      <c r="H68" s="67">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="I68" s="54">
+      <c r="I68" s="67">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="J68" s="54">
+      <c r="J68" s="67">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="K68" s="54">
+      <c r="K68" s="67">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="L68" s="54">
+      <c r="L68" s="67">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="M68" s="54">
+      <c r="M68" s="67">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="N68" s="54">
+      <c r="N68" s="67">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="O68" s="54">
+      <c r="O68" s="67">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="P68" s="54">
+      <c r="P68" s="67">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="Q68" s="54">
+      <c r="Q68" s="67">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
     </row>
     <row r="69" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C69" s="47"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="58"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="70"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="70"/>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="54">
+      <c r="D70" s="72"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="67">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="G70" s="54">
+      <c r="G70" s="67">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="H70" s="54">
+      <c r="H70" s="67">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="I70" s="54">
+      <c r="I70" s="67">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="J70" s="54">
+      <c r="J70" s="67">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="K70" s="54">
+      <c r="K70" s="67">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="L70" s="54">
+      <c r="L70" s="67">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="M70" s="54">
+      <c r="M70" s="67">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="N70" s="54">
+      <c r="N70" s="67">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="O70" s="54">
+      <c r="O70" s="67">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="P70" s="54">
+      <c r="P70" s="67">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>400</v>
       </c>
-      <c r="Q70" s="54">
+      <c r="Q70" s="67">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
     </row>
     <row r="71" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
-      <c r="Q71" s="58"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="70"/>
+      <c r="M71" s="70"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="70"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="70"/>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="54">
+      <c r="D72" s="72"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="67">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="G72" s="54">
+      <c r="G72" s="67">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="H72" s="54">
+      <c r="H72" s="67">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="I72" s="54">
+      <c r="I72" s="67">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="J72" s="54">
+      <c r="J72" s="67">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="K72" s="54">
+      <c r="K72" s="67">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="L72" s="54">
+      <c r="L72" s="67">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="M72" s="54">
+      <c r="M72" s="67">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="N72" s="54">
+      <c r="N72" s="67">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="O72" s="54">
+      <c r="O72" s="67">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="P72" s="54">
+      <c r="P72" s="67">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="Q72" s="54">
+      <c r="Q72" s="67">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
     </row>
     <row r="73" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C73" s="47"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="58"/>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="58"/>
-      <c r="P73" s="58"/>
-      <c r="Q73" s="58"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="70"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="70"/>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="54">
+      <c r="D74" s="72"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="67">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>400</v>
       </c>
-      <c r="G74" s="54">
+      <c r="G74" s="67">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="H74" s="54">
+      <c r="H74" s="67">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
-      <c r="I74" s="54">
+      <c r="I74" s="67">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="J74" s="54">
+      <c r="J74" s="67">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="K74" s="54">
+      <c r="K74" s="67">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="L74" s="54">
+      <c r="L74" s="67">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>150</v>
       </c>
-      <c r="M74" s="54">
+      <c r="M74" s="67">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="N74" s="54">
+      <c r="N74" s="67">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="O74" s="54">
+      <c r="O74" s="67">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="P74" s="54">
+      <c r="P74" s="67">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="Q74" s="54">
+      <c r="Q74" s="67">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="58"/>
-      <c r="Q75" s="58"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="70"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="70"/>
+      <c r="P75" s="70"/>
+      <c r="Q75" s="70"/>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="54">
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="67">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="G76" s="54">
+      <c r="G76" s="67">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>560</v>
       </c>
-      <c r="H76" s="54">
+      <c r="H76" s="67">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>575</v>
       </c>
-      <c r="I76" s="54">
+      <c r="I76" s="67">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>620</v>
       </c>
-      <c r="J76" s="54">
+      <c r="J76" s="67">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="K76" s="54">
+      <c r="K76" s="67">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>500</v>
       </c>
-      <c r="L76" s="54">
+      <c r="L76" s="67">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="M76" s="54">
+      <c r="M76" s="67">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="N76" s="54">
+      <c r="N76" s="67">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="O76" s="54">
+      <c r="O76" s="67">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>475</v>
       </c>
-      <c r="P76" s="54">
+      <c r="P76" s="67">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="Q76" s="54">
+      <c r="Q76" s="67">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>550</v>
       </c>
     </row>
     <row r="77" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C77" s="47"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="58"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="58"/>
-      <c r="P77" s="58"/>
-      <c r="Q77" s="58"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="70"/>
+      <c r="M77" s="70"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="70"/>
+      <c r="P77" s="70"/>
+      <c r="Q77" s="70"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="54">
+      <c r="D78" s="72"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="67">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>410</v>
       </c>
-      <c r="G78" s="54">
+      <c r="G78" s="67">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>430</v>
       </c>
-      <c r="H78" s="54">
+      <c r="H78" s="67">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>380</v>
       </c>
-      <c r="I78" s="54">
+      <c r="I78" s="67">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>350</v>
       </c>
-      <c r="J78" s="54">
+      <c r="J78" s="67">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>330</v>
       </c>
-      <c r="K78" s="54">
+      <c r="K78" s="67">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="L78" s="54">
+      <c r="L78" s="67">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="M78" s="54">
+      <c r="M78" s="67">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="N78" s="54">
+      <c r="N78" s="67">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>320</v>
       </c>
-      <c r="O78" s="54">
+      <c r="O78" s="67">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>310</v>
       </c>
-      <c r="P78" s="54">
+      <c r="P78" s="67">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="Q78" s="54">
+      <c r="Q78" s="67">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>425</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C79" s="47"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="58"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="58"/>
-      <c r="P79" s="58"/>
-      <c r="Q79" s="58"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="70"/>
+      <c r="L79" s="70"/>
+      <c r="M79" s="70"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="70"/>
+      <c r="Q79" s="70"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="54">
+      <c r="D80" s="72"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="67">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>475</v>
       </c>
-      <c r="G80" s="54">
+      <c r="G80" s="67">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="H80" s="54">
+      <c r="H80" s="67">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>375</v>
       </c>
-      <c r="I80" s="54">
+      <c r="I80" s="67">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>425</v>
       </c>
-      <c r="J80" s="54">
+      <c r="J80" s="67">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>430</v>
       </c>
-      <c r="K80" s="54">
+      <c r="K80" s="67">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="L80" s="54">
+      <c r="L80" s="67">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>775</v>
       </c>
-      <c r="M80" s="54">
+      <c r="M80" s="67">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>900</v>
       </c>
-      <c r="N80" s="54">
+      <c r="N80" s="67">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>450</v>
       </c>
-      <c r="O80" s="54">
+      <c r="O80" s="67">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="P80" s="54">
+      <c r="P80" s="67">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="Q80" s="54">
+      <c r="Q80" s="67">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>1400</v>
       </c>
     </row>
     <row r="81" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C81" s="47"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
+      <c r="K81" s="70"/>
+      <c r="L81" s="70"/>
+      <c r="M81" s="70"/>
+      <c r="N81" s="70"/>
+      <c r="O81" s="70"/>
+      <c r="P81" s="70"/>
+      <c r="Q81" s="70"/>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="59"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="56">
+      <c r="D82" s="84"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="65">
         <f>SUM(F68:F81)</f>
         <v>4560</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82" s="65">
         <f t="shared" ref="G82:Q82" si="4">SUM(G68:G81)</f>
         <v>4465</v>
       </c>
-      <c r="H82" s="56">
+      <c r="H82" s="65">
         <f t="shared" si="4"/>
         <v>3980</v>
       </c>
-      <c r="I82" s="56">
+      <c r="I82" s="65">
         <f t="shared" si="4"/>
         <v>4445</v>
       </c>
-      <c r="J82" s="56">
+      <c r="J82" s="65">
         <f t="shared" si="4"/>
         <v>4410</v>
       </c>
-      <c r="K82" s="56">
+      <c r="K82" s="65">
         <f t="shared" si="4"/>
         <v>4015</v>
       </c>
-      <c r="L82" s="56">
+      <c r="L82" s="65">
         <f t="shared" si="4"/>
         <v>4790</v>
       </c>
-      <c r="M82" s="56">
+      <c r="M82" s="65">
         <f t="shared" si="4"/>
         <v>4890</v>
       </c>
-      <c r="N82" s="56">
+      <c r="N82" s="65">
         <f t="shared" si="4"/>
         <v>4520</v>
       </c>
-      <c r="O82" s="56">
+      <c r="O82" s="65">
         <f t="shared" si="4"/>
         <v>4460</v>
       </c>
-      <c r="P82" s="56">
+      <c r="P82" s="65">
         <f t="shared" si="4"/>
         <v>4615</v>
       </c>
-      <c r="Q82" s="56">
+      <c r="Q82" s="65">
         <f t="shared" si="4"/>
         <v>5425</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C83" s="61"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="64"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="88"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+      <c r="P83" s="66"/>
+      <c r="Q83" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C3:I7"/>
+    <mergeCell ref="C9:I13"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="C68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
     <mergeCell ref="C82:E83"/>
     <mergeCell ref="F82:F83"/>
     <mergeCell ref="G82:G83"/>
@@ -11560,224 +13630,16 @@
     <mergeCell ref="P82:P83"/>
     <mergeCell ref="Q82:Q83"/>
     <mergeCell ref="J82:J83"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="C68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="O50:O51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="C3:I7"/>
-    <mergeCell ref="C9:I13"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12150,12 +14012,99 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F746CF65-3B55-4C9F-8D0C-5A4B18F73BE0}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.75">
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4215</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECTS\Excel Annual budgeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A905C-B357-45CF-911D-D64964338B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EF3B0A-93C2-4C2E-8E83-5537CB77936E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" tabRatio="837" activeTab="2" xr2:uid="{66796EC1-6952-4E05-AD15-9B275F7952B0}"/>
   </bookViews>
@@ -24,12 +24,21 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Full Data'!$A$1:$E$133</definedName>
+    <definedName name="Slicer_Month">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId10"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -58,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="57">
   <si>
     <t>Month</t>
   </si>
@@ -224,6 +233,12 @@
   <si>
     <t>Percent</t>
   </si>
+  <si>
+    <t>Annual Budgeting Dashboard</t>
+  </si>
+  <si>
+    <t>Please use the filters to the right to look for the data you want. The filters are attached to the charts below</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +249,7 @@
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,15 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -360,6 +366,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -381,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -470,65 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,7 +519,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -555,224 +536,123 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2380,16 +2260,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2692,7 +2565,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Dashboard.xlsx]Expenses Pie Chart!PivotTable1</c:name>
+    <c:name>[Dashboard.xlsx]Expenses Pie Chart!Expenses pie chart</c:name>
     <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
@@ -5269,15 +5142,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>312761</xdr:colOff>
+      <xdr:colOff>345934</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>118472</xdr:rowOff>
+      <xdr:rowOff>137428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>61604</xdr:colOff>
+      <xdr:colOff>94777</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>161121</xdr:rowOff>
+      <xdr:rowOff>180077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'Savings Percentage'!G7">
       <xdr:nvSpPr>
@@ -5292,7 +5165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5928246" y="4250711"/>
+          <a:off x="5961419" y="4269667"/>
           <a:ext cx="1028321" cy="990410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5378,6 +5251,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72644</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>393321</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>189551</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Month">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22A3D70-7BC1-4541-8529-B9CDC8FC373A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Month"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6327868" y="407537"/>
+              <a:ext cx="4159110" cy="1999775"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5446,7 +5397,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1193163759"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -6382,10 +6333,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAAF7242-7DD7-4EC5-8958-23353EDCA614}" name="Income Chart" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAAF7242-7DD7-4EC5-8958-23353EDCA614}" name="Income Chart" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="4">
   <location ref="C6:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -6673,10 +6624,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE4A1DFA-15FE-4B03-91D8-843002F40EA4}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE4A1DFA-15FE-4B03-91D8-843002F40EA4}" name="savings percentage" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
   <location ref="C5:D8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -6740,10 +6691,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A500ABB-27F6-43E5-8D52-B2B7B94DD952}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A500ABB-27F6-43E5-8D52-B2B7B94DD952}" name="Expenses pie chart" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="C5:D12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -7032,7 +6983,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6A8E325-C1B6-40DD-9751-3FD7D843B6C7}" name="Income" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D6:I20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -7183,7 +7134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="Expense Types" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F5141C68-A555-4696-8C0C-FA9B27AC863F}" name="Expense Types" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D7:L21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" showAll="0">
@@ -7354,6 +7305,40 @@
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Month" xr10:uid="{DB6CDBED-F072-4D2C-9C44-6D15C5FFCD01}" sourceName="Month">
+  <pivotTables>
+    <pivotTable tabId="3" name="Income Chart"/>
+    <pivotTable tabId="5" name="Expenses pie chart"/>
+    <pivotTable tabId="4" name="savings percentage"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1193163759">
+      <items count="12">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Month" xr10:uid="{1AC57BD7-F76F-4916-A4DD-0B2B0F0B36E6}" cache="Slicer_Month" caption="Month" columnCount="3" style="Slicer Style " rowHeight="360000"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7695,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B1FDC1-1897-4043-847A-002EC357DC27}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU13" sqref="AU13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9970,7 +9955,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -9982,7 +9967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5E9AB7-BBDD-489D-BA46-52806ED0A8B9}">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="119" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -11788,153 +11773,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4401540A-95C7-413B-AEFF-BA9648FCAAC4}">
   <dimension ref="C1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="67" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54:J55"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="BE21" sqref="BE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="2" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="3"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
     </row>
     <row r="3" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="Q3" s="4"/>
+      <c r="C3" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="Q4" s="4"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="Q5" s="4"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="Q6" s="4"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="3:17" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="Q7" s="4"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C8" s="5"/>
-      <c r="Q8" s="4"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="Q9" s="4"/>
+      <c r="C9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
     </row>
     <row r="10" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="Q10" s="4"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38"/>
     </row>
     <row r="11" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="Q11" s="4"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="3:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="Q12" s="4"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="Q13" s="4"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="16" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="17" spans="3:17" x14ac:dyDescent="0.75">
@@ -12027,1423 +12100,1533 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="35" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="36" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="36" spans="3:17" ht="18.5" x14ac:dyDescent="0.9">
       <c r="C36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="63" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="63" t="s">
+      <c r="I38" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J38" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="63" t="s">
+      <c r="K38" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="63" t="s">
+      <c r="L38" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="63" t="s">
+      <c r="M38" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="63" t="s">
+      <c r="N38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="63" t="s">
+      <c r="O38" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="P38" s="63" t="s">
+      <c r="P38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="63" t="s">
+      <c r="Q38" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="67">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23">
         <f>F60</f>
         <v>7600</v>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="23">
         <f>G60</f>
         <v>7000</v>
       </c>
-      <c r="H40" s="67">
+      <c r="H40" s="23">
         <f t="shared" ref="H40:Q40" si="0">H60</f>
         <v>7400</v>
       </c>
-      <c r="I40" s="67">
+      <c r="I40" s="23">
         <f t="shared" si="0"/>
         <v>9200</v>
       </c>
-      <c r="J40" s="67">
+      <c r="J40" s="23">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="K40" s="67">
+      <c r="K40" s="23">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="L40" s="67">
+      <c r="L40" s="23">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="M40" s="67">
+      <c r="M40" s="23">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="N40" s="67">
+      <c r="N40" s="23">
         <f t="shared" si="0"/>
         <v>9050</v>
       </c>
-      <c r="O40" s="67">
+      <c r="O40" s="23">
         <f t="shared" si="0"/>
         <v>9250</v>
       </c>
-      <c r="P40" s="67">
+      <c r="P40" s="23">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="Q40" s="67">
+      <c r="Q40" s="23">
         <f t="shared" si="0"/>
         <v>9400</v>
       </c>
     </row>
-    <row r="41" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="67">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23">
         <f>F82</f>
         <v>4560</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="23">
         <f t="shared" ref="G42:Q42" si="1">G82</f>
         <v>4465</v>
       </c>
-      <c r="H42" s="67">
+      <c r="H42" s="23">
         <f t="shared" si="1"/>
         <v>3980</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="23">
         <f t="shared" si="1"/>
         <v>4445</v>
       </c>
-      <c r="J42" s="67">
+      <c r="J42" s="23">
         <f t="shared" si="1"/>
         <v>4410</v>
       </c>
-      <c r="K42" s="67">
+      <c r="K42" s="23">
         <f t="shared" si="1"/>
         <v>4015</v>
       </c>
-      <c r="L42" s="67">
+      <c r="L42" s="23">
         <f t="shared" si="1"/>
         <v>4790</v>
       </c>
-      <c r="M42" s="67">
+      <c r="M42" s="23">
         <f t="shared" si="1"/>
         <v>4890</v>
       </c>
-      <c r="N42" s="67">
+      <c r="N42" s="23">
         <f t="shared" si="1"/>
         <v>4520</v>
       </c>
-      <c r="O42" s="67">
+      <c r="O42" s="23">
         <f t="shared" si="1"/>
         <v>4460</v>
       </c>
-      <c r="P42" s="67">
+      <c r="P42" s="23">
         <f t="shared" si="1"/>
         <v>4615</v>
       </c>
-      <c r="Q42" s="67">
+      <c r="Q42" s="23">
         <f t="shared" si="1"/>
         <v>5425</v>
       </c>
     </row>
-    <row r="43" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="65">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26">
         <f>F40-F42</f>
         <v>3040</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="26">
         <f t="shared" ref="G44:Q44" si="2">G40-G42</f>
         <v>2535</v>
       </c>
-      <c r="H44" s="65">
+      <c r="H44" s="26">
         <f t="shared" si="2"/>
         <v>3420</v>
       </c>
-      <c r="I44" s="65">
+      <c r="I44" s="26">
         <f t="shared" si="2"/>
         <v>4755</v>
       </c>
-      <c r="J44" s="65">
+      <c r="J44" s="26">
         <f t="shared" si="2"/>
         <v>2590</v>
       </c>
-      <c r="K44" s="65">
+      <c r="K44" s="26">
         <f t="shared" si="2"/>
         <v>3485</v>
       </c>
-      <c r="L44" s="65">
+      <c r="L44" s="26">
         <f t="shared" si="2"/>
         <v>2710</v>
       </c>
-      <c r="M44" s="65">
+      <c r="M44" s="26">
         <f t="shared" si="2"/>
         <v>2210</v>
       </c>
-      <c r="N44" s="65">
+      <c r="N44" s="26">
         <f t="shared" si="2"/>
         <v>4530</v>
       </c>
-      <c r="O44" s="65">
+      <c r="O44" s="26">
         <f t="shared" si="2"/>
         <v>4790</v>
       </c>
-      <c r="P44" s="65">
+      <c r="P44" s="26">
         <f t="shared" si="2"/>
         <v>4085</v>
       </c>
-      <c r="Q44" s="65">
+      <c r="Q44" s="26">
         <f t="shared" si="2"/>
         <v>3975</v>
       </c>
     </row>
-    <row r="45" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="69"/>
-    </row>
-    <row r="47" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="48" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+    </row>
+    <row r="48" spans="3:17" ht="18.5" x14ac:dyDescent="0.9">
       <c r="C48" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
-    </row>
-    <row r="49" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+    </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="63" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="63" t="s">
+      <c r="I50" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="63" t="s">
+      <c r="J50" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="63" t="s">
+      <c r="K50" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L50" s="63" t="s">
+      <c r="L50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M50" s="63" t="s">
+      <c r="M50" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N50" s="63" t="s">
+      <c r="N50" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="63" t="s">
+      <c r="O50" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="63" t="s">
+      <c r="P50" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="63" t="s">
+      <c r="Q50" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
     </row>
     <row r="52" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="67">
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="23">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="G52" s="67">
+      <c r="G52" s="23">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="H52" s="67">
+      <c r="H52" s="23">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="23">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>7500</v>
       </c>
-      <c r="J52" s="67">
+      <c r="J52" s="23">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="K52" s="67">
+      <c r="K52" s="23">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="L52" s="67">
+      <c r="L52" s="23">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="M52" s="67">
+      <c r="M52" s="23">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N52" s="67">
+      <c r="N52" s="23">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="O52" s="67">
+      <c r="O52" s="23">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="P52" s="67">
+      <c r="P52" s="23">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="Q52" s="67">
+      <c r="Q52" s="23">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,2,FALSE)</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
     </row>
     <row r="54" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="67">
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="23">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="G54" s="67">
+      <c r="G54" s="23">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="H54" s="67">
+      <c r="H54" s="23">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="23">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="67">
+      <c r="J54" s="23">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="K54" s="67">
+      <c r="K54" s="23">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="L54" s="67">
+      <c r="L54" s="23">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="M54" s="67">
+      <c r="M54" s="23">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="N54" s="67">
+      <c r="N54" s="23">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>850</v>
       </c>
-      <c r="O54" s="67">
+      <c r="O54" s="23">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>950</v>
       </c>
-      <c r="P54" s="67">
+      <c r="P54" s="23">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="Q54" s="67">
+      <c r="Q54" s="23">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,3,FALSE)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-      <c r="N55" s="70"/>
-      <c r="O55" s="70"/>
-      <c r="P55" s="70"/>
-      <c r="Q55" s="70"/>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
     </row>
     <row r="56" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="67">
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="23">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G56" s="67">
+      <c r="G56" s="23">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="H56" s="67">
+      <c r="H56" s="23">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="23">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="J56" s="67">
+      <c r="J56" s="23">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="K56" s="67">
+      <c r="K56" s="23">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L56" s="67">
+      <c r="L56" s="23">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M56" s="67">
+      <c r="M56" s="23">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="67">
+      <c r="N56" s="23">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="O56" s="67">
+      <c r="O56" s="23">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="P56" s="67">
+      <c r="P56" s="23">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="Q56" s="67">
+      <c r="Q56" s="23">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,4,FALSE)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="72"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="67">
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="23">
         <f>VLOOKUP(F50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="G58" s="67">
+      <c r="G58" s="23">
         <f>VLOOKUP(G50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1100</v>
       </c>
-      <c r="H58" s="67">
+      <c r="H58" s="23">
         <f>VLOOKUP(H50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="I58" s="67">
+      <c r="I58" s="23">
         <f>VLOOKUP(I50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="J58" s="67">
+      <c r="J58" s="23">
         <f>VLOOKUP(J50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>800</v>
       </c>
-      <c r="K58" s="67">
+      <c r="K58" s="23">
         <f>VLOOKUP(K50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2200</v>
       </c>
-      <c r="L58" s="67">
+      <c r="L58" s="23">
         <f>VLOOKUP(L50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2100</v>
       </c>
-      <c r="M58" s="67">
+      <c r="M58" s="23">
         <f>VLOOKUP(M50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1900</v>
       </c>
-      <c r="N58" s="67">
+      <c r="N58" s="23">
         <f>VLOOKUP(N50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="O58" s="67">
+      <c r="O58" s="23">
         <f>VLOOKUP(O50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1700</v>
       </c>
-      <c r="P58" s="67">
+      <c r="P58" s="23">
         <f>VLOOKUP(P50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>1600</v>
       </c>
-      <c r="Q58" s="67">
+      <c r="Q58" s="23">
         <f>VLOOKUP(Q50,Income!$D$7:$H$19,5,FALSE)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="70"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="70"/>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C60" s="77" t="s">
+      <c r="C60" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="65">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="26">
         <f>SUM(F52:F58)</f>
         <v>7600</v>
       </c>
-      <c r="G60" s="65">
+      <c r="G60" s="26">
         <f t="shared" ref="G60:Q60" si="3">SUM(G52:G58)</f>
         <v>7000</v>
       </c>
-      <c r="H60" s="65">
+      <c r="H60" s="26">
         <f t="shared" si="3"/>
         <v>7400</v>
       </c>
-      <c r="I60" s="65">
+      <c r="I60" s="26">
         <f t="shared" si="3"/>
         <v>9200</v>
       </c>
-      <c r="J60" s="65">
+      <c r="J60" s="26">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="K60" s="65">
+      <c r="K60" s="26">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="L60" s="65">
+      <c r="L60" s="26">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
-      <c r="M60" s="65">
+      <c r="M60" s="26">
         <f t="shared" si="3"/>
         <v>7100</v>
       </c>
-      <c r="N60" s="65">
+      <c r="N60" s="26">
         <f t="shared" si="3"/>
         <v>9050</v>
       </c>
-      <c r="O60" s="65">
+      <c r="O60" s="26">
         <f t="shared" si="3"/>
         <v>9250</v>
       </c>
-      <c r="P60" s="65">
+      <c r="P60" s="26">
         <f t="shared" si="3"/>
         <v>8700</v>
       </c>
-      <c r="Q60" s="65">
+      <c r="Q60" s="26">
         <f t="shared" si="3"/>
         <v>9400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C61" s="80"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-    </row>
-    <row r="63" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
-    <row r="64" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+    </row>
+    <row r="64" spans="3:17" ht="18.5" x14ac:dyDescent="0.9">
       <c r="C64" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+      <c r="E64" s="18"/>
+    </row>
     <row r="66" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="63" t="s">
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="63" t="s">
+      <c r="G66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="63" t="s">
+      <c r="I66" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="63" t="s">
+      <c r="J66" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="63" t="s">
+      <c r="K66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L66" s="63" t="s">
+      <c r="L66" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M66" s="63" t="s">
+      <c r="M66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="63" t="s">
+      <c r="N66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="63" t="s">
+      <c r="O66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="P66" s="63" t="s">
+      <c r="P66" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="63" t="s">
+      <c r="Q66" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
-      <c r="J67" s="64"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="64"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="64"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="64"/>
+    <row r="67" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
     </row>
     <row r="68" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="67">
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="23">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="G68" s="67">
+      <c r="G68" s="23">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="H68" s="67">
+      <c r="H68" s="23">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="I68" s="67">
+      <c r="I68" s="23">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="J68" s="67">
+      <c r="J68" s="23">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="K68" s="67">
+      <c r="K68" s="23">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2100</v>
       </c>
-      <c r="L68" s="67">
+      <c r="L68" s="23">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="M68" s="67">
+      <c r="M68" s="23">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="N68" s="67">
+      <c r="N68" s="23">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="O68" s="67">
+      <c r="O68" s="23">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="P68" s="67">
+      <c r="P68" s="23">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
-      <c r="Q68" s="67">
+      <c r="Q68" s="23">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$E$9:$E$20)</f>
         <v>2350</v>
       </c>
     </row>
-    <row r="69" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="70"/>
-      <c r="N69" s="70"/>
-      <c r="O69" s="70"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
     </row>
     <row r="70" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="72"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="67">
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="23">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="G70" s="67">
+      <c r="G70" s="23">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="H70" s="67">
+      <c r="H70" s="23">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="I70" s="67">
+      <c r="I70" s="23">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="J70" s="67">
+      <c r="J70" s="23">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="K70" s="67">
+      <c r="K70" s="23">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="L70" s="67">
+      <c r="L70" s="23">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="M70" s="67">
+      <c r="M70" s="23">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="N70" s="67">
+      <c r="N70" s="23">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="O70" s="67">
+      <c r="O70" s="23">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
-      <c r="P70" s="67">
+      <c r="P70" s="23">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>400</v>
       </c>
-      <c r="Q70" s="67">
+      <c r="Q70" s="23">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$F$9:$F$20)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C71" s="74"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="70"/>
-      <c r="O71" s="70"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="70"/>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
     </row>
     <row r="72" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="72"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="67">
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="23">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="G72" s="67">
+      <c r="G72" s="23">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="H72" s="67">
+      <c r="H72" s="23">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="I72" s="67">
+      <c r="I72" s="23">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="J72" s="67">
+      <c r="J72" s="23">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="K72" s="67">
+      <c r="K72" s="23">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="L72" s="67">
+      <c r="L72" s="23">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="M72" s="67">
+      <c r="M72" s="23">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>150</v>
       </c>
-      <c r="N72" s="67">
+      <c r="N72" s="23">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
-      <c r="O72" s="67">
+      <c r="O72" s="23">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="P72" s="67">
+      <c r="P72" s="23">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>225</v>
       </c>
-      <c r="Q72" s="67">
+      <c r="Q72" s="23">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$G$9:$G$20)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C73" s="74"/>
-      <c r="D73" s="75"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="70"/>
-      <c r="P73" s="70"/>
-      <c r="Q73" s="70"/>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
     </row>
     <row r="74" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="67">
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="23">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>400</v>
       </c>
-      <c r="G74" s="67">
+      <c r="G74" s="23">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="H74" s="67">
+      <c r="H74" s="23">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
-      <c r="I74" s="67">
+      <c r="I74" s="23">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="J74" s="67">
+      <c r="J74" s="23">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="K74" s="67">
+      <c r="K74" s="23">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>300</v>
       </c>
-      <c r="L74" s="67">
+      <c r="L74" s="23">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>150</v>
       </c>
-      <c r="M74" s="67">
+      <c r="M74" s="23">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="N74" s="67">
+      <c r="N74" s="23">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="O74" s="67">
+      <c r="O74" s="23">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>500</v>
       </c>
-      <c r="P74" s="67">
+      <c r="P74" s="23">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>200</v>
       </c>
-      <c r="Q74" s="67">
+      <c r="Q74" s="23">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$H$9:$H$20)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C75" s="74"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="70"/>
-      <c r="O75" s="70"/>
-      <c r="P75" s="70"/>
-      <c r="Q75" s="70"/>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
     </row>
     <row r="76" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C76" s="71" t="s">
+      <c r="C76" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="67">
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="23">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="G76" s="67">
+      <c r="G76" s="23">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>560</v>
       </c>
-      <c r="H76" s="67">
+      <c r="H76" s="23">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>575</v>
       </c>
-      <c r="I76" s="67">
+      <c r="I76" s="23">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>620</v>
       </c>
-      <c r="J76" s="67">
+      <c r="J76" s="23">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="K76" s="67">
+      <c r="K76" s="23">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>500</v>
       </c>
-      <c r="L76" s="67">
+      <c r="L76" s="23">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="M76" s="67">
+      <c r="M76" s="23">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>650</v>
       </c>
-      <c r="N76" s="67">
+      <c r="N76" s="23">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="O76" s="67">
+      <c r="O76" s="23">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>475</v>
       </c>
-      <c r="P76" s="67">
+      <c r="P76" s="23">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>600</v>
       </c>
-      <c r="Q76" s="67">
+      <c r="Q76" s="23">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$I$9:$I$20)</f>
         <v>550</v>
       </c>
     </row>
-    <row r="77" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="70"/>
-      <c r="O77" s="70"/>
-      <c r="P77" s="70"/>
-      <c r="Q77" s="70"/>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
     </row>
     <row r="78" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="72"/>
-      <c r="E78" s="73"/>
-      <c r="F78" s="67">
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="23">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>410</v>
       </c>
-      <c r="G78" s="67">
+      <c r="G78" s="23">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>430</v>
       </c>
-      <c r="H78" s="67">
+      <c r="H78" s="23">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>380</v>
       </c>
-      <c r="I78" s="67">
+      <c r="I78" s="23">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>350</v>
       </c>
-      <c r="J78" s="67">
+      <c r="J78" s="23">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>330</v>
       </c>
-      <c r="K78" s="67">
+      <c r="K78" s="23">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="L78" s="67">
+      <c r="L78" s="23">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="M78" s="67">
+      <c r="M78" s="23">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>340</v>
       </c>
-      <c r="N78" s="67">
+      <c r="N78" s="23">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>320</v>
       </c>
-      <c r="O78" s="67">
+      <c r="O78" s="23">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>310</v>
       </c>
-      <c r="P78" s="67">
+      <c r="P78" s="23">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>290</v>
       </c>
-      <c r="Q78" s="67">
+      <c r="Q78" s="23">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$J$9:$J$20)</f>
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C79" s="74"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="70"/>
-      <c r="O79" s="70"/>
-      <c r="P79" s="70"/>
-      <c r="Q79" s="70"/>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
     </row>
     <row r="80" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C80" s="71" t="s">
+      <c r="C80" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="67">
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="23">
         <f>_xlfn.XLOOKUP(F66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>475</v>
       </c>
-      <c r="G80" s="67">
+      <c r="G80" s="23">
         <f>_xlfn.XLOOKUP(G66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="H80" s="67">
+      <c r="H80" s="23">
         <f>_xlfn.XLOOKUP(H66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>375</v>
       </c>
-      <c r="I80" s="67">
+      <c r="I80" s="23">
         <f>_xlfn.XLOOKUP(I66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>425</v>
       </c>
-      <c r="J80" s="67">
+      <c r="J80" s="23">
         <f>_xlfn.XLOOKUP(J66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>430</v>
       </c>
-      <c r="K80" s="67">
+      <c r="K80" s="23">
         <f>_xlfn.XLOOKUP(K66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="L80" s="67">
+      <c r="L80" s="23">
         <f>_xlfn.XLOOKUP(L66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>775</v>
       </c>
-      <c r="M80" s="67">
+      <c r="M80" s="23">
         <f>_xlfn.XLOOKUP(M66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>900</v>
       </c>
-      <c r="N80" s="67">
+      <c r="N80" s="23">
         <f>_xlfn.XLOOKUP(N66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>450</v>
       </c>
-      <c r="O80" s="67">
+      <c r="O80" s="23">
         <f>_xlfn.XLOOKUP(O66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>300</v>
       </c>
-      <c r="P80" s="67">
+      <c r="P80" s="23">
         <f>_xlfn.XLOOKUP(P66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>550</v>
       </c>
-      <c r="Q80" s="67">
+      <c r="Q80" s="23">
         <f>_xlfn.XLOOKUP(Q66,Expenses!$D$9:$D$20,Expenses!$K$9:$K$20)</f>
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C81" s="74"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70"/>
-      <c r="L81" s="70"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="70"/>
-      <c r="O81" s="70"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="70"/>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.75">
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="84"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="65">
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="26">
         <f>SUM(F68:F81)</f>
         <v>4560</v>
       </c>
-      <c r="G82" s="65">
+      <c r="G82" s="26">
         <f t="shared" ref="G82:Q82" si="4">SUM(G68:G81)</f>
         <v>4465</v>
       </c>
-      <c r="H82" s="65">
+      <c r="H82" s="26">
         <f t="shared" si="4"/>
         <v>3980</v>
       </c>
-      <c r="I82" s="65">
+      <c r="I82" s="26">
         <f t="shared" si="4"/>
         <v>4445</v>
       </c>
-      <c r="J82" s="65">
+      <c r="J82" s="26">
         <f t="shared" si="4"/>
         <v>4410</v>
       </c>
-      <c r="K82" s="65">
+      <c r="K82" s="26">
         <f t="shared" si="4"/>
         <v>4015</v>
       </c>
-      <c r="L82" s="65">
+      <c r="L82" s="26">
         <f t="shared" si="4"/>
         <v>4790</v>
       </c>
-      <c r="M82" s="65">
+      <c r="M82" s="26">
         <f t="shared" si="4"/>
         <v>4890</v>
       </c>
-      <c r="N82" s="65">
+      <c r="N82" s="26">
         <f t="shared" si="4"/>
         <v>4520</v>
       </c>
-      <c r="O82" s="65">
+      <c r="O82" s="26">
         <f t="shared" si="4"/>
         <v>4460</v>
       </c>
-      <c r="P82" s="65">
+      <c r="P82" s="26">
         <f t="shared" si="4"/>
         <v>4615</v>
       </c>
-      <c r="Q82" s="65">
+      <c r="Q82" s="26">
         <f t="shared" si="4"/>
         <v>5425</v>
       </c>
     </row>
-    <row r="83" spans="3:17" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C83" s="86"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="66"/>
-      <c r="Q83" s="66"/>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.75">
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="C3:I7"/>
-    <mergeCell ref="C9:I13"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="Q40:Q41"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="P76:P77"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="P74:P75"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="P70:P71"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="C68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="C52:E53"/>
     <mergeCell ref="F52:F53"/>
@@ -13468,181 +13651,72 @@
     <mergeCell ref="J50:J51"/>
     <mergeCell ref="N52:N53"/>
     <mergeCell ref="O52:O53"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="P70:P71"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="O70:O71"/>
-    <mergeCell ref="C68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="P74:P75"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="P76:P77"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="C80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="C3:I7"/>
+    <mergeCell ref="C9:I13"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13651,13 +13725,13 @@
   <dimension ref="C3:G19"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="CC27" sqref="CC27"/>
+      <selection activeCell="BQ15" sqref="BQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.31640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.31640625" bestFit="1" customWidth="1"/>
@@ -13926,7 +14000,7 @@
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14015,7 +14089,7 @@
   <dimension ref="C2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14114,7 +14188,7 @@
   <dimension ref="C3:I25"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="BE12" sqref="BE12"/>
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -14451,7 +14525,7 @@
   <dimension ref="D4:L21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BH16" sqref="BH16"/>
+      <selection activeCell="BQ14" sqref="BQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
